--- a/構成事例一覧_分析①_マージ中.xlsx
+++ b/構成事例一覧_分析①_マージ中.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u031330\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aseki\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5CB113-E410-4D2E-ADD2-2B5482AE2B2E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4104630-E355-4DF9-B3E3-BB1F044A6C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{4A36A56C-AF85-416F-9D8A-7C208E1A6CF0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12420" xr2:uid="{4A36A56C-AF85-416F-9D8A-7C208E1A6CF0}"/>
   </bookViews>
   <sheets>
     <sheet name="事例一覧" sheetId="3" r:id="rId1"/>
     <sheet name="事例分析①_設計手法・パターンの抽出・整理" sheetId="2" r:id="rId2"/>
+    <sheet name="事例分析②_設計手法・パターンの集約" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="632">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -4253,6 +4254,406 @@
     <rPh sb="0" eb="2">
       <t>サクラギ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>株式会社プロトコーポレーション</t>
+  </si>
+  <si>
+    <t>小売価格</t>
+    <rPh sb="0" eb="2">
+      <t>コウリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Informatica Enterprise Data Catalog</t>
+  </si>
+  <si>
+    <t>データクレンジング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自社Webサイト</t>
+    <rPh sb="0" eb="2">
+      <t>ジシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オークション取引情報</t>
+    <rPh sb="6" eb="8">
+      <t>トリヒキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>価格相場情報</t>
+    <rPh sb="0" eb="2">
+      <t>カカク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソウバ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品詳細情報</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リコー</t>
+  </si>
+  <si>
+    <t>機器(プリンタ等)</t>
+    <rPh sb="0" eb="2">
+      <t>キキ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>トウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機器利用状況</t>
+    <rPh sb="0" eb="2">
+      <t>キキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Amazon QuickSight</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>顧客</t>
+    <rPh sb="0" eb="2">
+      <t>コキャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機器の異常検知</t>
+    <rPh sb="0" eb="2">
+      <t>キキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Amazon Kinesis</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWS Glue</t>
+  </si>
+  <si>
+    <t>第一三共</t>
+  </si>
+  <si>
+    <t>社内システム</t>
+    <rPh sb="0" eb="2">
+      <t>シャナイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>経理データ</t>
+    <rPh sb="0" eb="2">
+      <t>ケイリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フラットファイル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Informatica</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SAS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>薬の効果</t>
+    <rPh sb="0" eb="1">
+      <t>クスリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>構造化データ</t>
+    <rPh sb="0" eb="3">
+      <t>コウゾウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Amazon Aurora</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TIBCO Spotfire</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>安全性分析</t>
+    <rPh sb="0" eb="3">
+      <t>アンゼンセイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ブンセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コールセンター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大規模データ</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>キボ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SaaS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>申請文書</t>
+    <rPh sb="0" eb="2">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ブンショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分散処理用データ</t>
+    <rPh sb="0" eb="2">
+      <t>ブンサン</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ショリヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hadoop</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>臨床試験データ</t>
+    <rPh sb="0" eb="2">
+      <t>リンショウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検体管理情報</t>
+    <rPh sb="0" eb="2">
+      <t>ケンタイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外部データソース</t>
+    <rPh sb="0" eb="2">
+      <t>ガイブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>医療報酬明細</t>
+    <rPh sb="0" eb="2">
+      <t>イリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホウシュウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>メイサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウシオ電機</t>
+  </si>
+  <si>
+    <t>自社製造現場PC</t>
+    <rPh sb="0" eb="2">
+      <t>ジシャ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セイゾウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ゲンバ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWS Direct Connect</t>
+  </si>
+  <si>
+    <t>DWH</t>
+  </si>
+  <si>
+    <t>Amazon Redshift</t>
+  </si>
+  <si>
+    <t>Yellowfin</t>
+  </si>
+  <si>
+    <t>自社製造現場内設備(FA機器)</t>
+    <rPh sb="0" eb="2">
+      <t>ジシャ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セイゾウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ゲンバ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セツビ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Amazon EC2</t>
+  </si>
+  <si>
+    <t>電力量計測設備</t>
+    <rPh sb="0" eb="2">
+      <t>デンリョク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケイソク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セツビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スターバックス コーヒー ジャパン</t>
+  </si>
+  <si>
+    <t>モバイルアプリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>顧客動向</t>
+    <rPh sb="0" eb="2">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ドウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自社サイト</t>
+    <rPh sb="0" eb="2">
+      <t>ジシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>田辺三菱製薬</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWS Database Migration Service</t>
+  </si>
+  <si>
+    <t>ウシオ電機</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWS Direct Connect</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設計手法・パターン(整理後)</t>
+    <rPh sb="10" eb="12">
+      <t>セイリ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(ETL)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Olympus Corporation of Asia PacificLimited
+（オリンパス アジア・パシフィック社）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リアルタイムデータ連携</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4391,7 +4792,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="50">
+  <borders count="53">
     <border>
       <left/>
       <right/>
@@ -4988,6 +5389,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4997,7 +5435,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5301,128 +5739,176 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7359,31 +7845,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3674BA6-5454-4C47-9B8A-0610F02E75D0}">
   <dimension ref="A1:O137"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="2.69921875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.09765625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.69921875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="70.69921875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="33.296875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="31.3984375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="28.08203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="70.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="33.33203125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="31.4140625" style="3" customWidth="1"/>
     <col min="10" max="11" width="21.5" style="3" customWidth="1"/>
-    <col min="12" max="12" width="8.796875" style="2"/>
+    <col min="12" max="12" width="8.83203125" style="2"/>
     <col min="13" max="13" width="21.5" style="3" customWidth="1"/>
-    <col min="14" max="14" width="5.8984375" style="3" customWidth="1"/>
+    <col min="14" max="14" width="5.9140625" style="3" customWidth="1"/>
     <col min="15" max="15" width="21.5" style="3" customWidth="1"/>
-    <col min="16" max="16384" width="8.796875" style="2"/>
+    <col min="16" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
@@ -7418,13 +7904,13 @@
         <v>123</v>
       </c>
       <c r="L1" s="52"/>
-      <c r="M1" s="101" t="s">
+      <c r="M1" s="144" t="s">
         <v>124</v>
       </c>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101"/>
-    </row>
-    <row r="2" spans="1:15" ht="39.6" x14ac:dyDescent="0.45">
+      <c r="N1" s="144"/>
+      <c r="O1" s="144"/>
+    </row>
+    <row r="2" spans="1:15" ht="42" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="53">
         <v>1</v>
       </c>
@@ -7450,22 +7936,22 @@
       <c r="I2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="102" t="s">
+      <c r="J2" s="135" t="s">
         <v>97</v>
       </c>
-      <c r="K2" s="104" t="s">
+      <c r="K2" s="131" t="s">
         <v>101</v>
       </c>
       <c r="L2" s="54"/>
-      <c r="M2" s="102" t="s">
+      <c r="M2" s="135" t="s">
         <v>125</v>
       </c>
-      <c r="N2" s="102"/>
-      <c r="O2" s="102" t="s">
+      <c r="N2" s="135"/>
+      <c r="O2" s="135" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="26.4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" ht="28" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="55"/>
       <c r="F3" s="3" t="s">
         <v>12</v>
@@ -7476,14 +7962,14 @@
       <c r="I3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="103"/>
-      <c r="K3" s="105"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="132"/>
       <c r="L3" s="54"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103"/>
-    </row>
-    <row r="4" spans="1:15" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="M3" s="136"/>
+      <c r="N3" s="136"/>
+      <c r="O3" s="136"/>
+    </row>
+    <row r="4" spans="1:15" ht="28" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="55"/>
       <c r="F4" s="3" t="s">
         <v>15</v>
@@ -7494,14 +7980,14 @@
       <c r="I4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="103"/>
-      <c r="K4" s="105"/>
+      <c r="J4" s="136"/>
+      <c r="K4" s="132"/>
       <c r="L4" s="54"/>
-      <c r="M4" s="103"/>
-      <c r="N4" s="103"/>
-      <c r="O4" s="103"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="M4" s="136"/>
+      <c r="N4" s="136"/>
+      <c r="O4" s="136"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="55"/>
       <c r="I5" s="6"/>
       <c r="J5" s="22"/>
@@ -7511,7 +7997,7 @@
       <c r="N5" s="22"/>
       <c r="O5" s="22"/>
     </row>
-    <row r="6" spans="1:15" ht="52.8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" ht="56" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="53">
         <v>2</v>
       </c>
@@ -7537,22 +8023,22 @@
       <c r="I6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="102" t="s">
+      <c r="J6" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="K6" s="104" t="s">
+      <c r="K6" s="131" t="s">
         <v>100</v>
       </c>
       <c r="L6" s="54"/>
-      <c r="M6" s="102" t="s">
+      <c r="M6" s="135" t="s">
         <v>126</v>
       </c>
-      <c r="N6" s="102"/>
-      <c r="O6" s="102" t="s">
+      <c r="N6" s="135"/>
+      <c r="O6" s="135" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="26.4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" ht="28" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="55"/>
       <c r="F7" s="3" t="s">
         <v>22</v>
@@ -7561,14 +8047,14 @@
         <v>23</v>
       </c>
       <c r="I7" s="6"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="105"/>
+      <c r="J7" s="136"/>
+      <c r="K7" s="132"/>
       <c r="L7" s="54"/>
-      <c r="M7" s="103"/>
-      <c r="N7" s="103"/>
-      <c r="O7" s="103"/>
-    </row>
-    <row r="8" spans="1:15" ht="39.6" x14ac:dyDescent="0.45">
+      <c r="M7" s="136"/>
+      <c r="N7" s="136"/>
+      <c r="O7" s="136"/>
+    </row>
+    <row r="8" spans="1:15" ht="42" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="58"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -7582,14 +8068,14 @@
       </c>
       <c r="H8" s="24"/>
       <c r="I8" s="7"/>
-      <c r="J8" s="106"/>
-      <c r="K8" s="107"/>
+      <c r="J8" s="137"/>
+      <c r="K8" s="133"/>
       <c r="L8" s="54"/>
-      <c r="M8" s="106"/>
-      <c r="N8" s="106"/>
-      <c r="O8" s="106"/>
-    </row>
-    <row r="9" spans="1:15" ht="52.8" x14ac:dyDescent="0.45">
+      <c r="M8" s="137"/>
+      <c r="N8" s="137"/>
+      <c r="O8" s="137"/>
+    </row>
+    <row r="9" spans="1:15" ht="56" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="53">
         <v>3</v>
       </c>
@@ -7615,22 +8101,22 @@
       <c r="I9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J9" s="102" t="s">
+      <c r="J9" s="135" t="s">
         <v>102</v>
       </c>
-      <c r="K9" s="104" t="s">
+      <c r="K9" s="131" t="s">
         <v>103</v>
       </c>
       <c r="L9" s="54"/>
-      <c r="M9" s="102" t="s">
+      <c r="M9" s="135" t="s">
         <v>128</v>
       </c>
-      <c r="N9" s="102"/>
-      <c r="O9" s="102" t="s">
+      <c r="N9" s="135"/>
+      <c r="O9" s="135" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="26.4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15" ht="28" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="55"/>
       <c r="F10" s="3" t="s">
         <v>29</v>
@@ -7641,14 +8127,14 @@
       <c r="I10" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="J10" s="103"/>
-      <c r="K10" s="105"/>
+      <c r="J10" s="136"/>
+      <c r="K10" s="132"/>
       <c r="L10" s="54"/>
-      <c r="M10" s="103"/>
-      <c r="N10" s="103"/>
-      <c r="O10" s="103"/>
-    </row>
-    <row r="11" spans="1:15" ht="52.8" x14ac:dyDescent="0.45">
+      <c r="M10" s="136"/>
+      <c r="N10" s="136"/>
+      <c r="O10" s="136"/>
+    </row>
+    <row r="11" spans="1:15" ht="56" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="58"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
@@ -7664,14 +8150,14 @@
       <c r="I11" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="J11" s="106"/>
-      <c r="K11" s="107"/>
+      <c r="J11" s="137"/>
+      <c r="K11" s="133"/>
       <c r="L11" s="54"/>
-      <c r="M11" s="106"/>
-      <c r="N11" s="106"/>
-      <c r="O11" s="106"/>
-    </row>
-    <row r="12" spans="1:15" ht="39.6" x14ac:dyDescent="0.45">
+      <c r="M11" s="137"/>
+      <c r="N11" s="137"/>
+      <c r="O11" s="137"/>
+    </row>
+    <row r="12" spans="1:15" ht="42" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="53">
         <v>4</v>
       </c>
@@ -7697,18 +8183,18 @@
       <c r="I12" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="J12" s="102" t="s">
+      <c r="J12" s="135" t="s">
         <v>120</v>
       </c>
-      <c r="K12" s="104" t="s">
+      <c r="K12" s="131" t="s">
         <v>121</v>
       </c>
       <c r="L12" s="54"/>
-      <c r="M12" s="102"/>
-      <c r="N12" s="102"/>
-      <c r="O12" s="102"/>
-    </row>
-    <row r="13" spans="1:15" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="M12" s="135"/>
+      <c r="N12" s="135"/>
+      <c r="O12" s="135"/>
+    </row>
+    <row r="13" spans="1:15" ht="28" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="55"/>
       <c r="F13" s="3" t="s">
         <v>46</v>
@@ -7719,24 +8205,24 @@
       <c r="I13" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="J13" s="103"/>
-      <c r="K13" s="105"/>
+      <c r="J13" s="136"/>
+      <c r="K13" s="132"/>
       <c r="L13" s="54"/>
-      <c r="M13" s="103"/>
-      <c r="N13" s="103"/>
-      <c r="O13" s="103"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="M13" s="136"/>
+      <c r="N13" s="136"/>
+      <c r="O13" s="136"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="55"/>
       <c r="I14" s="6"/>
-      <c r="J14" s="103"/>
-      <c r="K14" s="105"/>
+      <c r="J14" s="136"/>
+      <c r="K14" s="132"/>
       <c r="L14" s="54"/>
-      <c r="M14" s="103"/>
-      <c r="N14" s="103"/>
-      <c r="O14" s="103"/>
-    </row>
-    <row r="15" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="M14" s="136"/>
+      <c r="N14" s="136"/>
+      <c r="O14" s="136"/>
+    </row>
+    <row r="15" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="58"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
@@ -7746,14 +8232,14 @@
       <c r="G15" s="24"/>
       <c r="H15" s="24"/>
       <c r="I15" s="7"/>
-      <c r="J15" s="106"/>
-      <c r="K15" s="107"/>
+      <c r="J15" s="137"/>
+      <c r="K15" s="133"/>
       <c r="L15" s="54"/>
-      <c r="M15" s="106"/>
-      <c r="N15" s="106"/>
-      <c r="O15" s="106"/>
-    </row>
-    <row r="16" spans="1:15" ht="66" x14ac:dyDescent="0.45">
+      <c r="M15" s="137"/>
+      <c r="N15" s="137"/>
+      <c r="O15" s="137"/>
+    </row>
+    <row r="16" spans="1:15" ht="70" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="53">
         <v>5</v>
       </c>
@@ -7779,18 +8265,18 @@
       <c r="I16" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="J16" s="102" t="s">
+      <c r="J16" s="135" t="s">
         <v>112</v>
       </c>
-      <c r="K16" s="104" t="s">
+      <c r="K16" s="131" t="s">
         <v>111</v>
       </c>
       <c r="L16" s="54"/>
-      <c r="M16" s="102"/>
-      <c r="N16" s="102"/>
-      <c r="O16" s="102"/>
-    </row>
-    <row r="17" spans="1:15" ht="39.6" x14ac:dyDescent="0.45">
+      <c r="M16" s="135"/>
+      <c r="N16" s="135"/>
+      <c r="O16" s="135"/>
+    </row>
+    <row r="17" spans="1:15" ht="42" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="55"/>
       <c r="E17" s="3" t="s">
         <v>163</v>
@@ -7804,14 +8290,14 @@
       <c r="I17" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="J17" s="103"/>
-      <c r="K17" s="105"/>
+      <c r="J17" s="136"/>
+      <c r="K17" s="132"/>
       <c r="L17" s="54"/>
-      <c r="M17" s="103"/>
-      <c r="N17" s="103"/>
-      <c r="O17" s="103"/>
-    </row>
-    <row r="18" spans="1:15" ht="52.8" x14ac:dyDescent="0.45">
+      <c r="M17" s="136"/>
+      <c r="N17" s="136"/>
+      <c r="O17" s="136"/>
+    </row>
+    <row r="18" spans="1:15" ht="56" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="55"/>
       <c r="F18" s="3" t="s">
         <v>107</v>
@@ -7821,14 +8307,14 @@
       </c>
       <c r="H18" s="17"/>
       <c r="I18" s="6"/>
-      <c r="J18" s="103"/>
-      <c r="K18" s="105"/>
+      <c r="J18" s="136"/>
+      <c r="K18" s="132"/>
       <c r="L18" s="54"/>
-      <c r="M18" s="103"/>
-      <c r="N18" s="103"/>
-      <c r="O18" s="103"/>
-    </row>
-    <row r="19" spans="1:15" ht="66" x14ac:dyDescent="0.45">
+      <c r="M18" s="136"/>
+      <c r="N18" s="136"/>
+      <c r="O18" s="136"/>
+    </row>
+    <row r="19" spans="1:15" ht="70" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="55"/>
       <c r="F19" s="3" t="s">
         <v>58</v>
@@ -7839,14 +8325,14 @@
       <c r="I19" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="J19" s="103"/>
-      <c r="K19" s="105"/>
+      <c r="J19" s="136"/>
+      <c r="K19" s="132"/>
       <c r="L19" s="54"/>
-      <c r="M19" s="103"/>
-      <c r="N19" s="103"/>
-      <c r="O19" s="103"/>
-    </row>
-    <row r="20" spans="1:15" ht="52.8" x14ac:dyDescent="0.45">
+      <c r="M19" s="136"/>
+      <c r="N19" s="136"/>
+      <c r="O19" s="136"/>
+    </row>
+    <row r="20" spans="1:15" ht="56" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="53">
         <v>6</v>
       </c>
@@ -7872,35 +8358,35 @@
       <c r="I20" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="J20" s="102" t="s">
+      <c r="J20" s="135" t="s">
         <v>98</v>
       </c>
-      <c r="K20" s="104" t="s">
+      <c r="K20" s="131" t="s">
         <v>99</v>
       </c>
       <c r="L20" s="54"/>
-      <c r="M20" s="102"/>
-      <c r="N20" s="102"/>
-      <c r="O20" s="102"/>
-    </row>
-    <row r="21" spans="1:15" ht="52.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="M20" s="135"/>
+      <c r="N20" s="135"/>
+      <c r="O20" s="135"/>
+    </row>
+    <row r="21" spans="1:15" ht="52.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="55"/>
       <c r="E21" s="16"/>
       <c r="F21" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G21" s="108" t="s">
+      <c r="G21" s="142" t="s">
         <v>52</v>
       </c>
       <c r="I21" s="6"/>
-      <c r="J21" s="103"/>
-      <c r="K21" s="105"/>
+      <c r="J21" s="136"/>
+      <c r="K21" s="132"/>
       <c r="L21" s="54"/>
-      <c r="M21" s="103"/>
-      <c r="N21" s="103"/>
-      <c r="O21" s="103"/>
-    </row>
-    <row r="22" spans="1:15" ht="39.6" x14ac:dyDescent="0.45">
+      <c r="M21" s="136"/>
+      <c r="N21" s="136"/>
+      <c r="O21" s="136"/>
+    </row>
+    <row r="22" spans="1:15" ht="42" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="58"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -7909,17 +8395,17 @@
       <c r="F22" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="G22" s="109"/>
+      <c r="G22" s="143"/>
       <c r="H22" s="24"/>
       <c r="I22" s="7"/>
-      <c r="J22" s="106"/>
-      <c r="K22" s="107"/>
+      <c r="J22" s="137"/>
+      <c r="K22" s="133"/>
       <c r="L22" s="54"/>
-      <c r="M22" s="106"/>
-      <c r="N22" s="106"/>
-      <c r="O22" s="106"/>
-    </row>
-    <row r="23" spans="1:15" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="M22" s="137"/>
+      <c r="N22" s="137"/>
+      <c r="O22" s="137"/>
+    </row>
+    <row r="23" spans="1:15" ht="28" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="53">
         <v>7</v>
       </c>
@@ -7945,18 +8431,18 @@
       <c r="I23" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="J23" s="102" t="s">
+      <c r="J23" s="135" t="s">
         <v>104</v>
       </c>
-      <c r="K23" s="104" t="s">
+      <c r="K23" s="131" t="s">
         <v>215</v>
       </c>
       <c r="L23" s="54"/>
-      <c r="M23" s="102"/>
-      <c r="N23" s="102"/>
-      <c r="O23" s="102"/>
-    </row>
-    <row r="24" spans="1:15" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="M23" s="135"/>
+      <c r="N23" s="135"/>
+      <c r="O23" s="135"/>
+    </row>
+    <row r="24" spans="1:15" ht="28" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="55"/>
       <c r="D24" s="2"/>
       <c r="E24" s="3" t="s">
@@ -7966,14 +8452,14 @@
         <v>89</v>
       </c>
       <c r="H24" s="2"/>
-      <c r="J24" s="103"/>
-      <c r="K24" s="105"/>
+      <c r="J24" s="136"/>
+      <c r="K24" s="132"/>
       <c r="L24" s="54"/>
-      <c r="M24" s="103"/>
-      <c r="N24" s="103"/>
-      <c r="O24" s="103"/>
-    </row>
-    <row r="25" spans="1:15" ht="39.6" x14ac:dyDescent="0.45">
+      <c r="M24" s="136"/>
+      <c r="N24" s="136"/>
+      <c r="O24" s="136"/>
+    </row>
+    <row r="25" spans="1:15" ht="42" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="55"/>
       <c r="D25" s="2"/>
       <c r="F25" s="3" t="s">
@@ -7983,14 +8469,14 @@
         <v>87</v>
       </c>
       <c r="H25" s="2"/>
-      <c r="J25" s="103"/>
-      <c r="K25" s="105"/>
+      <c r="J25" s="136"/>
+      <c r="K25" s="132"/>
       <c r="L25" s="54"/>
-      <c r="M25" s="103"/>
-      <c r="N25" s="103"/>
-      <c r="O25" s="103"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="M25" s="136"/>
+      <c r="N25" s="136"/>
+      <c r="O25" s="136"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="55"/>
       <c r="D26" s="2"/>
       <c r="H26" s="2"/>
@@ -8001,7 +8487,7 @@
       <c r="N26" s="22"/>
       <c r="O26" s="22"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="58"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
@@ -8018,7 +8504,7 @@
       <c r="N27" s="23"/>
       <c r="O27" s="23"/>
     </row>
-    <row r="28" spans="1:15" ht="39.6" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:15" ht="42" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="55">
         <v>8</v>
       </c>
@@ -8041,18 +8527,18 @@
         <v>83</v>
       </c>
       <c r="H28" s="2"/>
-      <c r="J28" s="103" t="s">
+      <c r="J28" s="136" t="s">
         <v>113</v>
       </c>
-      <c r="K28" s="105" t="s">
+      <c r="K28" s="132" t="s">
         <v>114</v>
       </c>
       <c r="L28" s="54"/>
-      <c r="M28" s="103"/>
-      <c r="N28" s="103"/>
-      <c r="O28" s="103"/>
-    </row>
-    <row r="29" spans="1:15" ht="39.6" x14ac:dyDescent="0.45">
+      <c r="M28" s="136"/>
+      <c r="N28" s="136"/>
+      <c r="O28" s="136"/>
+    </row>
+    <row r="29" spans="1:15" ht="42" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="55"/>
       <c r="D29" s="2"/>
       <c r="F29" s="2" t="s">
@@ -8065,14 +8551,14 @@
       <c r="I29" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="J29" s="103"/>
-      <c r="K29" s="105"/>
+      <c r="J29" s="136"/>
+      <c r="K29" s="132"/>
       <c r="L29" s="54"/>
-      <c r="M29" s="103"/>
-      <c r="N29" s="103"/>
-      <c r="O29" s="103"/>
-    </row>
-    <row r="30" spans="1:15" ht="39.6" x14ac:dyDescent="0.45">
+      <c r="M29" s="136"/>
+      <c r="N29" s="136"/>
+      <c r="O29" s="136"/>
+    </row>
+    <row r="30" spans="1:15" ht="42" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="55"/>
       <c r="D30" s="2"/>
       <c r="F30" s="2" t="s">
@@ -8082,14 +8568,14 @@
         <v>78</v>
       </c>
       <c r="H30" s="2"/>
-      <c r="J30" s="103"/>
-      <c r="K30" s="105"/>
+      <c r="J30" s="136"/>
+      <c r="K30" s="132"/>
       <c r="L30" s="54"/>
-      <c r="M30" s="103"/>
-      <c r="N30" s="103"/>
-      <c r="O30" s="103"/>
-    </row>
-    <row r="31" spans="1:15" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="M30" s="136"/>
+      <c r="N30" s="136"/>
+      <c r="O30" s="136"/>
+    </row>
+    <row r="31" spans="1:15" ht="28" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="55"/>
       <c r="D31" s="2"/>
       <c r="F31" s="2"/>
@@ -8100,14 +8586,14 @@
       <c r="I31" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="J31" s="103"/>
-      <c r="K31" s="105"/>
+      <c r="J31" s="136"/>
+      <c r="K31" s="132"/>
       <c r="L31" s="54"/>
-      <c r="M31" s="103"/>
-      <c r="N31" s="103"/>
-      <c r="O31" s="103"/>
-    </row>
-    <row r="32" spans="1:15" ht="39.6" x14ac:dyDescent="0.45">
+      <c r="M31" s="136"/>
+      <c r="N31" s="136"/>
+      <c r="O31" s="136"/>
+    </row>
+    <row r="32" spans="1:15" ht="42" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="58"/>
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
@@ -8119,14 +8605,14 @@
       </c>
       <c r="H32" s="8"/>
       <c r="I32" s="24"/>
-      <c r="J32" s="106"/>
-      <c r="K32" s="107"/>
+      <c r="J32" s="137"/>
+      <c r="K32" s="133"/>
       <c r="L32" s="54"/>
-      <c r="M32" s="106"/>
-      <c r="N32" s="106"/>
-      <c r="O32" s="106"/>
-    </row>
-    <row r="33" spans="1:15" ht="39.6" x14ac:dyDescent="0.45">
+      <c r="M32" s="137"/>
+      <c r="N32" s="137"/>
+      <c r="O32" s="137"/>
+    </row>
+    <row r="33" spans="1:15" ht="42" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="53">
         <v>9</v>
       </c>
@@ -8152,18 +8638,18 @@
       <c r="I33" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="J33" s="102" t="s">
+      <c r="J33" s="135" t="s">
         <v>116</v>
       </c>
-      <c r="K33" s="104" t="s">
+      <c r="K33" s="131" t="s">
         <v>115</v>
       </c>
       <c r="L33" s="54"/>
-      <c r="M33" s="102"/>
-      <c r="N33" s="102"/>
-      <c r="O33" s="102"/>
-    </row>
-    <row r="34" spans="1:15" ht="39.6" x14ac:dyDescent="0.45">
+      <c r="M33" s="135"/>
+      <c r="N33" s="135"/>
+      <c r="O33" s="135"/>
+    </row>
+    <row r="34" spans="1:15" ht="42" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="55"/>
       <c r="D34" s="2"/>
       <c r="F34" s="3" t="s">
@@ -8173,14 +8659,14 @@
         <v>68</v>
       </c>
       <c r="H34" s="2"/>
-      <c r="J34" s="103"/>
-      <c r="K34" s="105"/>
+      <c r="J34" s="136"/>
+      <c r="K34" s="132"/>
       <c r="L34" s="54"/>
-      <c r="M34" s="103"/>
-      <c r="N34" s="103"/>
-      <c r="O34" s="103"/>
-    </row>
-    <row r="35" spans="1:15" ht="52.8" x14ac:dyDescent="0.45">
+      <c r="M34" s="136"/>
+      <c r="N34" s="136"/>
+      <c r="O34" s="136"/>
+    </row>
+    <row r="35" spans="1:15" ht="56" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="55"/>
       <c r="D35" s="2"/>
       <c r="F35" s="2"/>
@@ -8191,14 +8677,14 @@
       <c r="I35" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="J35" s="103"/>
-      <c r="K35" s="105"/>
+      <c r="J35" s="136"/>
+      <c r="K35" s="132"/>
       <c r="L35" s="54"/>
-      <c r="M35" s="103"/>
-      <c r="N35" s="103"/>
-      <c r="O35" s="103"/>
-    </row>
-    <row r="36" spans="1:15" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="M35" s="136"/>
+      <c r="N35" s="136"/>
+      <c r="O35" s="136"/>
+    </row>
+    <row r="36" spans="1:15" ht="28" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="58"/>
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
@@ -8210,14 +8696,14 @@
       </c>
       <c r="H36" s="8"/>
       <c r="I36" s="24"/>
-      <c r="J36" s="106"/>
-      <c r="K36" s="107"/>
+      <c r="J36" s="137"/>
+      <c r="K36" s="133"/>
       <c r="L36" s="54"/>
-      <c r="M36" s="106"/>
-      <c r="N36" s="106"/>
-      <c r="O36" s="106"/>
-    </row>
-    <row r="37" spans="1:15" ht="39.6" x14ac:dyDescent="0.45">
+      <c r="M36" s="137"/>
+      <c r="N36" s="137"/>
+      <c r="O36" s="137"/>
+    </row>
+    <row r="37" spans="1:15" ht="42" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="53">
         <v>10</v>
       </c>
@@ -8243,66 +8729,66 @@
       <c r="I37" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="J37" s="102" t="s">
+      <c r="J37" s="135" t="s">
         <v>117</v>
       </c>
-      <c r="K37" s="104" t="s">
+      <c r="K37" s="131" t="s">
         <v>118</v>
       </c>
       <c r="L37" s="54"/>
-      <c r="M37" s="102"/>
-      <c r="N37" s="102"/>
-      <c r="O37" s="102"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="M37" s="135"/>
+      <c r="N37" s="135"/>
+      <c r="O37" s="135"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="55"/>
       <c r="D38" s="2"/>
       <c r="H38" s="2"/>
-      <c r="J38" s="103"/>
-      <c r="K38" s="105"/>
+      <c r="J38" s="136"/>
+      <c r="K38" s="132"/>
       <c r="L38" s="54"/>
-      <c r="M38" s="103"/>
-      <c r="N38" s="103"/>
-      <c r="O38" s="103"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="M38" s="136"/>
+      <c r="N38" s="136"/>
+      <c r="O38" s="136"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="55"/>
       <c r="D39" s="2"/>
       <c r="H39" s="2"/>
-      <c r="J39" s="103"/>
-      <c r="K39" s="105"/>
+      <c r="J39" s="136"/>
+      <c r="K39" s="132"/>
       <c r="L39" s="54"/>
-      <c r="M39" s="103"/>
-      <c r="N39" s="103"/>
-      <c r="O39" s="103"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="M39" s="136"/>
+      <c r="N39" s="136"/>
+      <c r="O39" s="136"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="54"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="H40" s="2"/>
-      <c r="J40" s="103"/>
-      <c r="K40" s="105"/>
+      <c r="J40" s="136"/>
+      <c r="K40" s="132"/>
       <c r="L40" s="54"/>
-      <c r="M40" s="103"/>
-      <c r="N40" s="103"/>
-      <c r="O40" s="103"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="M40" s="136"/>
+      <c r="N40" s="136"/>
+      <c r="O40" s="136"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="54"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="H41" s="2"/>
-      <c r="J41" s="103"/>
-      <c r="K41" s="105"/>
+      <c r="J41" s="136"/>
+      <c r="K41" s="132"/>
       <c r="L41" s="54"/>
-      <c r="M41" s="103"/>
-      <c r="N41" s="103"/>
-      <c r="O41" s="103"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="M41" s="136"/>
+      <c r="N41" s="136"/>
+      <c r="O41" s="136"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="60"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -8312,14 +8798,14 @@
       <c r="G42" s="24"/>
       <c r="H42" s="8"/>
       <c r="I42" s="24"/>
-      <c r="J42" s="106"/>
-      <c r="K42" s="107"/>
+      <c r="J42" s="137"/>
+      <c r="K42" s="133"/>
       <c r="L42" s="54"/>
-      <c r="M42" s="106"/>
-      <c r="N42" s="106"/>
-      <c r="O42" s="106"/>
-    </row>
-    <row r="43" spans="1:15" ht="66" x14ac:dyDescent="0.45">
+      <c r="M42" s="137"/>
+      <c r="N42" s="137"/>
+      <c r="O42" s="137"/>
+    </row>
+    <row r="43" spans="1:15" ht="70" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="53">
         <v>11</v>
       </c>
@@ -8345,18 +8831,18 @@
       <c r="I43" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="J43" s="102" t="s">
+      <c r="J43" s="135" t="s">
         <v>134</v>
       </c>
-      <c r="K43" s="104" t="s">
+      <c r="K43" s="131" t="s">
         <v>133</v>
       </c>
       <c r="L43" s="54"/>
-      <c r="M43" s="102"/>
-      <c r="N43" s="102"/>
-      <c r="O43" s="102"/>
-    </row>
-    <row r="44" spans="1:15" ht="39.6" x14ac:dyDescent="0.45">
+      <c r="M43" s="135"/>
+      <c r="N43" s="135"/>
+      <c r="O43" s="135"/>
+    </row>
+    <row r="44" spans="1:15" ht="42" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="55"/>
       <c r="D44" s="2"/>
       <c r="E44" s="82" t="s">
@@ -8372,14 +8858,14 @@
       <c r="I44" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="J44" s="103"/>
-      <c r="K44" s="105"/>
+      <c r="J44" s="136"/>
+      <c r="K44" s="132"/>
       <c r="L44" s="54"/>
-      <c r="M44" s="103"/>
-      <c r="N44" s="103"/>
-      <c r="O44" s="103"/>
-    </row>
-    <row r="45" spans="1:15" ht="39.6" x14ac:dyDescent="0.45">
+      <c r="M44" s="136"/>
+      <c r="N44" s="136"/>
+      <c r="O44" s="136"/>
+    </row>
+    <row r="45" spans="1:15" ht="42" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="55"/>
       <c r="D45" s="2"/>
       <c r="E45" s="3" t="s">
@@ -8392,14 +8878,14 @@
         <v>217</v>
       </c>
       <c r="H45" s="2"/>
-      <c r="J45" s="103"/>
-      <c r="K45" s="105"/>
+      <c r="J45" s="136"/>
+      <c r="K45" s="132"/>
       <c r="L45" s="54"/>
-      <c r="M45" s="103"/>
-      <c r="N45" s="103"/>
-      <c r="O45" s="103"/>
-    </row>
-    <row r="46" spans="1:15" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="M45" s="136"/>
+      <c r="N45" s="136"/>
+      <c r="O45" s="136"/>
+    </row>
+    <row r="46" spans="1:15" ht="28" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="60"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -8411,14 +8897,14 @@
       <c r="G46" s="24"/>
       <c r="H46" s="8"/>
       <c r="I46" s="24"/>
-      <c r="J46" s="106"/>
-      <c r="K46" s="107"/>
+      <c r="J46" s="137"/>
+      <c r="K46" s="133"/>
       <c r="L46" s="54"/>
-      <c r="M46" s="106"/>
-      <c r="N46" s="106"/>
-      <c r="O46" s="106"/>
-    </row>
-    <row r="47" spans="1:15" ht="82.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="M46" s="137"/>
+      <c r="N46" s="137"/>
+      <c r="O46" s="137"/>
+    </row>
+    <row r="47" spans="1:15" ht="82.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="53">
         <v>12</v>
       </c>
@@ -8443,14 +8929,14 @@
       <c r="I47" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="J47" s="102"/>
-      <c r="K47" s="104"/>
+      <c r="J47" s="135"/>
+      <c r="K47" s="131"/>
       <c r="L47" s="54"/>
-      <c r="M47" s="102"/>
-      <c r="N47" s="102"/>
-      <c r="O47" s="102"/>
-    </row>
-    <row r="48" spans="1:15" ht="39.6" x14ac:dyDescent="0.45">
+      <c r="M47" s="135"/>
+      <c r="N47" s="135"/>
+      <c r="O47" s="135"/>
+    </row>
+    <row r="48" spans="1:15" ht="42" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="55"/>
       <c r="D48" s="2"/>
       <c r="E48" s="3" t="s">
@@ -8462,14 +8948,14 @@
       <c r="I48" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="J48" s="103"/>
-      <c r="K48" s="105"/>
+      <c r="J48" s="136"/>
+      <c r="K48" s="132"/>
       <c r="L48" s="54"/>
-      <c r="M48" s="103"/>
-      <c r="N48" s="103"/>
-      <c r="O48" s="103"/>
-    </row>
-    <row r="49" spans="1:15" ht="39.6" x14ac:dyDescent="0.45">
+      <c r="M48" s="136"/>
+      <c r="N48" s="136"/>
+      <c r="O48" s="136"/>
+    </row>
+    <row r="49" spans="1:15" ht="42" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="55"/>
       <c r="D49" s="2"/>
       <c r="G49" s="3" t="s">
@@ -8479,14 +8965,14 @@
       <c r="I49" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="J49" s="103"/>
-      <c r="K49" s="105"/>
+      <c r="J49" s="136"/>
+      <c r="K49" s="132"/>
       <c r="L49" s="54"/>
-      <c r="M49" s="103"/>
-      <c r="N49" s="103"/>
-      <c r="O49" s="103"/>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="M49" s="136"/>
+      <c r="N49" s="136"/>
+      <c r="O49" s="136"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="55"/>
       <c r="D50" s="2"/>
       <c r="G50" s="3" t="s">
@@ -8496,14 +8982,14 @@
       <c r="I50" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="J50" s="103"/>
-      <c r="K50" s="105"/>
+      <c r="J50" s="136"/>
+      <c r="K50" s="132"/>
       <c r="L50" s="54"/>
-      <c r="M50" s="103"/>
-      <c r="N50" s="103"/>
-      <c r="O50" s="103"/>
-    </row>
-    <row r="51" spans="1:15" ht="52.8" x14ac:dyDescent="0.45">
+      <c r="M50" s="136"/>
+      <c r="N50" s="136"/>
+      <c r="O50" s="136"/>
+    </row>
+    <row r="51" spans="1:15" ht="56" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="55"/>
       <c r="D51" s="2"/>
       <c r="F51" s="3" t="s">
@@ -8512,14 +8998,14 @@
       <c r="G51" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="J51" s="103"/>
-      <c r="K51" s="105"/>
+      <c r="J51" s="136"/>
+      <c r="K51" s="132"/>
       <c r="L51" s="54"/>
-      <c r="M51" s="103"/>
-      <c r="N51" s="103"/>
-      <c r="O51" s="103"/>
-    </row>
-    <row r="52" spans="1:15" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="M51" s="136"/>
+      <c r="N51" s="136"/>
+      <c r="O51" s="136"/>
+    </row>
+    <row r="52" spans="1:15" ht="28" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="54"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -8531,14 +9017,14 @@
         <v>146</v>
       </c>
       <c r="H52" s="2"/>
-      <c r="J52" s="103"/>
-      <c r="K52" s="105"/>
+      <c r="J52" s="136"/>
+      <c r="K52" s="132"/>
       <c r="L52" s="54"/>
-      <c r="M52" s="103"/>
-      <c r="N52" s="103"/>
-      <c r="O52" s="103"/>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="M52" s="136"/>
+      <c r="N52" s="136"/>
+      <c r="O52" s="136"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="60"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -8548,14 +9034,14 @@
       <c r="G53" s="24"/>
       <c r="H53" s="8"/>
       <c r="I53" s="24"/>
-      <c r="J53" s="106"/>
-      <c r="K53" s="107"/>
+      <c r="J53" s="137"/>
+      <c r="K53" s="133"/>
       <c r="L53" s="54"/>
-      <c r="M53" s="106"/>
-      <c r="N53" s="106"/>
-      <c r="O53" s="106"/>
-    </row>
-    <row r="54" spans="1:15" ht="52.8" x14ac:dyDescent="0.45">
+      <c r="M53" s="137"/>
+      <c r="N53" s="137"/>
+      <c r="O53" s="137"/>
+    </row>
+    <row r="54" spans="1:15" ht="56" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="53">
         <v>13</v>
       </c>
@@ -8579,18 +9065,18 @@
       </c>
       <c r="H54" s="9"/>
       <c r="I54" s="4"/>
-      <c r="J54" s="102" t="s">
+      <c r="J54" s="135" t="s">
         <v>162</v>
       </c>
-      <c r="K54" s="104" t="s">
+      <c r="K54" s="131" t="s">
         <v>161</v>
       </c>
       <c r="L54" s="54"/>
-      <c r="M54" s="102"/>
-      <c r="N54" s="102"/>
-      <c r="O54" s="102"/>
-    </row>
-    <row r="55" spans="1:15" ht="52.8" x14ac:dyDescent="0.45">
+      <c r="M54" s="135"/>
+      <c r="N54" s="135"/>
+      <c r="O54" s="135"/>
+    </row>
+    <row r="55" spans="1:15" ht="56" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="55"/>
       <c r="D55" s="2"/>
       <c r="E55" s="3" t="s">
@@ -8606,14 +9092,14 @@
       <c r="I55" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="J55" s="103"/>
-      <c r="K55" s="105"/>
+      <c r="J55" s="136"/>
+      <c r="K55" s="132"/>
       <c r="L55" s="54"/>
-      <c r="M55" s="103"/>
-      <c r="N55" s="103"/>
-      <c r="O55" s="103"/>
-    </row>
-    <row r="56" spans="1:15" ht="118.8" x14ac:dyDescent="0.45">
+      <c r="M55" s="136"/>
+      <c r="N55" s="136"/>
+      <c r="O55" s="136"/>
+    </row>
+    <row r="56" spans="1:15" ht="126" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="55"/>
       <c r="D56" s="2"/>
       <c r="F56" s="3" t="s">
@@ -8626,14 +9112,14 @@
       <c r="I56" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="J56" s="103"/>
-      <c r="K56" s="105"/>
+      <c r="J56" s="136"/>
+      <c r="K56" s="132"/>
       <c r="L56" s="54"/>
-      <c r="M56" s="103"/>
-      <c r="N56" s="103"/>
-      <c r="O56" s="103"/>
-    </row>
-    <row r="57" spans="1:15" ht="52.8" x14ac:dyDescent="0.45">
+      <c r="M56" s="136"/>
+      <c r="N56" s="136"/>
+      <c r="O56" s="136"/>
+    </row>
+    <row r="57" spans="1:15" ht="56" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="53">
         <v>14</v>
       </c>
@@ -8659,208 +9145,208 @@
       <c r="I57" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="J57" s="102" t="s">
+      <c r="J57" s="135" t="s">
         <v>169</v>
       </c>
-      <c r="K57" s="104" t="s">
+      <c r="K57" s="131" t="s">
         <v>170</v>
       </c>
       <c r="L57" s="54"/>
-      <c r="M57" s="102"/>
-      <c r="N57" s="102"/>
-      <c r="O57" s="102"/>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="M57" s="135"/>
+      <c r="N57" s="135"/>
+      <c r="O57" s="135"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="55"/>
       <c r="D58" s="2"/>
       <c r="H58" s="2"/>
       <c r="I58" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="J58" s="103"/>
-      <c r="K58" s="105"/>
+      <c r="J58" s="136"/>
+      <c r="K58" s="132"/>
       <c r="L58" s="54"/>
-      <c r="M58" s="103"/>
-      <c r="N58" s="103"/>
-      <c r="O58" s="103"/>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="M58" s="136"/>
+      <c r="N58" s="136"/>
+      <c r="O58" s="136"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="55"/>
       <c r="D59" s="2"/>
       <c r="H59" s="2"/>
       <c r="I59" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="J59" s="103"/>
-      <c r="K59" s="105"/>
+      <c r="J59" s="136"/>
+      <c r="K59" s="132"/>
       <c r="L59" s="54"/>
-      <c r="M59" s="103"/>
-      <c r="N59" s="103"/>
-      <c r="O59" s="103"/>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="M59" s="136"/>
+      <c r="N59" s="136"/>
+      <c r="O59" s="136"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="55"/>
       <c r="D60" s="2"/>
       <c r="H60" s="2"/>
       <c r="I60" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="J60" s="103"/>
-      <c r="K60" s="105"/>
+      <c r="J60" s="136"/>
+      <c r="K60" s="132"/>
       <c r="L60" s="54"/>
-      <c r="M60" s="103"/>
-      <c r="N60" s="103"/>
-      <c r="O60" s="103"/>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="M60" s="136"/>
+      <c r="N60" s="136"/>
+      <c r="O60" s="136"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="55"/>
       <c r="D61" s="2"/>
       <c r="H61" s="2"/>
       <c r="I61" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="J61" s="103"/>
-      <c r="K61" s="105"/>
+      <c r="J61" s="136"/>
+      <c r="K61" s="132"/>
       <c r="L61" s="54"/>
-      <c r="M61" s="103"/>
-      <c r="N61" s="103"/>
-      <c r="O61" s="103"/>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="M61" s="136"/>
+      <c r="N61" s="136"/>
+      <c r="O61" s="136"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="55"/>
       <c r="D62" s="2"/>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
-      <c r="J62" s="103"/>
-      <c r="K62" s="105"/>
+      <c r="J62" s="136"/>
+      <c r="K62" s="132"/>
       <c r="L62" s="54"/>
-      <c r="M62" s="103"/>
-      <c r="N62" s="103"/>
-      <c r="O62" s="103"/>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="M62" s="136"/>
+      <c r="N62" s="136"/>
+      <c r="O62" s="136"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="55"/>
       <c r="D63" s="2"/>
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
-      <c r="J63" s="103"/>
-      <c r="K63" s="105"/>
+      <c r="J63" s="136"/>
+      <c r="K63" s="132"/>
       <c r="L63" s="54"/>
-      <c r="M63" s="103"/>
-      <c r="N63" s="103"/>
-      <c r="O63" s="103"/>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="M63" s="136"/>
+      <c r="N63" s="136"/>
+      <c r="O63" s="136"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="55"/>
       <c r="D64" s="2"/>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
-      <c r="J64" s="103"/>
-      <c r="K64" s="105"/>
+      <c r="J64" s="136"/>
+      <c r="K64" s="132"/>
       <c r="L64" s="54"/>
-      <c r="M64" s="103"/>
-      <c r="N64" s="103"/>
-      <c r="O64" s="103"/>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="M64" s="136"/>
+      <c r="N64" s="136"/>
+      <c r="O64" s="136"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="55"/>
       <c r="D65" s="2"/>
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
-      <c r="J65" s="103"/>
-      <c r="K65" s="105"/>
+      <c r="J65" s="136"/>
+      <c r="K65" s="132"/>
       <c r="L65" s="54"/>
-      <c r="M65" s="103"/>
-      <c r="N65" s="103"/>
-      <c r="O65" s="103"/>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="M65" s="136"/>
+      <c r="N65" s="136"/>
+      <c r="O65" s="136"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="55"/>
       <c r="D66" s="2"/>
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
-      <c r="J66" s="103"/>
-      <c r="K66" s="105"/>
+      <c r="J66" s="136"/>
+      <c r="K66" s="132"/>
       <c r="L66" s="54"/>
-      <c r="M66" s="103"/>
-      <c r="N66" s="103"/>
-      <c r="O66" s="103"/>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="M66" s="136"/>
+      <c r="N66" s="136"/>
+      <c r="O66" s="136"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="55"/>
       <c r="D67" s="2"/>
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
-      <c r="J67" s="103"/>
-      <c r="K67" s="105"/>
+      <c r="J67" s="136"/>
+      <c r="K67" s="132"/>
       <c r="L67" s="54"/>
-      <c r="M67" s="103"/>
-      <c r="N67" s="103"/>
-      <c r="O67" s="103"/>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="M67" s="136"/>
+      <c r="N67" s="136"/>
+      <c r="O67" s="136"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="55"/>
       <c r="D68" s="2"/>
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
-      <c r="J68" s="103"/>
-      <c r="K68" s="105"/>
+      <c r="J68" s="136"/>
+      <c r="K68" s="132"/>
       <c r="L68" s="54"/>
-      <c r="M68" s="103"/>
-      <c r="N68" s="103"/>
-      <c r="O68" s="103"/>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="M68" s="136"/>
+      <c r="N68" s="136"/>
+      <c r="O68" s="136"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="55"/>
       <c r="D69" s="2"/>
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
-      <c r="J69" s="103"/>
-      <c r="K69" s="105"/>
+      <c r="J69" s="136"/>
+      <c r="K69" s="132"/>
       <c r="L69" s="54"/>
-      <c r="M69" s="103"/>
-      <c r="N69" s="103"/>
-      <c r="O69" s="103"/>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="M69" s="136"/>
+      <c r="N69" s="136"/>
+      <c r="O69" s="136"/>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="55"/>
       <c r="D70" s="2"/>
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
-      <c r="J70" s="103"/>
-      <c r="K70" s="105"/>
+      <c r="J70" s="136"/>
+      <c r="K70" s="132"/>
       <c r="L70" s="54"/>
-      <c r="M70" s="103"/>
-      <c r="N70" s="103"/>
-      <c r="O70" s="103"/>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="M70" s="136"/>
+      <c r="N70" s="136"/>
+      <c r="O70" s="136"/>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="55"/>
       <c r="D71" s="2"/>
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
-      <c r="J71" s="103"/>
-      <c r="K71" s="105"/>
+      <c r="J71" s="136"/>
+      <c r="K71" s="132"/>
       <c r="L71" s="54"/>
-      <c r="M71" s="103"/>
-      <c r="N71" s="103"/>
-      <c r="O71" s="103"/>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="M71" s="136"/>
+      <c r="N71" s="136"/>
+      <c r="O71" s="136"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="54"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
-      <c r="J72" s="103"/>
-      <c r="K72" s="105"/>
+      <c r="J72" s="136"/>
+      <c r="K72" s="132"/>
       <c r="L72" s="54"/>
-      <c r="M72" s="103"/>
-      <c r="N72" s="103"/>
-      <c r="O72" s="103"/>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="M72" s="136"/>
+      <c r="N72" s="136"/>
+      <c r="O72" s="136"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="60"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -8870,14 +9356,14 @@
       <c r="G73" s="24"/>
       <c r="H73" s="8"/>
       <c r="I73" s="8"/>
-      <c r="J73" s="106"/>
-      <c r="K73" s="107"/>
+      <c r="J73" s="137"/>
+      <c r="K73" s="133"/>
       <c r="L73" s="54"/>
-      <c r="M73" s="106"/>
-      <c r="N73" s="106"/>
-      <c r="O73" s="106"/>
-    </row>
-    <row r="74" spans="1:15" ht="79.2" x14ac:dyDescent="0.45">
+      <c r="M73" s="137"/>
+      <c r="N73" s="137"/>
+      <c r="O73" s="137"/>
+    </row>
+    <row r="74" spans="1:15" ht="84" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="53">
         <v>15</v>
       </c>
@@ -8903,58 +9389,58 @@
       <c r="I74" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="J74" s="102" t="s">
+      <c r="J74" s="135" t="s">
         <v>178</v>
       </c>
-      <c r="K74" s="104" t="s">
+      <c r="K74" s="131" t="s">
         <v>179</v>
       </c>
       <c r="L74" s="54"/>
-      <c r="M74" s="102"/>
-      <c r="N74" s="102"/>
-      <c r="O74" s="102"/>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="M74" s="135"/>
+      <c r="N74" s="135"/>
+      <c r="O74" s="135"/>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="55"/>
       <c r="D75" s="2"/>
       <c r="H75" s="2"/>
       <c r="I75" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="J75" s="103"/>
-      <c r="K75" s="105"/>
+      <c r="J75" s="136"/>
+      <c r="K75" s="132"/>
       <c r="L75" s="54"/>
-      <c r="M75" s="103"/>
-      <c r="N75" s="103"/>
-      <c r="O75" s="103"/>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="M75" s="136"/>
+      <c r="N75" s="136"/>
+      <c r="O75" s="136"/>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="55"/>
       <c r="D76" s="2"/>
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
-      <c r="J76" s="103"/>
-      <c r="K76" s="105"/>
+      <c r="J76" s="136"/>
+      <c r="K76" s="132"/>
       <c r="L76" s="54"/>
-      <c r="M76" s="103"/>
-      <c r="N76" s="103"/>
-      <c r="O76" s="103"/>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="M76" s="136"/>
+      <c r="N76" s="136"/>
+      <c r="O76" s="136"/>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="54"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
-      <c r="J77" s="103"/>
-      <c r="K77" s="105"/>
+      <c r="J77" s="136"/>
+      <c r="K77" s="132"/>
       <c r="L77" s="54"/>
-      <c r="M77" s="103"/>
-      <c r="N77" s="103"/>
-      <c r="O77" s="103"/>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="M77" s="136"/>
+      <c r="N77" s="136"/>
+      <c r="O77" s="136"/>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="60"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -8964,14 +9450,14 @@
       <c r="G78" s="24"/>
       <c r="H78" s="8"/>
       <c r="I78" s="8"/>
-      <c r="J78" s="106"/>
-      <c r="K78" s="107"/>
+      <c r="J78" s="137"/>
+      <c r="K78" s="133"/>
       <c r="L78" s="54"/>
-      <c r="M78" s="106"/>
-      <c r="N78" s="106"/>
-      <c r="O78" s="106"/>
-    </row>
-    <row r="79" spans="1:15" ht="97.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="M78" s="137"/>
+      <c r="N78" s="137"/>
+      <c r="O78" s="137"/>
+    </row>
+    <row r="79" spans="1:15" ht="97.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="61">
         <v>16</v>
       </c>
@@ -9002,7 +9488,7 @@
       <c r="N79" s="25"/>
       <c r="O79" s="25"/>
     </row>
-    <row r="80" spans="1:15" ht="26.4" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:15" ht="28" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="53">
         <v>17</v>
       </c>
@@ -9022,88 +9508,88 @@
       <c r="G80" s="4"/>
       <c r="H80" s="9"/>
       <c r="I80" s="9"/>
-      <c r="J80" s="102"/>
-      <c r="K80" s="104"/>
+      <c r="J80" s="135"/>
+      <c r="K80" s="131"/>
       <c r="L80" s="54"/>
-      <c r="M80" s="110"/>
-      <c r="N80" s="110"/>
-      <c r="O80" s="110"/>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="M80" s="141"/>
+      <c r="N80" s="141"/>
+      <c r="O80" s="141"/>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="55"/>
       <c r="D81" s="2"/>
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
-      <c r="J81" s="103"/>
-      <c r="K81" s="105"/>
+      <c r="J81" s="136"/>
+      <c r="K81" s="132"/>
       <c r="L81" s="54"/>
-      <c r="M81" s="110"/>
-      <c r="N81" s="110"/>
-      <c r="O81" s="110"/>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="M81" s="141"/>
+      <c r="N81" s="141"/>
+      <c r="O81" s="141"/>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="55"/>
       <c r="D82" s="2"/>
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
-      <c r="J82" s="103"/>
-      <c r="K82" s="105"/>
+      <c r="J82" s="136"/>
+      <c r="K82" s="132"/>
       <c r="L82" s="54"/>
-      <c r="M82" s="110"/>
-      <c r="N82" s="110"/>
-      <c r="O82" s="110"/>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="M82" s="141"/>
+      <c r="N82" s="141"/>
+      <c r="O82" s="141"/>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="55"/>
       <c r="D83" s="2"/>
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
-      <c r="J83" s="103"/>
-      <c r="K83" s="105"/>
+      <c r="J83" s="136"/>
+      <c r="K83" s="132"/>
       <c r="L83" s="54"/>
-      <c r="M83" s="110"/>
-      <c r="N83" s="110"/>
-      <c r="O83" s="110"/>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="M83" s="141"/>
+      <c r="N83" s="141"/>
+      <c r="O83" s="141"/>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="55"/>
       <c r="D84" s="2"/>
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
-      <c r="J84" s="103"/>
-      <c r="K84" s="105"/>
+      <c r="J84" s="136"/>
+      <c r="K84" s="132"/>
       <c r="L84" s="54"/>
-      <c r="M84" s="110"/>
-      <c r="N84" s="110"/>
-      <c r="O84" s="110"/>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="M84" s="141"/>
+      <c r="N84" s="141"/>
+      <c r="O84" s="141"/>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="55"/>
       <c r="D85" s="2"/>
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
-      <c r="J85" s="103"/>
-      <c r="K85" s="105"/>
+      <c r="J85" s="136"/>
+      <c r="K85" s="132"/>
       <c r="L85" s="54"/>
-      <c r="M85" s="110"/>
-      <c r="N85" s="110"/>
-      <c r="O85" s="110"/>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="M85" s="141"/>
+      <c r="N85" s="141"/>
+      <c r="O85" s="141"/>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="54"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>
-      <c r="J86" s="103"/>
-      <c r="K86" s="105"/>
+      <c r="J86" s="136"/>
+      <c r="K86" s="132"/>
       <c r="L86" s="54"/>
-      <c r="M86" s="110"/>
-      <c r="N86" s="110"/>
-      <c r="O86" s="110"/>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="M86" s="141"/>
+      <c r="N86" s="141"/>
+      <c r="O86" s="141"/>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="60"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -9113,14 +9599,14 @@
       <c r="G87" s="24"/>
       <c r="H87" s="8"/>
       <c r="I87" s="8"/>
-      <c r="J87" s="106"/>
-      <c r="K87" s="107"/>
+      <c r="J87" s="137"/>
+      <c r="K87" s="133"/>
       <c r="L87" s="54"/>
-      <c r="M87" s="110"/>
-      <c r="N87" s="110"/>
-      <c r="O87" s="110"/>
-    </row>
-    <row r="88" spans="1:15" ht="39.6" x14ac:dyDescent="0.45">
+      <c r="M87" s="141"/>
+      <c r="N87" s="141"/>
+      <c r="O87" s="141"/>
+    </row>
+    <row r="88" spans="1:15" ht="42" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="53">
         <v>18</v>
       </c>
@@ -9146,100 +9632,100 @@
       <c r="I88" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="J88" s="102"/>
-      <c r="K88" s="104"/>
+      <c r="J88" s="135"/>
+      <c r="K88" s="131"/>
       <c r="L88" s="54"/>
-      <c r="M88" s="110"/>
-      <c r="N88" s="110"/>
-      <c r="O88" s="110"/>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="M88" s="141"/>
+      <c r="N88" s="141"/>
+      <c r="O88" s="141"/>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="55"/>
       <c r="D89" s="2"/>
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
-      <c r="J89" s="103"/>
-      <c r="K89" s="105"/>
+      <c r="J89" s="136"/>
+      <c r="K89" s="132"/>
       <c r="L89" s="54"/>
-      <c r="M89" s="110"/>
-      <c r="N89" s="110"/>
-      <c r="O89" s="110"/>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="M89" s="141"/>
+      <c r="N89" s="141"/>
+      <c r="O89" s="141"/>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="55"/>
       <c r="D90" s="2"/>
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
-      <c r="J90" s="103"/>
-      <c r="K90" s="105"/>
+      <c r="J90" s="136"/>
+      <c r="K90" s="132"/>
       <c r="L90" s="54"/>
-      <c r="M90" s="110"/>
-      <c r="N90" s="110"/>
-      <c r="O90" s="110"/>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="M90" s="141"/>
+      <c r="N90" s="141"/>
+      <c r="O90" s="141"/>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="55"/>
       <c r="D91" s="2"/>
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
-      <c r="J91" s="103"/>
-      <c r="K91" s="105"/>
+      <c r="J91" s="136"/>
+      <c r="K91" s="132"/>
       <c r="L91" s="54"/>
-      <c r="M91" s="110"/>
-      <c r="N91" s="110"/>
-      <c r="O91" s="110"/>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="M91" s="141"/>
+      <c r="N91" s="141"/>
+      <c r="O91" s="141"/>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="55"/>
       <c r="D92" s="2"/>
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
-      <c r="J92" s="103"/>
-      <c r="K92" s="105"/>
+      <c r="J92" s="136"/>
+      <c r="K92" s="132"/>
       <c r="L92" s="54"/>
-      <c r="M92" s="110"/>
-      <c r="N92" s="110"/>
-      <c r="O92" s="110"/>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="M92" s="141"/>
+      <c r="N92" s="141"/>
+      <c r="O92" s="141"/>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="55"/>
       <c r="D93" s="2"/>
       <c r="H93" s="2"/>
       <c r="I93" s="2"/>
-      <c r="J93" s="103"/>
-      <c r="K93" s="105"/>
+      <c r="J93" s="136"/>
+      <c r="K93" s="132"/>
       <c r="L93" s="54"/>
-      <c r="M93" s="110"/>
-      <c r="N93" s="110"/>
-      <c r="O93" s="110"/>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="M93" s="141"/>
+      <c r="N93" s="141"/>
+      <c r="O93" s="141"/>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="55"/>
       <c r="D94" s="2"/>
       <c r="H94" s="2"/>
       <c r="I94" s="2"/>
-      <c r="J94" s="103"/>
-      <c r="K94" s="105"/>
+      <c r="J94" s="136"/>
+      <c r="K94" s="132"/>
       <c r="L94" s="54"/>
-      <c r="M94" s="110"/>
-      <c r="N94" s="110"/>
-      <c r="O94" s="110"/>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="M94" s="141"/>
+      <c r="N94" s="141"/>
+      <c r="O94" s="141"/>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="54"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="H95" s="2"/>
       <c r="I95" s="2"/>
-      <c r="J95" s="103"/>
-      <c r="K95" s="105"/>
+      <c r="J95" s="136"/>
+      <c r="K95" s="132"/>
       <c r="L95" s="54"/>
-      <c r="M95" s="110"/>
-      <c r="N95" s="110"/>
-      <c r="O95" s="110"/>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="M95" s="141"/>
+      <c r="N95" s="141"/>
+      <c r="O95" s="141"/>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="60"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
@@ -9249,14 +9735,14 @@
       <c r="G96" s="24"/>
       <c r="H96" s="8"/>
       <c r="I96" s="8"/>
-      <c r="J96" s="106"/>
-      <c r="K96" s="107"/>
+      <c r="J96" s="137"/>
+      <c r="K96" s="133"/>
       <c r="L96" s="54"/>
-      <c r="M96" s="110"/>
-      <c r="N96" s="110"/>
-      <c r="O96" s="110"/>
-    </row>
-    <row r="97" spans="1:15" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="M96" s="141"/>
+      <c r="N96" s="141"/>
+      <c r="O96" s="141"/>
+    </row>
+    <row r="97" spans="1:15" ht="28" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="53">
         <v>19</v>
       </c>
@@ -9276,88 +9762,88 @@
       <c r="G97" s="4"/>
       <c r="H97" s="9"/>
       <c r="I97" s="9"/>
-      <c r="J97" s="102"/>
-      <c r="K97" s="104"/>
+      <c r="J97" s="135"/>
+      <c r="K97" s="131"/>
       <c r="L97" s="54"/>
-      <c r="M97" s="110"/>
-      <c r="N97" s="110"/>
-      <c r="O97" s="110"/>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="M97" s="141"/>
+      <c r="N97" s="141"/>
+      <c r="O97" s="141"/>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="55"/>
       <c r="D98" s="2"/>
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
-      <c r="J98" s="103"/>
-      <c r="K98" s="105"/>
+      <c r="J98" s="136"/>
+      <c r="K98" s="132"/>
       <c r="L98" s="54"/>
-      <c r="M98" s="110"/>
-      <c r="N98" s="110"/>
-      <c r="O98" s="110"/>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="M98" s="141"/>
+      <c r="N98" s="141"/>
+      <c r="O98" s="141"/>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="55"/>
       <c r="D99" s="2"/>
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
-      <c r="J99" s="103"/>
-      <c r="K99" s="105"/>
+      <c r="J99" s="136"/>
+      <c r="K99" s="132"/>
       <c r="L99" s="54"/>
-      <c r="M99" s="110"/>
-      <c r="N99" s="110"/>
-      <c r="O99" s="110"/>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="M99" s="141"/>
+      <c r="N99" s="141"/>
+      <c r="O99" s="141"/>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="55"/>
       <c r="D100" s="2"/>
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
-      <c r="J100" s="103"/>
-      <c r="K100" s="105"/>
+      <c r="J100" s="136"/>
+      <c r="K100" s="132"/>
       <c r="L100" s="54"/>
-      <c r="M100" s="110"/>
-      <c r="N100" s="110"/>
-      <c r="O100" s="110"/>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="M100" s="141"/>
+      <c r="N100" s="141"/>
+      <c r="O100" s="141"/>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="55"/>
       <c r="D101" s="2"/>
       <c r="H101" s="2"/>
       <c r="I101" s="2"/>
-      <c r="J101" s="103"/>
-      <c r="K101" s="105"/>
+      <c r="J101" s="136"/>
+      <c r="K101" s="132"/>
       <c r="L101" s="54"/>
-      <c r="M101" s="110"/>
-      <c r="N101" s="110"/>
-      <c r="O101" s="110"/>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="M101" s="141"/>
+      <c r="N101" s="141"/>
+      <c r="O101" s="141"/>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="55"/>
       <c r="D102" s="2"/>
       <c r="H102" s="2"/>
       <c r="I102" s="2"/>
-      <c r="J102" s="103"/>
-      <c r="K102" s="105"/>
+      <c r="J102" s="136"/>
+      <c r="K102" s="132"/>
       <c r="L102" s="54"/>
-      <c r="M102" s="110"/>
-      <c r="N102" s="110"/>
-      <c r="O102" s="110"/>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="M102" s="141"/>
+      <c r="N102" s="141"/>
+      <c r="O102" s="141"/>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="54"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
       <c r="H103" s="2"/>
       <c r="I103" s="2"/>
-      <c r="J103" s="103"/>
-      <c r="K103" s="105"/>
+      <c r="J103" s="136"/>
+      <c r="K103" s="132"/>
       <c r="L103" s="54"/>
-      <c r="M103" s="110"/>
-      <c r="N103" s="110"/>
-      <c r="O103" s="110"/>
-    </row>
-    <row r="104" spans="1:15" ht="13.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="M103" s="141"/>
+      <c r="N103" s="141"/>
+      <c r="O103" s="141"/>
+    </row>
+    <row r="104" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A104" s="54"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
@@ -9367,14 +9853,14 @@
       <c r="G104" s="24"/>
       <c r="H104" s="8"/>
       <c r="I104" s="8"/>
-      <c r="J104" s="106"/>
-      <c r="K104" s="107"/>
+      <c r="J104" s="137"/>
+      <c r="K104" s="133"/>
       <c r="L104" s="54"/>
-      <c r="M104" s="110"/>
-      <c r="N104" s="110"/>
-      <c r="O104" s="102"/>
-    </row>
-    <row r="105" spans="1:15" ht="52.8" collapsed="1" x14ac:dyDescent="0.45">
+      <c r="M104" s="141"/>
+      <c r="N104" s="141"/>
+      <c r="O104" s="135"/>
+    </row>
+    <row r="105" spans="1:15" ht="56" collapsed="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="63">
         <v>20</v>
       </c>
@@ -9404,12 +9890,12 @@
         <v>202</v>
       </c>
       <c r="K105" s="65"/>
-      <c r="L105" s="111"/>
-      <c r="M105" s="102"/>
-      <c r="N105" s="112"/>
+      <c r="L105" s="134"/>
+      <c r="M105" s="135"/>
+      <c r="N105" s="138"/>
       <c r="O105" s="66"/>
     </row>
-    <row r="106" spans="1:15" ht="18" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:15" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="67"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -9421,12 +9907,12 @@
       <c r="I106" s="2"/>
       <c r="J106" s="22"/>
       <c r="K106" s="65"/>
-      <c r="L106" s="111"/>
-      <c r="M106" s="103"/>
-      <c r="N106" s="113"/>
+      <c r="L106" s="134"/>
+      <c r="M106" s="136"/>
+      <c r="N106" s="139"/>
       <c r="O106" s="11"/>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="67"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -9436,12 +9922,12 @@
       <c r="I107" s="2"/>
       <c r="J107" s="22"/>
       <c r="K107" s="65"/>
-      <c r="L107" s="111"/>
-      <c r="M107" s="103"/>
-      <c r="N107" s="113"/>
+      <c r="L107" s="134"/>
+      <c r="M107" s="136"/>
+      <c r="N107" s="139"/>
       <c r="O107" s="11"/>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="69"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -9451,12 +9937,12 @@
       <c r="I108" s="2"/>
       <c r="J108" s="22"/>
       <c r="K108" s="65"/>
-      <c r="L108" s="111"/>
-      <c r="M108" s="103"/>
-      <c r="N108" s="113"/>
+      <c r="L108" s="134"/>
+      <c r="M108" s="136"/>
+      <c r="N108" s="139"/>
       <c r="O108" s="11"/>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="69"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -9466,12 +9952,12 @@
       <c r="I109" s="2"/>
       <c r="J109" s="22"/>
       <c r="K109" s="65"/>
-      <c r="L109" s="111"/>
-      <c r="M109" s="103"/>
-      <c r="N109" s="113"/>
+      <c r="L109" s="134"/>
+      <c r="M109" s="136"/>
+      <c r="N109" s="139"/>
       <c r="O109" s="11"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="70"/>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
@@ -9483,12 +9969,12 @@
       <c r="I110" s="8"/>
       <c r="J110" s="23"/>
       <c r="K110" s="65"/>
-      <c r="L110" s="111"/>
-      <c r="M110" s="106"/>
-      <c r="N110" s="114"/>
+      <c r="L110" s="134"/>
+      <c r="M110" s="137"/>
+      <c r="N110" s="140"/>
       <c r="O110" s="14"/>
     </row>
-    <row r="111" spans="1:15" ht="154.05000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:15" ht="154" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="71">
         <v>21</v>
       </c>
@@ -9517,13 +10003,13 @@
       <c r="J111" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="K111" s="104"/>
-      <c r="L111" s="111"/>
-      <c r="M111" s="102"/>
-      <c r="N111" s="112"/>
+      <c r="K111" s="131"/>
+      <c r="L111" s="134"/>
+      <c r="M111" s="135"/>
+      <c r="N111" s="138"/>
       <c r="O111" s="66"/>
     </row>
-    <row r="112" spans="1:15" ht="18" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:15" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="67"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -9534,13 +10020,13 @@
       <c r="H112" s="2"/>
       <c r="I112" s="2"/>
       <c r="J112" s="22"/>
-      <c r="K112" s="105"/>
-      <c r="L112" s="111"/>
-      <c r="M112" s="103"/>
-      <c r="N112" s="113"/>
+      <c r="K112" s="132"/>
+      <c r="L112" s="134"/>
+      <c r="M112" s="136"/>
+      <c r="N112" s="139"/>
       <c r="O112" s="11"/>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="67"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -9549,13 +10035,13 @@
       <c r="H113" s="2"/>
       <c r="I113" s="2"/>
       <c r="J113" s="22"/>
-      <c r="K113" s="105"/>
-      <c r="L113" s="111"/>
-      <c r="M113" s="103"/>
-      <c r="N113" s="113"/>
+      <c r="K113" s="132"/>
+      <c r="L113" s="134"/>
+      <c r="M113" s="136"/>
+      <c r="N113" s="139"/>
       <c r="O113" s="11"/>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="69"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -9564,13 +10050,13 @@
       <c r="H114" s="2"/>
       <c r="I114" s="2"/>
       <c r="J114" s="22"/>
-      <c r="K114" s="105"/>
-      <c r="L114" s="111"/>
-      <c r="M114" s="103"/>
-      <c r="N114" s="113"/>
+      <c r="K114" s="132"/>
+      <c r="L114" s="134"/>
+      <c r="M114" s="136"/>
+      <c r="N114" s="139"/>
       <c r="O114" s="11"/>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="70"/>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
@@ -9581,13 +10067,13 @@
       <c r="H115" s="8"/>
       <c r="I115" s="8"/>
       <c r="J115" s="23"/>
-      <c r="K115" s="107"/>
-      <c r="L115" s="111"/>
-      <c r="M115" s="106"/>
-      <c r="N115" s="114"/>
+      <c r="K115" s="133"/>
+      <c r="L115" s="134"/>
+      <c r="M115" s="137"/>
+      <c r="N115" s="140"/>
       <c r="O115" s="14"/>
     </row>
-    <row r="116" spans="1:15" ht="66" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:15" ht="84" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="71">
         <v>22</v>
       </c>
@@ -9616,13 +10102,13 @@
       <c r="J116" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="K116" s="104"/>
-      <c r="L116" s="111"/>
-      <c r="M116" s="102"/>
-      <c r="N116" s="102"/>
+      <c r="K116" s="131"/>
+      <c r="L116" s="134"/>
+      <c r="M116" s="135"/>
+      <c r="N116" s="135"/>
       <c r="O116" s="66"/>
     </row>
-    <row r="117" spans="1:15" ht="26.4" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:15" ht="28" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="67"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -9636,13 +10122,13 @@
       <c r="H117" s="2"/>
       <c r="I117" s="2"/>
       <c r="J117" s="22"/>
-      <c r="K117" s="105"/>
-      <c r="L117" s="111"/>
-      <c r="M117" s="103"/>
-      <c r="N117" s="103"/>
+      <c r="K117" s="132"/>
+      <c r="L117" s="134"/>
+      <c r="M117" s="136"/>
+      <c r="N117" s="136"/>
       <c r="O117" s="11"/>
     </row>
-    <row r="118" spans="1:15" ht="18" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:15" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="67"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -9653,13 +10139,13 @@
       <c r="H118" s="2"/>
       <c r="I118" s="2"/>
       <c r="J118" s="22"/>
-      <c r="K118" s="105"/>
-      <c r="L118" s="111"/>
-      <c r="M118" s="103"/>
-      <c r="N118" s="103"/>
+      <c r="K118" s="132"/>
+      <c r="L118" s="134"/>
+      <c r="M118" s="136"/>
+      <c r="N118" s="136"/>
       <c r="O118" s="11"/>
     </row>
-    <row r="119" spans="1:15" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="69"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -9668,13 +10154,13 @@
       <c r="H119" s="2"/>
       <c r="I119" s="2"/>
       <c r="J119" s="22"/>
-      <c r="K119" s="105"/>
-      <c r="L119" s="111"/>
-      <c r="M119" s="103"/>
-      <c r="N119" s="103"/>
+      <c r="K119" s="132"/>
+      <c r="L119" s="134"/>
+      <c r="M119" s="136"/>
+      <c r="N119" s="136"/>
       <c r="O119" s="11"/>
     </row>
-    <row r="120" spans="1:15" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="69"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -9683,13 +10169,13 @@
       <c r="H120" s="2"/>
       <c r="I120" s="2"/>
       <c r="J120" s="22"/>
-      <c r="K120" s="105"/>
-      <c r="L120" s="111"/>
-      <c r="M120" s="103"/>
-      <c r="N120" s="103"/>
+      <c r="K120" s="132"/>
+      <c r="L120" s="134"/>
+      <c r="M120" s="136"/>
+      <c r="N120" s="136"/>
       <c r="O120" s="11"/>
     </row>
-    <row r="121" spans="1:15" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="69"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -9698,13 +10184,13 @@
       <c r="H121" s="2"/>
       <c r="I121" s="2"/>
       <c r="J121" s="22"/>
-      <c r="K121" s="105"/>
-      <c r="L121" s="111"/>
-      <c r="M121" s="103"/>
-      <c r="N121" s="103"/>
+      <c r="K121" s="132"/>
+      <c r="L121" s="134"/>
+      <c r="M121" s="136"/>
+      <c r="N121" s="136"/>
       <c r="O121" s="11"/>
     </row>
-    <row r="122" spans="1:15" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="69"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -9713,13 +10199,13 @@
       <c r="H122" s="2"/>
       <c r="I122" s="2"/>
       <c r="J122" s="22"/>
-      <c r="K122" s="105"/>
-      <c r="L122" s="111"/>
-      <c r="M122" s="103"/>
-      <c r="N122" s="103"/>
+      <c r="K122" s="132"/>
+      <c r="L122" s="134"/>
+      <c r="M122" s="136"/>
+      <c r="N122" s="136"/>
       <c r="O122" s="11"/>
     </row>
-    <row r="123" spans="1:15" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="69"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -9728,13 +10214,13 @@
       <c r="H123" s="2"/>
       <c r="I123" s="2"/>
       <c r="J123" s="22"/>
-      <c r="K123" s="105"/>
-      <c r="L123" s="111"/>
-      <c r="M123" s="103"/>
-      <c r="N123" s="103"/>
+      <c r="K123" s="132"/>
+      <c r="L123" s="134"/>
+      <c r="M123" s="136"/>
+      <c r="N123" s="136"/>
       <c r="O123" s="11"/>
     </row>
-    <row r="124" spans="1:15" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="69"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -9743,13 +10229,13 @@
       <c r="H124" s="2"/>
       <c r="I124" s="2"/>
       <c r="J124" s="22"/>
-      <c r="K124" s="105"/>
-      <c r="L124" s="111"/>
-      <c r="M124" s="103"/>
-      <c r="N124" s="103"/>
+      <c r="K124" s="132"/>
+      <c r="L124" s="134"/>
+      <c r="M124" s="136"/>
+      <c r="N124" s="136"/>
       <c r="O124" s="11"/>
     </row>
-    <row r="125" spans="1:15" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="69"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -9758,13 +10244,13 @@
       <c r="H125" s="2"/>
       <c r="I125" s="2"/>
       <c r="J125" s="22"/>
-      <c r="K125" s="105"/>
-      <c r="L125" s="111"/>
-      <c r="M125" s="103"/>
-      <c r="N125" s="103"/>
+      <c r="K125" s="132"/>
+      <c r="L125" s="134"/>
+      <c r="M125" s="136"/>
+      <c r="N125" s="136"/>
       <c r="O125" s="11"/>
     </row>
-    <row r="126" spans="1:15" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="69"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -9773,13 +10259,13 @@
       <c r="H126" s="2"/>
       <c r="I126" s="2"/>
       <c r="J126" s="22"/>
-      <c r="K126" s="105"/>
-      <c r="L126" s="111"/>
-      <c r="M126" s="103"/>
-      <c r="N126" s="103"/>
+      <c r="K126" s="132"/>
+      <c r="L126" s="134"/>
+      <c r="M126" s="136"/>
+      <c r="N126" s="136"/>
       <c r="O126" s="11"/>
     </row>
-    <row r="127" spans="1:15" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="69"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -9788,13 +10274,13 @@
       <c r="H127" s="2"/>
       <c r="I127" s="2"/>
       <c r="J127" s="22"/>
-      <c r="K127" s="105"/>
-      <c r="L127" s="111"/>
-      <c r="M127" s="103"/>
-      <c r="N127" s="103"/>
+      <c r="K127" s="132"/>
+      <c r="L127" s="134"/>
+      <c r="M127" s="136"/>
+      <c r="N127" s="136"/>
       <c r="O127" s="11"/>
     </row>
-    <row r="128" spans="1:15" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="69"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -9803,13 +10289,13 @@
       <c r="H128" s="2"/>
       <c r="I128" s="2"/>
       <c r="J128" s="22"/>
-      <c r="K128" s="105"/>
-      <c r="L128" s="111"/>
-      <c r="M128" s="103"/>
-      <c r="N128" s="103"/>
+      <c r="K128" s="132"/>
+      <c r="L128" s="134"/>
+      <c r="M128" s="136"/>
+      <c r="N128" s="136"/>
       <c r="O128" s="11"/>
     </row>
-    <row r="129" spans="1:15" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="69"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -9818,13 +10304,13 @@
       <c r="H129" s="2"/>
       <c r="I129" s="2"/>
       <c r="J129" s="22"/>
-      <c r="K129" s="105"/>
-      <c r="L129" s="111"/>
-      <c r="M129" s="103"/>
-      <c r="N129" s="103"/>
+      <c r="K129" s="132"/>
+      <c r="L129" s="134"/>
+      <c r="M129" s="136"/>
+      <c r="N129" s="136"/>
       <c r="O129" s="11"/>
     </row>
-    <row r="130" spans="1:15" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="69"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -9833,13 +10319,13 @@
       <c r="H130" s="2"/>
       <c r="I130" s="2"/>
       <c r="J130" s="22"/>
-      <c r="K130" s="105"/>
-      <c r="L130" s="111"/>
-      <c r="M130" s="103"/>
-      <c r="N130" s="103"/>
+      <c r="K130" s="132"/>
+      <c r="L130" s="134"/>
+      <c r="M130" s="136"/>
+      <c r="N130" s="136"/>
       <c r="O130" s="11"/>
     </row>
-    <row r="131" spans="1:15" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="69"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -9848,13 +10334,13 @@
       <c r="H131" s="2"/>
       <c r="I131" s="2"/>
       <c r="J131" s="22"/>
-      <c r="K131" s="105"/>
-      <c r="L131" s="111"/>
-      <c r="M131" s="103"/>
-      <c r="N131" s="103"/>
+      <c r="K131" s="132"/>
+      <c r="L131" s="134"/>
+      <c r="M131" s="136"/>
+      <c r="N131" s="136"/>
       <c r="O131" s="11"/>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="70"/>
       <c r="B132" s="8"/>
       <c r="C132" s="8"/>
@@ -9865,13 +10351,13 @@
       <c r="H132" s="8"/>
       <c r="I132" s="8"/>
       <c r="J132" s="23"/>
-      <c r="K132" s="107"/>
-      <c r="L132" s="111"/>
-      <c r="M132" s="106"/>
-      <c r="N132" s="106"/>
+      <c r="K132" s="133"/>
+      <c r="L132" s="134"/>
+      <c r="M132" s="137"/>
+      <c r="N132" s="137"/>
       <c r="O132" s="14"/>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="67">
         <v>23</v>
       </c>
@@ -9905,7 +10391,7 @@
       <c r="N133" s="21"/>
       <c r="O133" s="21"/>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="67"/>
       <c r="F134" s="3" t="s">
         <v>265</v>
@@ -9920,7 +10406,7 @@
       <c r="N134" s="22"/>
       <c r="O134" s="22"/>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="67"/>
       <c r="F135" s="3" t="s">
         <v>267</v>
@@ -9935,7 +10421,7 @@
       <c r="N135" s="22"/>
       <c r="O135" s="22"/>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="67"/>
       <c r="G136" s="3" t="s">
         <v>269</v>
@@ -9947,7 +10433,7 @@
       <c r="N136" s="22"/>
       <c r="O136" s="22"/>
     </row>
-    <row r="137" spans="1:15" ht="13.8" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="137" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A137" s="74"/>
       <c r="B137" s="75"/>
       <c r="C137" s="75"/>
@@ -9966,6 +10452,98 @@
     </row>
   </sheetData>
   <mergeCells count="103">
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="N2:N4"/>
+    <mergeCell ref="O2:O4"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="K6:K8"/>
+    <mergeCell ref="M6:M8"/>
+    <mergeCell ref="N6:N8"/>
+    <mergeCell ref="O6:O8"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="K9:K11"/>
+    <mergeCell ref="M9:M11"/>
+    <mergeCell ref="N9:N11"/>
+    <mergeCell ref="O9:O11"/>
+    <mergeCell ref="J20:J22"/>
+    <mergeCell ref="K20:K22"/>
+    <mergeCell ref="M20:M22"/>
+    <mergeCell ref="N20:N22"/>
+    <mergeCell ref="O20:O22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="J12:J15"/>
+    <mergeCell ref="K12:K15"/>
+    <mergeCell ref="M12:M15"/>
+    <mergeCell ref="N12:N15"/>
+    <mergeCell ref="O12:O15"/>
+    <mergeCell ref="J16:J19"/>
+    <mergeCell ref="K16:K19"/>
+    <mergeCell ref="M16:M19"/>
+    <mergeCell ref="N16:N19"/>
+    <mergeCell ref="O16:O19"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="K23:K25"/>
+    <mergeCell ref="M23:M25"/>
+    <mergeCell ref="N23:N25"/>
+    <mergeCell ref="O23:O25"/>
+    <mergeCell ref="J28:J32"/>
+    <mergeCell ref="K28:K32"/>
+    <mergeCell ref="M28:M32"/>
+    <mergeCell ref="N28:N32"/>
+    <mergeCell ref="O28:O32"/>
+    <mergeCell ref="J33:J36"/>
+    <mergeCell ref="K33:K36"/>
+    <mergeCell ref="M33:M36"/>
+    <mergeCell ref="N33:N36"/>
+    <mergeCell ref="O33:O36"/>
+    <mergeCell ref="J37:J42"/>
+    <mergeCell ref="K37:K42"/>
+    <mergeCell ref="M37:M42"/>
+    <mergeCell ref="N37:N42"/>
+    <mergeCell ref="O37:O42"/>
+    <mergeCell ref="J43:J46"/>
+    <mergeCell ref="K43:K46"/>
+    <mergeCell ref="M43:M46"/>
+    <mergeCell ref="N43:N46"/>
+    <mergeCell ref="O43:O46"/>
+    <mergeCell ref="J47:J53"/>
+    <mergeCell ref="K47:K53"/>
+    <mergeCell ref="M47:M53"/>
+    <mergeCell ref="N47:N53"/>
+    <mergeCell ref="O47:O53"/>
+    <mergeCell ref="J54:J56"/>
+    <mergeCell ref="K54:K56"/>
+    <mergeCell ref="M54:M56"/>
+    <mergeCell ref="N54:N56"/>
+    <mergeCell ref="O54:O56"/>
+    <mergeCell ref="J57:J73"/>
+    <mergeCell ref="K57:K73"/>
+    <mergeCell ref="M57:M73"/>
+    <mergeCell ref="N57:N73"/>
+    <mergeCell ref="O57:O73"/>
+    <mergeCell ref="J74:J78"/>
+    <mergeCell ref="K74:K78"/>
+    <mergeCell ref="M74:M78"/>
+    <mergeCell ref="N74:N78"/>
+    <mergeCell ref="O74:O78"/>
+    <mergeCell ref="J80:J87"/>
+    <mergeCell ref="K80:K87"/>
+    <mergeCell ref="M80:M87"/>
+    <mergeCell ref="N80:N87"/>
+    <mergeCell ref="O80:O87"/>
+    <mergeCell ref="J88:J96"/>
+    <mergeCell ref="K88:K96"/>
+    <mergeCell ref="M88:M96"/>
+    <mergeCell ref="N88:N96"/>
+    <mergeCell ref="O88:O96"/>
+    <mergeCell ref="J97:J104"/>
+    <mergeCell ref="K97:K104"/>
+    <mergeCell ref="M97:M104"/>
+    <mergeCell ref="N97:N104"/>
+    <mergeCell ref="O97:O104"/>
     <mergeCell ref="K116:K132"/>
     <mergeCell ref="L116:L132"/>
     <mergeCell ref="M116:M132"/>
@@ -9977,98 +10555,6 @@
     <mergeCell ref="L111:L115"/>
     <mergeCell ref="M111:M115"/>
     <mergeCell ref="N111:N115"/>
-    <mergeCell ref="J88:J96"/>
-    <mergeCell ref="K88:K96"/>
-    <mergeCell ref="M88:M96"/>
-    <mergeCell ref="N88:N96"/>
-    <mergeCell ref="O88:O96"/>
-    <mergeCell ref="J97:J104"/>
-    <mergeCell ref="K97:K104"/>
-    <mergeCell ref="M97:M104"/>
-    <mergeCell ref="N97:N104"/>
-    <mergeCell ref="O97:O104"/>
-    <mergeCell ref="J74:J78"/>
-    <mergeCell ref="K74:K78"/>
-    <mergeCell ref="M74:M78"/>
-    <mergeCell ref="N74:N78"/>
-    <mergeCell ref="O74:O78"/>
-    <mergeCell ref="J80:J87"/>
-    <mergeCell ref="K80:K87"/>
-    <mergeCell ref="M80:M87"/>
-    <mergeCell ref="N80:N87"/>
-    <mergeCell ref="O80:O87"/>
-    <mergeCell ref="J54:J56"/>
-    <mergeCell ref="K54:K56"/>
-    <mergeCell ref="M54:M56"/>
-    <mergeCell ref="N54:N56"/>
-    <mergeCell ref="O54:O56"/>
-    <mergeCell ref="J57:J73"/>
-    <mergeCell ref="K57:K73"/>
-    <mergeCell ref="M57:M73"/>
-    <mergeCell ref="N57:N73"/>
-    <mergeCell ref="O57:O73"/>
-    <mergeCell ref="J43:J46"/>
-    <mergeCell ref="K43:K46"/>
-    <mergeCell ref="M43:M46"/>
-    <mergeCell ref="N43:N46"/>
-    <mergeCell ref="O43:O46"/>
-    <mergeCell ref="J47:J53"/>
-    <mergeCell ref="K47:K53"/>
-    <mergeCell ref="M47:M53"/>
-    <mergeCell ref="N47:N53"/>
-    <mergeCell ref="O47:O53"/>
-    <mergeCell ref="J33:J36"/>
-    <mergeCell ref="K33:K36"/>
-    <mergeCell ref="M33:M36"/>
-    <mergeCell ref="N33:N36"/>
-    <mergeCell ref="O33:O36"/>
-    <mergeCell ref="J37:J42"/>
-    <mergeCell ref="K37:K42"/>
-    <mergeCell ref="M37:M42"/>
-    <mergeCell ref="N37:N42"/>
-    <mergeCell ref="O37:O42"/>
-    <mergeCell ref="J23:J25"/>
-    <mergeCell ref="K23:K25"/>
-    <mergeCell ref="M23:M25"/>
-    <mergeCell ref="N23:N25"/>
-    <mergeCell ref="O23:O25"/>
-    <mergeCell ref="J28:J32"/>
-    <mergeCell ref="K28:K32"/>
-    <mergeCell ref="M28:M32"/>
-    <mergeCell ref="N28:N32"/>
-    <mergeCell ref="O28:O32"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="J12:J15"/>
-    <mergeCell ref="K12:K15"/>
-    <mergeCell ref="M12:M15"/>
-    <mergeCell ref="N12:N15"/>
-    <mergeCell ref="O12:O15"/>
-    <mergeCell ref="J16:J19"/>
-    <mergeCell ref="K16:K19"/>
-    <mergeCell ref="M16:M19"/>
-    <mergeCell ref="N16:N19"/>
-    <mergeCell ref="O16:O19"/>
-    <mergeCell ref="J9:J11"/>
-    <mergeCell ref="K9:K11"/>
-    <mergeCell ref="M9:M11"/>
-    <mergeCell ref="N9:N11"/>
-    <mergeCell ref="O9:O11"/>
-    <mergeCell ref="J20:J22"/>
-    <mergeCell ref="K20:K22"/>
-    <mergeCell ref="M20:M22"/>
-    <mergeCell ref="N20:N22"/>
-    <mergeCell ref="O20:O22"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="N2:N4"/>
-    <mergeCell ref="O2:O4"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="K6:K8"/>
-    <mergeCell ref="M6:M8"/>
-    <mergeCell ref="N6:N8"/>
-    <mergeCell ref="O6:O8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -10088,28 +10574,28 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T109"/>
+  <dimension ref="A1:T137"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I106" sqref="I106"/>
+    <sheetView topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="12" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N75" sqref="N75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="2" width="2.69921875" style="17" customWidth="1"/>
-    <col min="3" max="3" width="25.69921875" style="17" customWidth="1"/>
-    <col min="4" max="4" width="5.69921875" style="17" customWidth="1"/>
-    <col min="5" max="19" width="15.69921875" style="17" customWidth="1"/>
-    <col min="20" max="16384" width="8.796875" style="17"/>
+    <col min="1" max="2" width="2.6640625" style="17" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" style="17" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" style="17" customWidth="1"/>
+    <col min="5" max="19" width="15.6640625" style="17" customWidth="1"/>
+    <col min="20" max="16384" width="8.83203125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="10" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="10" t="s">
         <v>220</v>
       </c>
@@ -10118,7 +10604,7 @@
       </c>
       <c r="N3" s="10"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="C4" s="17" t="s">
         <v>222</v>
       </c>
@@ -10126,7 +10612,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="10" t="s">
         <v>219</v>
       </c>
@@ -10134,7 +10620,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="C6" s="17" t="s">
         <v>245</v>
       </c>
@@ -10142,7 +10628,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="C7" s="17" t="s">
         <v>250</v>
       </c>
@@ -10150,7 +10636,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="C8" s="17" t="s">
         <v>221</v>
       </c>
@@ -10158,7 +10644,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="C9" s="17" t="s">
         <v>249</v>
       </c>
@@ -10166,14 +10652,14 @@
         <v>248</v>
       </c>
     </row>
-    <row r="11" spans="1:19" s="10" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:19" s="10" customFormat="1" ht="22.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="45" t="s">
         <v>0</v>
       </c>
       <c r="C11" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="131" t="s">
+      <c r="D11" s="120" t="s">
         <v>456</v>
       </c>
       <c r="E11" s="83" t="s">
@@ -10208,10 +10694,10 @@
         <v>239</v>
       </c>
     </row>
-    <row r="12" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="46"/>
       <c r="C12" s="46"/>
-      <c r="D12" s="130"/>
+      <c r="D12" s="119"/>
       <c r="E12" s="42" t="s">
         <v>328</v>
       </c>
@@ -10256,14 +10742,14 @@
       </c>
       <c r="S12" s="44"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="34">
         <v>1</v>
       </c>
       <c r="C13" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="132" t="s">
+      <c r="D13" s="121" t="s">
         <v>452</v>
       </c>
       <c r="E13" s="34" t="s">
@@ -10304,10 +10790,10 @@
       </c>
       <c r="S13" s="36"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="28"/>
       <c r="C14" s="28"/>
-      <c r="D14" s="133"/>
+      <c r="D14" s="122"/>
       <c r="E14" s="28" t="s">
         <v>334</v>
       </c>
@@ -10344,10 +10830,10 @@
       </c>
       <c r="S14" s="29"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="28"/>
       <c r="C15" s="28"/>
-      <c r="D15" s="133"/>
+      <c r="D15" s="122"/>
       <c r="E15" s="28" t="s">
         <v>333</v>
       </c>
@@ -10371,10 +10857,10 @@
       <c r="R15" s="95"/>
       <c r="S15" s="29"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="28"/>
       <c r="C16" s="28"/>
-      <c r="D16" s="133"/>
+      <c r="D16" s="122"/>
       <c r="E16" s="28"/>
       <c r="F16" s="26" t="s">
         <v>279</v>
@@ -10397,10 +10883,10 @@
       <c r="R16" s="95"/>
       <c r="S16" s="29"/>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="28"/>
       <c r="C17" s="28"/>
-      <c r="D17" s="133"/>
+      <c r="D17" s="122"/>
       <c r="E17" s="28"/>
       <c r="F17" s="26" t="s">
         <v>278</v>
@@ -10419,10 +10905,10 @@
       <c r="R17" s="95"/>
       <c r="S17" s="29"/>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="28"/>
       <c r="C18" s="28"/>
-      <c r="D18" s="133"/>
+      <c r="D18" s="122"/>
       <c r="E18" s="28"/>
       <c r="F18" s="26" t="s">
         <v>276</v>
@@ -10441,10 +10927,10 @@
       <c r="R18" s="95"/>
       <c r="S18" s="29"/>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="28"/>
       <c r="C19" s="28"/>
-      <c r="D19" s="133"/>
+      <c r="D19" s="122"/>
       <c r="E19" s="28"/>
       <c r="F19" s="26" t="s">
         <v>277</v>
@@ -10463,10 +10949,10 @@
       <c r="R19" s="95"/>
       <c r="S19" s="29"/>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="30"/>
       <c r="C20" s="30"/>
-      <c r="D20" s="134"/>
+      <c r="D20" s="123"/>
       <c r="E20" s="30"/>
       <c r="F20" s="27" t="s">
         <v>275</v>
@@ -10485,14 +10971,14 @@
       <c r="R20" s="96"/>
       <c r="S20" s="31"/>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="28">
         <v>6</v>
       </c>
       <c r="C21" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="133" t="s">
+      <c r="D21" s="122" t="s">
         <v>452</v>
       </c>
       <c r="E21" s="28"/>
@@ -10511,10 +10997,10 @@
       <c r="R21" s="95"/>
       <c r="S21" s="29"/>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="28"/>
       <c r="C22" s="28"/>
-      <c r="D22" s="133"/>
+      <c r="D22" s="122"/>
       <c r="E22" s="28"/>
       <c r="F22" s="26"/>
       <c r="G22" s="32"/>
@@ -10531,10 +11017,10 @@
       <c r="R22" s="95"/>
       <c r="S22" s="29"/>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="28"/>
       <c r="C23" s="28"/>
-      <c r="D23" s="133"/>
+      <c r="D23" s="122"/>
       <c r="E23" s="28"/>
       <c r="F23" s="26"/>
       <c r="G23" s="32"/>
@@ -10551,10 +11037,10 @@
       <c r="R23" s="95"/>
       <c r="S23" s="29"/>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="28"/>
       <c r="C24" s="28"/>
-      <c r="D24" s="133"/>
+      <c r="D24" s="122"/>
       <c r="E24" s="28"/>
       <c r="F24" s="26"/>
       <c r="G24" s="32"/>
@@ -10571,10 +11057,10 @@
       <c r="R24" s="95"/>
       <c r="S24" s="29"/>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="30"/>
       <c r="C25" s="30"/>
-      <c r="D25" s="134"/>
+      <c r="D25" s="123"/>
       <c r="E25" s="30"/>
       <c r="F25" s="27"/>
       <c r="G25" s="33"/>
@@ -10591,1020 +11077,1020 @@
       <c r="R25" s="96"/>
       <c r="S25" s="31"/>
     </row>
-    <row r="26" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="115">
+    <row r="26" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" s="104">
         <v>11</v>
       </c>
-      <c r="C26" s="115" t="s">
+      <c r="C26" s="104" t="s">
         <v>283</v>
       </c>
-      <c r="D26" s="135" t="s">
+      <c r="D26" s="124" t="s">
         <v>452</v>
       </c>
-      <c r="E26" s="115" t="s">
+      <c r="E26" s="104" t="s">
         <v>284</v>
       </c>
-      <c r="F26" s="138" t="s">
+      <c r="F26" s="127" t="s">
         <v>289</v>
       </c>
-      <c r="G26" s="116" t="s">
+      <c r="G26" s="105" t="s">
         <v>296</v>
       </c>
-      <c r="H26" s="116" t="s">
+      <c r="H26" s="105" t="s">
         <v>295</v>
       </c>
-      <c r="I26" s="116" t="s">
+      <c r="I26" s="105" t="s">
         <v>293</v>
       </c>
-      <c r="J26" s="116" t="s">
+      <c r="J26" s="105" t="s">
         <v>292</v>
       </c>
-      <c r="K26" s="116" t="s">
+      <c r="K26" s="105" t="s">
         <v>300</v>
       </c>
-      <c r="L26" s="116" t="s">
+      <c r="L26" s="105" t="s">
         <v>299</v>
       </c>
-      <c r="M26" s="116" t="s">
+      <c r="M26" s="105" t="s">
         <v>34</v>
       </c>
-      <c r="N26" s="116" t="s">
+      <c r="N26" s="105" t="s">
         <v>306</v>
       </c>
-      <c r="O26" s="116" t="s">
+      <c r="O26" s="105" t="s">
         <v>307</v>
       </c>
-      <c r="P26" s="138" t="s">
+      <c r="P26" s="127" t="s">
         <v>308</v>
       </c>
-      <c r="Q26" s="117" t="s">
+      <c r="Q26" s="106" t="s">
         <v>321</v>
       </c>
-      <c r="R26" s="118" t="s">
+      <c r="R26" s="107" t="s">
         <v>339</v>
       </c>
-      <c r="S26" s="119"/>
-    </row>
-    <row r="27" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="115"/>
-      <c r="C27" s="115"/>
-      <c r="D27" s="135"/>
-      <c r="E27" s="115" t="s">
+      <c r="S26" s="108"/>
+    </row>
+    <row r="27" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27" s="104"/>
+      <c r="C27" s="104"/>
+      <c r="D27" s="124"/>
+      <c r="E27" s="104" t="s">
         <v>285</v>
       </c>
-      <c r="F27" s="138" t="s">
+      <c r="F27" s="127" t="s">
         <v>288</v>
       </c>
-      <c r="G27" s="116" t="s">
+      <c r="G27" s="105" t="s">
         <v>317</v>
       </c>
-      <c r="H27" s="116" t="s">
+      <c r="H27" s="105" t="s">
         <v>318</v>
       </c>
-      <c r="I27" s="116" t="s">
+      <c r="I27" s="105" t="s">
         <v>297</v>
       </c>
-      <c r="J27" s="116" t="s">
+      <c r="J27" s="105" t="s">
         <v>298</v>
       </c>
-      <c r="K27" s="116" t="s">
+      <c r="K27" s="105" t="s">
         <v>301</v>
       </c>
-      <c r="L27" s="116" t="s">
+      <c r="L27" s="105" t="s">
         <v>299</v>
       </c>
-      <c r="M27" s="116" t="s">
+      <c r="M27" s="105" t="s">
         <v>310</v>
       </c>
-      <c r="N27" s="116" t="s">
+      <c r="N27" s="105" t="s">
         <v>309</v>
       </c>
-      <c r="O27" s="116"/>
-      <c r="P27" s="138" t="s">
+      <c r="O27" s="105"/>
+      <c r="P27" s="127" t="s">
         <v>315</v>
       </c>
-      <c r="Q27" s="117" t="s">
+      <c r="Q27" s="106" t="s">
         <v>322</v>
       </c>
-      <c r="R27" s="118" t="s">
+      <c r="R27" s="107" t="s">
         <v>340</v>
       </c>
-      <c r="S27" s="119"/>
-    </row>
-    <row r="28" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="115"/>
-      <c r="C28" s="115"/>
-      <c r="D28" s="135"/>
-      <c r="E28" s="115"/>
-      <c r="F28" s="138" t="s">
+      <c r="S27" s="108"/>
+    </row>
+    <row r="28" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28" s="104"/>
+      <c r="C28" s="104"/>
+      <c r="D28" s="124"/>
+      <c r="E28" s="104"/>
+      <c r="F28" s="127" t="s">
         <v>286</v>
       </c>
-      <c r="G28" s="116" t="s">
+      <c r="G28" s="105" t="s">
         <v>290</v>
       </c>
-      <c r="H28" s="116"/>
-      <c r="I28" s="116" t="s">
+      <c r="H28" s="105"/>
+      <c r="I28" s="105" t="s">
         <v>294</v>
       </c>
-      <c r="J28" s="116" t="s">
+      <c r="J28" s="105" t="s">
         <v>298</v>
       </c>
-      <c r="K28" s="116" t="s">
+      <c r="K28" s="105" t="s">
         <v>302</v>
       </c>
-      <c r="L28" s="116" t="s">
+      <c r="L28" s="105" t="s">
         <v>299</v>
       </c>
-      <c r="M28" s="116"/>
-      <c r="N28" s="116" t="s">
+      <c r="M28" s="105"/>
+      <c r="N28" s="105" t="s">
         <v>311</v>
       </c>
-      <c r="O28" s="116"/>
-      <c r="P28" s="138" t="s">
+      <c r="O28" s="105"/>
+      <c r="P28" s="127" t="s">
         <v>316</v>
       </c>
-      <c r="Q28" s="117" t="s">
+      <c r="Q28" s="106" t="s">
         <v>323</v>
       </c>
-      <c r="R28" s="118"/>
-      <c r="S28" s="119"/>
-    </row>
-    <row r="29" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="115"/>
-      <c r="C29" s="115"/>
-      <c r="D29" s="135"/>
-      <c r="E29" s="115"/>
-      <c r="F29" s="138" t="s">
+      <c r="R28" s="107"/>
+      <c r="S28" s="108"/>
+    </row>
+    <row r="29" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B29" s="104"/>
+      <c r="C29" s="104"/>
+      <c r="D29" s="124"/>
+      <c r="E29" s="104"/>
+      <c r="F29" s="127" t="s">
         <v>287</v>
       </c>
-      <c r="G29" s="116" t="s">
+      <c r="G29" s="105" t="s">
         <v>290</v>
       </c>
-      <c r="H29" s="116"/>
-      <c r="I29" s="116"/>
-      <c r="J29" s="116"/>
-      <c r="K29" s="116" t="s">
+      <c r="H29" s="105"/>
+      <c r="I29" s="105"/>
+      <c r="J29" s="105"/>
+      <c r="K29" s="105" t="s">
         <v>303</v>
       </c>
-      <c r="L29" s="116" t="s">
+      <c r="L29" s="105" t="s">
         <v>299</v>
       </c>
-      <c r="M29" s="116" t="s">
+      <c r="M29" s="105" t="s">
         <v>343</v>
       </c>
-      <c r="N29" s="116" t="s">
+      <c r="N29" s="105" t="s">
         <v>314</v>
       </c>
-      <c r="O29" s="116"/>
-      <c r="P29" s="138"/>
-      <c r="Q29" s="117" t="s">
+      <c r="O29" s="105"/>
+      <c r="P29" s="127"/>
+      <c r="Q29" s="106" t="s">
         <v>324</v>
       </c>
-      <c r="R29" s="118"/>
-      <c r="S29" s="119"/>
-    </row>
-    <row r="30" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="115"/>
-      <c r="C30" s="115"/>
-      <c r="D30" s="135"/>
-      <c r="E30" s="115"/>
-      <c r="F30" s="138"/>
-      <c r="G30" s="116"/>
-      <c r="H30" s="116"/>
-      <c r="I30" s="116"/>
-      <c r="J30" s="116"/>
-      <c r="K30" s="116" t="s">
+      <c r="R29" s="107"/>
+      <c r="S29" s="108"/>
+    </row>
+    <row r="30" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30" s="104"/>
+      <c r="C30" s="104"/>
+      <c r="D30" s="124"/>
+      <c r="E30" s="104"/>
+      <c r="F30" s="127"/>
+      <c r="G30" s="105"/>
+      <c r="H30" s="105"/>
+      <c r="I30" s="105"/>
+      <c r="J30" s="105"/>
+      <c r="K30" s="105" t="s">
         <v>304</v>
       </c>
-      <c r="L30" s="116" t="s">
+      <c r="L30" s="105" t="s">
         <v>299</v>
       </c>
-      <c r="M30" s="116"/>
-      <c r="N30" s="116"/>
-      <c r="O30" s="116"/>
-      <c r="P30" s="138"/>
-      <c r="Q30" s="117" t="s">
+      <c r="M30" s="105"/>
+      <c r="N30" s="105"/>
+      <c r="O30" s="105"/>
+      <c r="P30" s="127"/>
+      <c r="Q30" s="106" t="s">
         <v>325</v>
       </c>
-      <c r="R30" s="118"/>
-      <c r="S30" s="119"/>
-    </row>
-    <row r="31" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="115"/>
-      <c r="C31" s="115"/>
-      <c r="D31" s="135"/>
-      <c r="E31" s="115"/>
-      <c r="F31" s="138"/>
-      <c r="G31" s="116"/>
-      <c r="H31" s="116"/>
-      <c r="I31" s="116"/>
-      <c r="J31" s="116"/>
-      <c r="K31" s="116" t="s">
+      <c r="R30" s="107"/>
+      <c r="S30" s="108"/>
+    </row>
+    <row r="31" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B31" s="104"/>
+      <c r="C31" s="104"/>
+      <c r="D31" s="124"/>
+      <c r="E31" s="104"/>
+      <c r="F31" s="127"/>
+      <c r="G31" s="105"/>
+      <c r="H31" s="105"/>
+      <c r="I31" s="105"/>
+      <c r="J31" s="105"/>
+      <c r="K31" s="105" t="s">
         <v>305</v>
       </c>
-      <c r="L31" s="116" t="s">
+      <c r="L31" s="105" t="s">
         <v>299</v>
       </c>
-      <c r="M31" s="116"/>
-      <c r="N31" s="116"/>
-      <c r="O31" s="116"/>
-      <c r="P31" s="138"/>
-      <c r="Q31" s="117"/>
-      <c r="R31" s="118"/>
-      <c r="S31" s="119"/>
-    </row>
-    <row r="32" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="115"/>
-      <c r="C32" s="115"/>
-      <c r="D32" s="135"/>
-      <c r="E32" s="115"/>
-      <c r="F32" s="138"/>
-      <c r="G32" s="116"/>
-      <c r="H32" s="116"/>
-      <c r="I32" s="116"/>
-      <c r="J32" s="116"/>
-      <c r="K32" s="116" t="s">
+      <c r="M31" s="105"/>
+      <c r="N31" s="105"/>
+      <c r="O31" s="105"/>
+      <c r="P31" s="127"/>
+      <c r="Q31" s="106"/>
+      <c r="R31" s="107"/>
+      <c r="S31" s="108"/>
+    </row>
+    <row r="32" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32" s="104"/>
+      <c r="C32" s="104"/>
+      <c r="D32" s="124"/>
+      <c r="E32" s="104"/>
+      <c r="F32" s="127"/>
+      <c r="G32" s="105"/>
+      <c r="H32" s="105"/>
+      <c r="I32" s="105"/>
+      <c r="J32" s="105"/>
+      <c r="K32" s="105" t="s">
         <v>312</v>
       </c>
-      <c r="L32" s="116" t="s">
+      <c r="L32" s="105" t="s">
         <v>299</v>
       </c>
-      <c r="M32" s="116"/>
-      <c r="N32" s="116"/>
-      <c r="O32" s="116"/>
-      <c r="P32" s="138"/>
-      <c r="Q32" s="117"/>
-      <c r="R32" s="118"/>
-      <c r="S32" s="119"/>
-    </row>
-    <row r="33" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="120"/>
-      <c r="C33" s="120"/>
-      <c r="D33" s="136"/>
-      <c r="E33" s="120"/>
+      <c r="M32" s="105"/>
+      <c r="N32" s="105"/>
+      <c r="O32" s="105"/>
+      <c r="P32" s="127"/>
+      <c r="Q32" s="106"/>
+      <c r="R32" s="107"/>
+      <c r="S32" s="108"/>
+    </row>
+    <row r="33" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B33" s="109"/>
+      <c r="C33" s="109"/>
+      <c r="D33" s="125"/>
+      <c r="E33" s="109"/>
       <c r="F33" s="8"/>
-      <c r="G33" s="121"/>
-      <c r="H33" s="121"/>
-      <c r="I33" s="121"/>
-      <c r="J33" s="121"/>
-      <c r="K33" s="121" t="s">
+      <c r="G33" s="110"/>
+      <c r="H33" s="110"/>
+      <c r="I33" s="110"/>
+      <c r="J33" s="110"/>
+      <c r="K33" s="110" t="s">
         <v>313</v>
       </c>
-      <c r="L33" s="121" t="s">
+      <c r="L33" s="110" t="s">
         <v>299</v>
       </c>
-      <c r="M33" s="121"/>
-      <c r="N33" s="121"/>
-      <c r="O33" s="121"/>
+      <c r="M33" s="110"/>
+      <c r="N33" s="110"/>
+      <c r="O33" s="110"/>
       <c r="P33" s="8"/>
-      <c r="Q33" s="122"/>
-      <c r="R33" s="123"/>
-      <c r="S33" s="124"/>
-    </row>
-    <row r="34" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="115">
+      <c r="Q33" s="111"/>
+      <c r="R33" s="112"/>
+      <c r="S33" s="113"/>
+    </row>
+    <row r="34" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34" s="104">
         <v>4</v>
       </c>
-      <c r="C34" s="115" t="s">
+      <c r="C34" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="D34" s="135" t="s">
+      <c r="D34" s="124" t="s">
         <v>453</v>
       </c>
-      <c r="E34" s="115"/>
+      <c r="E34" s="104"/>
       <c r="F34" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="G34" s="116"/>
-      <c r="H34" s="116"/>
-      <c r="I34" s="116"/>
-      <c r="J34" s="116"/>
-      <c r="K34" s="116" t="s">
+      <c r="G34" s="105"/>
+      <c r="H34" s="105"/>
+      <c r="I34" s="105"/>
+      <c r="J34" s="105"/>
+      <c r="K34" s="105" t="s">
         <v>346</v>
       </c>
-      <c r="L34" s="116" t="s">
+      <c r="L34" s="105" t="s">
         <v>347</v>
       </c>
-      <c r="M34" s="116"/>
-      <c r="N34" s="116"/>
-      <c r="O34" s="116"/>
-      <c r="Q34" s="117"/>
-      <c r="R34" s="118" t="s">
+      <c r="M34" s="105"/>
+      <c r="N34" s="105"/>
+      <c r="O34" s="105"/>
+      <c r="Q34" s="106"/>
+      <c r="R34" s="107" t="s">
         <v>348</v>
       </c>
-      <c r="S34" s="119"/>
-    </row>
-    <row r="35" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="115"/>
-      <c r="C35" s="115" t="s">
+      <c r="S34" s="108"/>
+    </row>
+    <row r="35" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B35" s="104"/>
+      <c r="C35" s="104" t="s">
         <v>349</v>
       </c>
-      <c r="D35" s="135"/>
-      <c r="E35" s="115"/>
+      <c r="D35" s="124"/>
+      <c r="E35" s="104"/>
       <c r="F35" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="G35" s="116"/>
-      <c r="H35" s="116"/>
-      <c r="I35" s="116"/>
-      <c r="J35" s="116"/>
-      <c r="K35" s="116" t="s">
+      <c r="G35" s="105"/>
+      <c r="H35" s="105"/>
+      <c r="I35" s="105"/>
+      <c r="J35" s="105"/>
+      <c r="K35" s="105" t="s">
         <v>351</v>
       </c>
-      <c r="L35" s="116" t="s">
+      <c r="L35" s="105" t="s">
         <v>352</v>
       </c>
-      <c r="M35" s="116"/>
-      <c r="N35" s="116"/>
-      <c r="O35" s="116"/>
-      <c r="Q35" s="117"/>
-      <c r="R35" s="118"/>
-      <c r="S35" s="119"/>
-    </row>
-    <row r="36" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="115"/>
-      <c r="C36" s="115"/>
-      <c r="D36" s="135"/>
-      <c r="E36" s="115"/>
-      <c r="G36" s="116"/>
-      <c r="H36" s="116"/>
-      <c r="I36" s="116"/>
-      <c r="J36" s="116"/>
-      <c r="K36" s="116"/>
-      <c r="L36" s="116" t="s">
+      <c r="M35" s="105"/>
+      <c r="N35" s="105"/>
+      <c r="O35" s="105"/>
+      <c r="Q35" s="106"/>
+      <c r="R35" s="107"/>
+      <c r="S35" s="108"/>
+    </row>
+    <row r="36" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B36" s="104"/>
+      <c r="C36" s="104"/>
+      <c r="D36" s="124"/>
+      <c r="E36" s="104"/>
+      <c r="G36" s="105"/>
+      <c r="H36" s="105"/>
+      <c r="I36" s="105"/>
+      <c r="J36" s="105"/>
+      <c r="K36" s="105"/>
+      <c r="L36" s="105" t="s">
         <v>353</v>
       </c>
-      <c r="M36" s="116"/>
-      <c r="N36" s="116"/>
-      <c r="O36" s="116"/>
-      <c r="Q36" s="117"/>
-      <c r="R36" s="118"/>
-      <c r="S36" s="119"/>
-    </row>
-    <row r="37" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="115"/>
-      <c r="C37" s="115"/>
-      <c r="D37" s="135"/>
-      <c r="E37" s="115"/>
-      <c r="G37" s="116"/>
-      <c r="H37" s="116"/>
-      <c r="I37" s="116"/>
-      <c r="J37" s="116"/>
-      <c r="K37" s="116"/>
-      <c r="L37" s="116"/>
-      <c r="M37" s="116"/>
-      <c r="N37" s="116"/>
-      <c r="O37" s="116"/>
-      <c r="Q37" s="117"/>
-      <c r="R37" s="118"/>
-      <c r="S37" s="119"/>
-    </row>
-    <row r="38" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="120"/>
-      <c r="C38" s="120"/>
-      <c r="D38" s="136"/>
-      <c r="E38" s="120"/>
+      <c r="M36" s="105"/>
+      <c r="N36" s="105"/>
+      <c r="O36" s="105"/>
+      <c r="Q36" s="106"/>
+      <c r="R36" s="107"/>
+      <c r="S36" s="108"/>
+    </row>
+    <row r="37" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B37" s="104"/>
+      <c r="C37" s="104"/>
+      <c r="D37" s="124"/>
+      <c r="E37" s="104"/>
+      <c r="G37" s="105"/>
+      <c r="H37" s="105"/>
+      <c r="I37" s="105"/>
+      <c r="J37" s="105"/>
+      <c r="K37" s="105"/>
+      <c r="L37" s="105"/>
+      <c r="M37" s="105"/>
+      <c r="N37" s="105"/>
+      <c r="O37" s="105"/>
+      <c r="Q37" s="106"/>
+      <c r="R37" s="107"/>
+      <c r="S37" s="108"/>
+    </row>
+    <row r="38" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B38" s="109"/>
+      <c r="C38" s="109"/>
+      <c r="D38" s="125"/>
+      <c r="E38" s="109"/>
       <c r="F38" s="8"/>
-      <c r="G38" s="121"/>
-      <c r="H38" s="121"/>
-      <c r="I38" s="121"/>
-      <c r="J38" s="121"/>
-      <c r="K38" s="121"/>
-      <c r="L38" s="121"/>
-      <c r="M38" s="121"/>
-      <c r="N38" s="121"/>
-      <c r="O38" s="121"/>
+      <c r="G38" s="110"/>
+      <c r="H38" s="110"/>
+      <c r="I38" s="110"/>
+      <c r="J38" s="110"/>
+      <c r="K38" s="110"/>
+      <c r="L38" s="110"/>
+      <c r="M38" s="110"/>
+      <c r="N38" s="110"/>
+      <c r="O38" s="110"/>
       <c r="P38" s="8"/>
-      <c r="Q38" s="122"/>
-      <c r="R38" s="123"/>
-      <c r="S38" s="124"/>
-    </row>
-    <row r="39" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="115">
+      <c r="Q38" s="111"/>
+      <c r="R38" s="112"/>
+      <c r="S38" s="113"/>
+    </row>
+    <row r="39" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B39" s="104">
         <v>9</v>
       </c>
-      <c r="C39" s="115" t="s">
+      <c r="C39" s="104" t="s">
         <v>447</v>
       </c>
-      <c r="D39" s="135" t="s">
+      <c r="D39" s="124" t="s">
         <v>453</v>
       </c>
-      <c r="E39" s="115"/>
+      <c r="E39" s="104"/>
       <c r="F39" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="G39" s="116"/>
-      <c r="H39" s="116" t="s">
+      <c r="G39" s="105"/>
+      <c r="H39" s="105" t="s">
         <v>355</v>
       </c>
-      <c r="I39" s="116" t="s">
+      <c r="I39" s="105" t="s">
         <v>356</v>
       </c>
-      <c r="J39" s="116" t="s">
+      <c r="J39" s="105" t="s">
         <v>357</v>
       </c>
-      <c r="K39" s="116" t="s">
+      <c r="K39" s="105" t="s">
         <v>358</v>
       </c>
-      <c r="L39" s="116" t="s">
+      <c r="L39" s="105" t="s">
         <v>66</v>
       </c>
-      <c r="M39" s="116" t="s">
+      <c r="M39" s="105" t="s">
         <v>355</v>
       </c>
-      <c r="N39" s="116" t="s">
+      <c r="N39" s="105" t="s">
         <v>359</v>
       </c>
-      <c r="O39" s="116"/>
-      <c r="Q39" s="117"/>
-      <c r="R39" s="118"/>
-      <c r="S39" s="119"/>
-    </row>
-    <row r="40" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="115"/>
-      <c r="C40" s="115"/>
-      <c r="D40" s="135"/>
-      <c r="E40" s="115"/>
-      <c r="G40" s="116"/>
-      <c r="H40" s="116"/>
-      <c r="I40" s="116" t="s">
+      <c r="O39" s="105"/>
+      <c r="Q39" s="106"/>
+      <c r="R39" s="107"/>
+      <c r="S39" s="108"/>
+    </row>
+    <row r="40" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B40" s="104"/>
+      <c r="C40" s="104"/>
+      <c r="D40" s="124"/>
+      <c r="E40" s="104"/>
+      <c r="G40" s="105"/>
+      <c r="H40" s="105"/>
+      <c r="I40" s="105" t="s">
         <v>293</v>
       </c>
-      <c r="J40" s="116" t="s">
+      <c r="J40" s="105" t="s">
         <v>360</v>
       </c>
-      <c r="K40" s="116"/>
-      <c r="L40" s="116"/>
-      <c r="M40" s="116" t="s">
+      <c r="K40" s="105"/>
+      <c r="L40" s="105"/>
+      <c r="M40" s="105" t="s">
         <v>361</v>
       </c>
-      <c r="N40" s="116" t="s">
+      <c r="N40" s="105" t="s">
         <v>362</v>
       </c>
-      <c r="O40" s="116"/>
-      <c r="Q40" s="117"/>
-      <c r="R40" s="118"/>
-      <c r="S40" s="119"/>
-    </row>
-    <row r="41" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="115"/>
-      <c r="C41" s="115"/>
-      <c r="D41" s="135"/>
-      <c r="E41" s="115"/>
-      <c r="G41" s="116"/>
-      <c r="H41" s="116"/>
-      <c r="I41" s="116"/>
-      <c r="J41" s="116"/>
-      <c r="K41" s="116"/>
-      <c r="L41" s="116"/>
-      <c r="M41" s="116"/>
-      <c r="N41" s="116"/>
-      <c r="O41" s="116"/>
-      <c r="Q41" s="117"/>
-      <c r="R41" s="118"/>
-      <c r="S41" s="119"/>
-    </row>
-    <row r="42" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="115"/>
-      <c r="C42" s="115"/>
-      <c r="D42" s="135"/>
-      <c r="E42" s="115"/>
-      <c r="G42" s="116"/>
-      <c r="H42" s="116"/>
-      <c r="I42" s="116"/>
-      <c r="J42" s="116"/>
-      <c r="K42" s="116"/>
-      <c r="L42" s="116"/>
-      <c r="M42" s="116"/>
-      <c r="N42" s="116"/>
-      <c r="O42" s="116"/>
-      <c r="Q42" s="117"/>
-      <c r="R42" s="118"/>
-      <c r="S42" s="119"/>
-    </row>
-    <row r="43" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="120"/>
-      <c r="C43" s="120"/>
-      <c r="D43" s="136"/>
-      <c r="E43" s="120"/>
+      <c r="O40" s="105"/>
+      <c r="Q40" s="106"/>
+      <c r="R40" s="107"/>
+      <c r="S40" s="108"/>
+    </row>
+    <row r="41" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B41" s="104"/>
+      <c r="C41" s="104"/>
+      <c r="D41" s="124"/>
+      <c r="E41" s="104"/>
+      <c r="G41" s="105"/>
+      <c r="H41" s="105"/>
+      <c r="I41" s="105"/>
+      <c r="J41" s="105"/>
+      <c r="K41" s="105"/>
+      <c r="L41" s="105"/>
+      <c r="M41" s="105"/>
+      <c r="N41" s="105"/>
+      <c r="O41" s="105"/>
+      <c r="Q41" s="106"/>
+      <c r="R41" s="107"/>
+      <c r="S41" s="108"/>
+    </row>
+    <row r="42" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B42" s="104"/>
+      <c r="C42" s="104"/>
+      <c r="D42" s="124"/>
+      <c r="E42" s="104"/>
+      <c r="G42" s="105"/>
+      <c r="H42" s="105"/>
+      <c r="I42" s="105"/>
+      <c r="J42" s="105"/>
+      <c r="K42" s="105"/>
+      <c r="L42" s="105"/>
+      <c r="M42" s="105"/>
+      <c r="N42" s="105"/>
+      <c r="O42" s="105"/>
+      <c r="Q42" s="106"/>
+      <c r="R42" s="107"/>
+      <c r="S42" s="108"/>
+    </row>
+    <row r="43" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B43" s="109"/>
+      <c r="C43" s="109"/>
+      <c r="D43" s="125"/>
+      <c r="E43" s="109"/>
       <c r="F43" s="8"/>
-      <c r="G43" s="121"/>
-      <c r="H43" s="121"/>
-      <c r="I43" s="121"/>
-      <c r="J43" s="121"/>
-      <c r="K43" s="121"/>
-      <c r="L43" s="121"/>
-      <c r="M43" s="121"/>
-      <c r="N43" s="121"/>
-      <c r="O43" s="121"/>
+      <c r="G43" s="110"/>
+      <c r="H43" s="110"/>
+      <c r="I43" s="110"/>
+      <c r="J43" s="110"/>
+      <c r="K43" s="110"/>
+      <c r="L43" s="110"/>
+      <c r="M43" s="110"/>
+      <c r="N43" s="110"/>
+      <c r="O43" s="110"/>
       <c r="P43" s="8"/>
-      <c r="Q43" s="122"/>
-      <c r="R43" s="123"/>
-      <c r="S43" s="124"/>
-    </row>
-    <row r="44" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="115">
+      <c r="Q43" s="111"/>
+      <c r="R43" s="112"/>
+      <c r="S43" s="113"/>
+    </row>
+    <row r="44" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B44" s="104">
         <v>14</v>
       </c>
-      <c r="C44" s="115" t="s">
+      <c r="C44" s="104" t="s">
         <v>448</v>
       </c>
-      <c r="D44" s="135" t="s">
+      <c r="D44" s="124" t="s">
         <v>453</v>
       </c>
-      <c r="E44" s="115"/>
-      <c r="G44" s="116" t="s">
+      <c r="E44" s="104"/>
+      <c r="G44" s="105" t="s">
         <v>358</v>
       </c>
-      <c r="H44" s="116" t="s">
+      <c r="H44" s="105" t="s">
         <v>172</v>
       </c>
-      <c r="I44" s="116" t="s">
+      <c r="I44" s="105" t="s">
         <v>356</v>
       </c>
-      <c r="J44" s="116" t="s">
+      <c r="J44" s="105" t="s">
         <v>363</v>
       </c>
-      <c r="K44" s="116" t="s">
+      <c r="K44" s="105" t="s">
         <v>358</v>
       </c>
-      <c r="L44" s="116" t="s">
+      <c r="L44" s="105" t="s">
         <v>172</v>
       </c>
-      <c r="M44" s="116" t="s">
+      <c r="M44" s="105" t="s">
         <v>361</v>
       </c>
-      <c r="N44" s="116" t="s">
+      <c r="N44" s="105" t="s">
         <v>364</v>
       </c>
-      <c r="O44" s="116"/>
-      <c r="Q44" s="117"/>
-      <c r="R44" s="118"/>
-      <c r="S44" s="119"/>
-    </row>
-    <row r="45" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="115"/>
-      <c r="C45" s="115"/>
-      <c r="D45" s="135"/>
-      <c r="E45" s="115"/>
-      <c r="G45" s="116"/>
-      <c r="H45" s="116"/>
-      <c r="I45" s="116" t="s">
+      <c r="O44" s="105"/>
+      <c r="Q44" s="106"/>
+      <c r="R44" s="107"/>
+      <c r="S44" s="108"/>
+    </row>
+    <row r="45" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B45" s="104"/>
+      <c r="C45" s="104"/>
+      <c r="D45" s="124"/>
+      <c r="E45" s="104"/>
+      <c r="G45" s="105"/>
+      <c r="H45" s="105"/>
+      <c r="I45" s="105" t="s">
         <v>293</v>
       </c>
-      <c r="J45" s="116" t="s">
+      <c r="J45" s="105" t="s">
         <v>363</v>
       </c>
-      <c r="K45" s="116"/>
-      <c r="L45" s="116"/>
-      <c r="M45" s="116"/>
-      <c r="N45" s="116"/>
-      <c r="O45" s="116"/>
-      <c r="Q45" s="117"/>
-      <c r="R45" s="118"/>
-      <c r="S45" s="119"/>
-    </row>
-    <row r="46" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="115"/>
-      <c r="C46" s="115"/>
-      <c r="D46" s="135"/>
-      <c r="E46" s="115"/>
-      <c r="G46" s="116"/>
-      <c r="H46" s="116"/>
-      <c r="I46" s="116"/>
-      <c r="J46" s="116"/>
-      <c r="K46" s="116"/>
-      <c r="L46" s="116"/>
-      <c r="M46" s="116"/>
-      <c r="N46" s="116"/>
-      <c r="O46" s="116"/>
-      <c r="Q46" s="117"/>
-      <c r="R46" s="118"/>
-      <c r="S46" s="119"/>
-    </row>
-    <row r="47" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="115"/>
-      <c r="C47" s="115"/>
-      <c r="D47" s="135"/>
-      <c r="E47" s="115"/>
-      <c r="G47" s="116"/>
-      <c r="H47" s="116"/>
-      <c r="I47" s="116"/>
-      <c r="J47" s="116"/>
-      <c r="K47" s="116"/>
-      <c r="L47" s="116"/>
-      <c r="M47" s="116"/>
-      <c r="N47" s="116"/>
-      <c r="O47" s="116"/>
-      <c r="Q47" s="117"/>
-      <c r="R47" s="118"/>
-      <c r="S47" s="119"/>
-    </row>
-    <row r="48" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="120"/>
-      <c r="C48" s="120"/>
-      <c r="D48" s="136"/>
-      <c r="E48" s="120"/>
+      <c r="K45" s="105"/>
+      <c r="L45" s="105"/>
+      <c r="M45" s="105"/>
+      <c r="N45" s="105"/>
+      <c r="O45" s="105"/>
+      <c r="Q45" s="106"/>
+      <c r="R45" s="107"/>
+      <c r="S45" s="108"/>
+    </row>
+    <row r="46" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B46" s="104"/>
+      <c r="C46" s="104"/>
+      <c r="D46" s="124"/>
+      <c r="E46" s="104"/>
+      <c r="G46" s="105"/>
+      <c r="H46" s="105"/>
+      <c r="I46" s="105"/>
+      <c r="J46" s="105"/>
+      <c r="K46" s="105"/>
+      <c r="L46" s="105"/>
+      <c r="M46" s="105"/>
+      <c r="N46" s="105"/>
+      <c r="O46" s="105"/>
+      <c r="Q46" s="106"/>
+      <c r="R46" s="107"/>
+      <c r="S46" s="108"/>
+    </row>
+    <row r="47" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B47" s="104"/>
+      <c r="C47" s="104"/>
+      <c r="D47" s="124"/>
+      <c r="E47" s="104"/>
+      <c r="G47" s="105"/>
+      <c r="H47" s="105"/>
+      <c r="I47" s="105"/>
+      <c r="J47" s="105"/>
+      <c r="K47" s="105"/>
+      <c r="L47" s="105"/>
+      <c r="M47" s="105"/>
+      <c r="N47" s="105"/>
+      <c r="O47" s="105"/>
+      <c r="Q47" s="106"/>
+      <c r="R47" s="107"/>
+      <c r="S47" s="108"/>
+    </row>
+    <row r="48" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B48" s="109"/>
+      <c r="C48" s="109"/>
+      <c r="D48" s="125"/>
+      <c r="E48" s="109"/>
       <c r="F48" s="8"/>
-      <c r="G48" s="121"/>
-      <c r="H48" s="121"/>
-      <c r="I48" s="121"/>
-      <c r="J48" s="121"/>
-      <c r="K48" s="121"/>
-      <c r="L48" s="121"/>
-      <c r="M48" s="121"/>
-      <c r="N48" s="121"/>
-      <c r="O48" s="121"/>
+      <c r="G48" s="110"/>
+      <c r="H48" s="110"/>
+      <c r="I48" s="110"/>
+      <c r="J48" s="110"/>
+      <c r="K48" s="110"/>
+      <c r="L48" s="110"/>
+      <c r="M48" s="110"/>
+      <c r="N48" s="110"/>
+      <c r="O48" s="110"/>
       <c r="P48" s="8"/>
-      <c r="Q48" s="122"/>
-      <c r="R48" s="123"/>
-      <c r="S48" s="124"/>
-    </row>
-    <row r="49" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="115">
+      <c r="Q48" s="111"/>
+      <c r="R48" s="112"/>
+      <c r="S48" s="113"/>
+    </row>
+    <row r="49" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B49" s="104">
         <v>18</v>
       </c>
-      <c r="C49" s="115" t="s">
+      <c r="C49" s="104" t="s">
         <v>449</v>
       </c>
-      <c r="D49" s="135" t="s">
+      <c r="D49" s="124" t="s">
         <v>453</v>
       </c>
-      <c r="E49" s="115" t="s">
+      <c r="E49" s="104" t="s">
         <v>365</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="G49" s="116"/>
-      <c r="H49" s="116"/>
-      <c r="I49" s="116" t="s">
+      <c r="G49" s="105"/>
+      <c r="H49" s="105"/>
+      <c r="I49" s="105" t="s">
         <v>356</v>
       </c>
-      <c r="J49" s="116" t="s">
+      <c r="J49" s="105" t="s">
         <v>357</v>
       </c>
-      <c r="K49" s="116"/>
-      <c r="L49" s="116"/>
-      <c r="M49" s="116" t="s">
+      <c r="K49" s="105"/>
+      <c r="L49" s="105"/>
+      <c r="M49" s="105" t="s">
         <v>361</v>
       </c>
-      <c r="N49" s="116" t="s">
+      <c r="N49" s="105" t="s">
         <v>362</v>
       </c>
-      <c r="O49" s="116"/>
-      <c r="Q49" s="117" t="s">
+      <c r="O49" s="105"/>
+      <c r="Q49" s="106" t="s">
         <v>367</v>
       </c>
-      <c r="R49" s="118" t="s">
+      <c r="R49" s="107" t="s">
         <v>368</v>
       </c>
-      <c r="S49" s="119" t="s">
+      <c r="S49" s="108" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="50" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="115"/>
-      <c r="C50" s="115"/>
-      <c r="D50" s="135"/>
-      <c r="E50" s="115"/>
-      <c r="G50" s="116"/>
-      <c r="H50" s="116"/>
-      <c r="I50" s="116" t="s">
+    <row r="50" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B50" s="104"/>
+      <c r="C50" s="104"/>
+      <c r="D50" s="124"/>
+      <c r="E50" s="104"/>
+      <c r="G50" s="105"/>
+      <c r="H50" s="105"/>
+      <c r="I50" s="105" t="s">
         <v>293</v>
       </c>
-      <c r="J50" s="116" t="s">
+      <c r="J50" s="105" t="s">
         <v>370</v>
       </c>
-      <c r="K50" s="116"/>
-      <c r="L50" s="116"/>
-      <c r="M50" s="116" t="s">
+      <c r="K50" s="105"/>
+      <c r="L50" s="105"/>
+      <c r="M50" s="105" t="s">
         <v>371</v>
       </c>
-      <c r="N50" s="116" t="s">
+      <c r="N50" s="105" t="s">
         <v>372</v>
       </c>
-      <c r="O50" s="116"/>
-      <c r="Q50" s="117"/>
-      <c r="R50" s="118"/>
-      <c r="S50" s="119"/>
-    </row>
-    <row r="51" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="115"/>
-      <c r="C51" s="115"/>
-      <c r="D51" s="135"/>
-      <c r="E51" s="115"/>
-      <c r="G51" s="116"/>
-      <c r="H51" s="116"/>
-      <c r="I51" s="116"/>
-      <c r="J51" s="116"/>
-      <c r="K51" s="116"/>
-      <c r="L51" s="116"/>
-      <c r="M51" s="116"/>
-      <c r="N51" s="116"/>
-      <c r="O51" s="116"/>
-      <c r="Q51" s="117"/>
-      <c r="R51" s="118"/>
-      <c r="S51" s="119"/>
-    </row>
-    <row r="52" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="115"/>
-      <c r="C52" s="115"/>
-      <c r="D52" s="135"/>
-      <c r="E52" s="115"/>
-      <c r="G52" s="116"/>
-      <c r="H52" s="116"/>
-      <c r="I52" s="116"/>
-      <c r="J52" s="116"/>
-      <c r="K52" s="116"/>
-      <c r="L52" s="116"/>
-      <c r="M52" s="116"/>
-      <c r="N52" s="116"/>
-      <c r="O52" s="116"/>
-      <c r="Q52" s="117"/>
-      <c r="R52" s="118"/>
-      <c r="S52" s="119"/>
-    </row>
-    <row r="53" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="120"/>
-      <c r="C53" s="120"/>
-      <c r="D53" s="136"/>
-      <c r="E53" s="120"/>
+      <c r="O50" s="105"/>
+      <c r="Q50" s="106"/>
+      <c r="R50" s="107"/>
+      <c r="S50" s="108"/>
+    </row>
+    <row r="51" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B51" s="104"/>
+      <c r="C51" s="104"/>
+      <c r="D51" s="124"/>
+      <c r="E51" s="104"/>
+      <c r="G51" s="105"/>
+      <c r="H51" s="105"/>
+      <c r="I51" s="105"/>
+      <c r="J51" s="105"/>
+      <c r="K51" s="105"/>
+      <c r="L51" s="105"/>
+      <c r="M51" s="105"/>
+      <c r="N51" s="105"/>
+      <c r="O51" s="105"/>
+      <c r="Q51" s="106"/>
+      <c r="R51" s="107"/>
+      <c r="S51" s="108"/>
+    </row>
+    <row r="52" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B52" s="104"/>
+      <c r="C52" s="104"/>
+      <c r="D52" s="124"/>
+      <c r="E52" s="104"/>
+      <c r="G52" s="105"/>
+      <c r="H52" s="105"/>
+      <c r="I52" s="105"/>
+      <c r="J52" s="105"/>
+      <c r="K52" s="105"/>
+      <c r="L52" s="105"/>
+      <c r="M52" s="105"/>
+      <c r="N52" s="105"/>
+      <c r="O52" s="105"/>
+      <c r="Q52" s="106"/>
+      <c r="R52" s="107"/>
+      <c r="S52" s="108"/>
+    </row>
+    <row r="53" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B53" s="109"/>
+      <c r="C53" s="109"/>
+      <c r="D53" s="125"/>
+      <c r="E53" s="109"/>
       <c r="F53" s="8"/>
-      <c r="G53" s="121"/>
-      <c r="H53" s="121"/>
-      <c r="I53" s="121"/>
-      <c r="J53" s="121"/>
-      <c r="K53" s="121"/>
-      <c r="L53" s="121"/>
-      <c r="M53" s="121"/>
-      <c r="N53" s="121"/>
-      <c r="O53" s="121"/>
+      <c r="G53" s="110"/>
+      <c r="H53" s="110"/>
+      <c r="I53" s="110"/>
+      <c r="J53" s="110"/>
+      <c r="K53" s="110"/>
+      <c r="L53" s="110"/>
+      <c r="M53" s="110"/>
+      <c r="N53" s="110"/>
+      <c r="O53" s="110"/>
       <c r="P53" s="8"/>
-      <c r="Q53" s="122"/>
-      <c r="R53" s="123"/>
-      <c r="S53" s="124"/>
-    </row>
-    <row r="54" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="115">
+      <c r="Q53" s="111"/>
+      <c r="R53" s="112"/>
+      <c r="S53" s="113"/>
+    </row>
+    <row r="54" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B54" s="104">
         <v>22</v>
       </c>
-      <c r="C54" s="115" t="s">
+      <c r="C54" s="104" t="s">
         <v>450</v>
       </c>
-      <c r="D54" s="135" t="s">
+      <c r="D54" s="124" t="s">
         <v>453</v>
       </c>
-      <c r="E54" s="115" t="s">
+      <c r="E54" s="104" t="s">
         <v>373</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="G54" s="116"/>
-      <c r="H54" s="116"/>
-      <c r="I54" s="116" t="s">
+      <c r="G54" s="105"/>
+      <c r="H54" s="105"/>
+      <c r="I54" s="105" t="s">
         <v>293</v>
       </c>
-      <c r="J54" s="116" t="s">
+      <c r="J54" s="105" t="s">
         <v>360</v>
       </c>
-      <c r="K54" s="116"/>
-      <c r="L54" s="116"/>
-      <c r="M54" s="116" t="s">
+      <c r="K54" s="105"/>
+      <c r="L54" s="105"/>
+      <c r="M54" s="105" t="s">
         <v>361</v>
       </c>
-      <c r="N54" s="116" t="s">
+      <c r="N54" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="O54" s="116"/>
-      <c r="Q54" s="117"/>
-      <c r="R54" s="118"/>
-      <c r="S54" s="119"/>
-    </row>
-    <row r="55" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="115"/>
-      <c r="C55" s="115"/>
-      <c r="D55" s="135"/>
-      <c r="E55" s="115"/>
+      <c r="O54" s="105"/>
+      <c r="Q54" s="106"/>
+      <c r="R54" s="107"/>
+      <c r="S54" s="108"/>
+    </row>
+    <row r="55" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B55" s="104"/>
+      <c r="C55" s="104"/>
+      <c r="D55" s="124"/>
+      <c r="E55" s="104"/>
       <c r="F55" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="G55" s="116"/>
-      <c r="H55" s="116"/>
-      <c r="I55" s="116"/>
-      <c r="J55" s="116"/>
-      <c r="K55" s="116"/>
-      <c r="L55" s="116"/>
-      <c r="M55" s="116"/>
-      <c r="N55" s="116"/>
-      <c r="O55" s="116"/>
-      <c r="Q55" s="117"/>
-      <c r="R55" s="118"/>
-      <c r="S55" s="119"/>
-    </row>
-    <row r="56" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="115"/>
-      <c r="C56" s="115"/>
-      <c r="D56" s="135"/>
-      <c r="E56" s="115"/>
-      <c r="G56" s="116"/>
-      <c r="H56" s="116"/>
-      <c r="I56" s="116"/>
-      <c r="J56" s="116"/>
-      <c r="K56" s="116"/>
-      <c r="L56" s="116"/>
-      <c r="M56" s="116"/>
-      <c r="N56" s="116"/>
-      <c r="O56" s="116"/>
-      <c r="Q56" s="117"/>
-      <c r="R56" s="118"/>
-      <c r="S56" s="119"/>
-    </row>
-    <row r="57" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="115"/>
-      <c r="C57" s="115"/>
-      <c r="D57" s="135"/>
-      <c r="E57" s="115"/>
-      <c r="G57" s="116"/>
-      <c r="H57" s="116"/>
-      <c r="I57" s="116"/>
-      <c r="J57" s="116"/>
-      <c r="K57" s="116"/>
-      <c r="L57" s="116"/>
-      <c r="M57" s="116"/>
-      <c r="N57" s="116"/>
-      <c r="O57" s="116"/>
-      <c r="Q57" s="117"/>
-      <c r="R57" s="118"/>
-      <c r="S57" s="119"/>
-    </row>
-    <row r="58" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="120"/>
-      <c r="C58" s="120"/>
-      <c r="D58" s="136"/>
-      <c r="E58" s="120"/>
+      <c r="G55" s="105"/>
+      <c r="H55" s="105"/>
+      <c r="I55" s="105"/>
+      <c r="J55" s="105"/>
+      <c r="K55" s="105"/>
+      <c r="L55" s="105"/>
+      <c r="M55" s="105"/>
+      <c r="N55" s="105"/>
+      <c r="O55" s="105"/>
+      <c r="Q55" s="106"/>
+      <c r="R55" s="107"/>
+      <c r="S55" s="108"/>
+    </row>
+    <row r="56" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B56" s="104"/>
+      <c r="C56" s="104"/>
+      <c r="D56" s="124"/>
+      <c r="E56" s="104"/>
+      <c r="G56" s="105"/>
+      <c r="H56" s="105"/>
+      <c r="I56" s="105"/>
+      <c r="J56" s="105"/>
+      <c r="K56" s="105"/>
+      <c r="L56" s="105"/>
+      <c r="M56" s="105"/>
+      <c r="N56" s="105"/>
+      <c r="O56" s="105"/>
+      <c r="Q56" s="106"/>
+      <c r="R56" s="107"/>
+      <c r="S56" s="108"/>
+    </row>
+    <row r="57" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B57" s="104"/>
+      <c r="C57" s="104"/>
+      <c r="D57" s="124"/>
+      <c r="E57" s="104"/>
+      <c r="G57" s="105"/>
+      <c r="H57" s="105"/>
+      <c r="I57" s="105"/>
+      <c r="J57" s="105"/>
+      <c r="K57" s="105"/>
+      <c r="L57" s="105"/>
+      <c r="M57" s="105"/>
+      <c r="N57" s="105"/>
+      <c r="O57" s="105"/>
+      <c r="Q57" s="106"/>
+      <c r="R57" s="107"/>
+      <c r="S57" s="108"/>
+    </row>
+    <row r="58" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B58" s="109"/>
+      <c r="C58" s="109"/>
+      <c r="D58" s="125"/>
+      <c r="E58" s="109"/>
       <c r="F58" s="8"/>
-      <c r="G58" s="121"/>
-      <c r="H58" s="121"/>
-      <c r="I58" s="121"/>
-      <c r="J58" s="121"/>
-      <c r="K58" s="121"/>
-      <c r="L58" s="121"/>
-      <c r="M58" s="121"/>
-      <c r="N58" s="121"/>
-      <c r="O58" s="121"/>
+      <c r="G58" s="110"/>
+      <c r="H58" s="110"/>
+      <c r="I58" s="110"/>
+      <c r="J58" s="110"/>
+      <c r="K58" s="110"/>
+      <c r="L58" s="110"/>
+      <c r="M58" s="110"/>
+      <c r="N58" s="110"/>
+      <c r="O58" s="110"/>
       <c r="P58" s="8"/>
-      <c r="Q58" s="122"/>
-      <c r="R58" s="123"/>
-      <c r="S58" s="124"/>
-    </row>
-    <row r="59" spans="2:19" s="2" customFormat="1" ht="39.6" x14ac:dyDescent="0.45">
-      <c r="B59" s="115">
+      <c r="Q58" s="111"/>
+      <c r="R58" s="112"/>
+      <c r="S58" s="113"/>
+    </row>
+    <row r="59" spans="2:19" s="2" customFormat="1" ht="42" x14ac:dyDescent="0.55000000000000004">
+      <c r="B59" s="104">
         <v>5</v>
       </c>
-      <c r="C59" s="115" t="s">
+      <c r="C59" s="104" t="s">
         <v>454</v>
       </c>
-      <c r="D59" s="135" t="s">
+      <c r="D59" s="124" t="s">
         <v>455</v>
       </c>
-      <c r="E59" s="115" t="s">
+      <c r="E59" s="104" t="s">
         <v>376</v>
       </c>
-      <c r="G59" s="116" t="s">
+      <c r="G59" s="105" t="s">
         <v>358</v>
       </c>
-      <c r="H59" s="116"/>
-      <c r="I59" s="116" t="s">
+      <c r="H59" s="105"/>
+      <c r="I59" s="105" t="s">
         <v>297</v>
       </c>
-      <c r="J59" s="116"/>
-      <c r="K59" s="116" t="s">
+      <c r="J59" s="105"/>
+      <c r="K59" s="105" t="s">
         <v>358</v>
       </c>
-      <c r="L59" s="116"/>
-      <c r="M59" s="116" t="s">
+      <c r="L59" s="105"/>
+      <c r="M59" s="105" t="s">
         <v>377</v>
       </c>
-      <c r="N59" s="125" t="s">
+      <c r="N59" s="114" t="s">
         <v>378</v>
       </c>
-      <c r="O59" s="116" t="s">
+      <c r="O59" s="105" t="s">
         <v>379</v>
       </c>
       <c r="P59" s="99" t="s">
         <v>380</v>
       </c>
-      <c r="Q59" s="126" t="s">
+      <c r="Q59" s="115" t="s">
         <v>381</v>
       </c>
-      <c r="R59" s="118"/>
-      <c r="S59" s="119"/>
-    </row>
-    <row r="60" spans="2:19" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.45">
-      <c r="B60" s="115"/>
-      <c r="C60" s="115"/>
-      <c r="D60" s="135"/>
-      <c r="E60" s="115" t="s">
+      <c r="R59" s="107"/>
+      <c r="S59" s="108"/>
+    </row>
+    <row r="60" spans="2:19" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.55000000000000004">
+      <c r="B60" s="104"/>
+      <c r="C60" s="104"/>
+      <c r="D60" s="124"/>
+      <c r="E60" s="104" t="s">
         <v>382</v>
       </c>
-      <c r="G60" s="116"/>
-      <c r="H60" s="116"/>
-      <c r="I60" s="116" t="s">
+      <c r="G60" s="105"/>
+      <c r="H60" s="105"/>
+      <c r="I60" s="105" t="s">
         <v>383</v>
       </c>
-      <c r="J60" s="116"/>
-      <c r="K60" s="116"/>
-      <c r="L60" s="116"/>
-      <c r="M60" s="116" t="s">
+      <c r="J60" s="105"/>
+      <c r="K60" s="105"/>
+      <c r="L60" s="105"/>
+      <c r="M60" s="105" t="s">
         <v>384</v>
       </c>
-      <c r="N60" s="116" t="s">
+      <c r="N60" s="105" t="s">
         <v>385</v>
       </c>
-      <c r="O60" s="125" t="s">
+      <c r="O60" s="114" t="s">
         <v>386</v>
       </c>
       <c r="P60" s="99" t="s">
         <v>387</v>
       </c>
-      <c r="Q60" s="126" t="s">
+      <c r="Q60" s="115" t="s">
         <v>388</v>
       </c>
-      <c r="R60" s="118"/>
-      <c r="S60" s="119"/>
-    </row>
-    <row r="61" spans="2:19" s="2" customFormat="1" ht="39.6" x14ac:dyDescent="0.45">
-      <c r="B61" s="115"/>
-      <c r="C61" s="115"/>
-      <c r="D61" s="135"/>
-      <c r="E61" s="115" t="s">
+      <c r="R60" s="107"/>
+      <c r="S60" s="108"/>
+    </row>
+    <row r="61" spans="2:19" s="2" customFormat="1" ht="42" x14ac:dyDescent="0.55000000000000004">
+      <c r="B61" s="104"/>
+      <c r="C61" s="104"/>
+      <c r="D61" s="124"/>
+      <c r="E61" s="104" t="s">
         <v>389</v>
       </c>
-      <c r="G61" s="116"/>
-      <c r="H61" s="116"/>
-      <c r="I61" s="116"/>
-      <c r="J61" s="116"/>
-      <c r="K61" s="116"/>
-      <c r="L61" s="116"/>
-      <c r="M61" s="116"/>
-      <c r="N61" s="116"/>
-      <c r="O61" s="125" t="s">
+      <c r="G61" s="105"/>
+      <c r="H61" s="105"/>
+      <c r="I61" s="105"/>
+      <c r="J61" s="105"/>
+      <c r="K61" s="105"/>
+      <c r="L61" s="105"/>
+      <c r="M61" s="105"/>
+      <c r="N61" s="105"/>
+      <c r="O61" s="114" t="s">
         <v>390</v>
       </c>
-      <c r="Q61" s="126" t="s">
+      <c r="Q61" s="115" t="s">
         <v>391</v>
       </c>
-      <c r="R61" s="118"/>
-      <c r="S61" s="119"/>
-    </row>
-    <row r="62" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B62" s="115"/>
-      <c r="C62" s="115"/>
-      <c r="D62" s="135"/>
-      <c r="E62" s="115"/>
-      <c r="G62" s="116"/>
-      <c r="H62" s="116"/>
-      <c r="I62" s="116"/>
-      <c r="J62" s="116"/>
-      <c r="K62" s="116"/>
-      <c r="L62" s="116"/>
-      <c r="M62" s="116"/>
-      <c r="N62" s="116"/>
-      <c r="O62" s="116"/>
-      <c r="Q62" s="117"/>
-      <c r="R62" s="118"/>
-      <c r="S62" s="119"/>
-    </row>
-    <row r="63" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B63" s="120"/>
-      <c r="C63" s="120"/>
-      <c r="D63" s="136"/>
-      <c r="E63" s="120"/>
+      <c r="R61" s="107"/>
+      <c r="S61" s="108"/>
+    </row>
+    <row r="62" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B62" s="104"/>
+      <c r="C62" s="104"/>
+      <c r="D62" s="124"/>
+      <c r="E62" s="104"/>
+      <c r="G62" s="105"/>
+      <c r="H62" s="105"/>
+      <c r="I62" s="105"/>
+      <c r="J62" s="105"/>
+      <c r="K62" s="105"/>
+      <c r="L62" s="105"/>
+      <c r="M62" s="105"/>
+      <c r="N62" s="105"/>
+      <c r="O62" s="105"/>
+      <c r="Q62" s="106"/>
+      <c r="R62" s="107"/>
+      <c r="S62" s="108"/>
+    </row>
+    <row r="63" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B63" s="109"/>
+      <c r="C63" s="109"/>
+      <c r="D63" s="125"/>
+      <c r="E63" s="109"/>
       <c r="F63" s="8"/>
-      <c r="G63" s="121"/>
-      <c r="H63" s="121"/>
-      <c r="I63" s="121"/>
-      <c r="J63" s="121"/>
-      <c r="K63" s="121"/>
-      <c r="L63" s="121"/>
-      <c r="M63" s="121"/>
-      <c r="N63" s="121"/>
-      <c r="O63" s="121"/>
+      <c r="G63" s="110"/>
+      <c r="H63" s="110"/>
+      <c r="I63" s="110"/>
+      <c r="J63" s="110"/>
+      <c r="K63" s="110"/>
+      <c r="L63" s="110"/>
+      <c r="M63" s="110"/>
+      <c r="N63" s="110"/>
+      <c r="O63" s="110"/>
       <c r="P63" s="8"/>
-      <c r="Q63" s="122"/>
-      <c r="R63" s="123"/>
-      <c r="S63" s="124"/>
-    </row>
-    <row r="64" spans="2:19" s="2" customFormat="1" ht="39.6" x14ac:dyDescent="0.45">
-      <c r="B64" s="115">
+      <c r="Q63" s="111"/>
+      <c r="R63" s="112"/>
+      <c r="S63" s="113"/>
+    </row>
+    <row r="64" spans="2:19" s="2" customFormat="1" ht="42" x14ac:dyDescent="0.55000000000000004">
+      <c r="B64" s="104">
         <v>10</v>
       </c>
-      <c r="C64" s="115" t="s">
+      <c r="C64" s="104" t="s">
         <v>392</v>
       </c>
-      <c r="D64" s="135" t="s">
+      <c r="D64" s="124" t="s">
         <v>455</v>
       </c>
       <c r="E64" s="97" t="s">
@@ -11613,130 +12099,130 @@
       <c r="F64" s="99" t="s">
         <v>394</v>
       </c>
-      <c r="G64" s="116" t="s">
+      <c r="G64" s="105" t="s">
         <v>358</v>
       </c>
-      <c r="H64" s="116"/>
-      <c r="I64" s="125" t="s">
+      <c r="H64" s="105"/>
+      <c r="I64" s="114" t="s">
         <v>395</v>
       </c>
-      <c r="J64" s="116"/>
-      <c r="K64" s="116" t="s">
+      <c r="J64" s="105"/>
+      <c r="K64" s="105" t="s">
         <v>358</v>
       </c>
-      <c r="L64" s="116"/>
-      <c r="M64" s="125" t="s">
+      <c r="L64" s="105"/>
+      <c r="M64" s="114" t="s">
         <v>396</v>
       </c>
-      <c r="N64" s="116"/>
-      <c r="O64" s="116" t="s">
+      <c r="N64" s="105"/>
+      <c r="O64" s="105" t="s">
         <v>397</v>
       </c>
-      <c r="Q64" s="117"/>
-      <c r="R64" s="118" t="s">
+      <c r="Q64" s="106"/>
+      <c r="R64" s="107" t="s">
         <v>398</v>
       </c>
-      <c r="S64" s="119"/>
-    </row>
-    <row r="65" spans="2:19" s="2" customFormat="1" ht="39.6" x14ac:dyDescent="0.45">
-      <c r="B65" s="115"/>
-      <c r="C65" s="115"/>
-      <c r="D65" s="135"/>
-      <c r="E65" s="115" t="s">
+      <c r="S64" s="108"/>
+    </row>
+    <row r="65" spans="2:19" s="2" customFormat="1" ht="42" x14ac:dyDescent="0.55000000000000004">
+      <c r="B65" s="104"/>
+      <c r="C65" s="104"/>
+      <c r="D65" s="124"/>
+      <c r="E65" s="104" t="s">
         <v>399</v>
       </c>
       <c r="F65" s="99" t="s">
         <v>400</v>
       </c>
-      <c r="G65" s="116"/>
-      <c r="H65" s="116"/>
-      <c r="I65" s="116" t="s">
+      <c r="G65" s="105"/>
+      <c r="H65" s="105"/>
+      <c r="I65" s="105" t="s">
         <v>297</v>
       </c>
-      <c r="J65" s="116"/>
-      <c r="K65" s="116"/>
-      <c r="L65" s="116"/>
-      <c r="M65" s="116" t="s">
+      <c r="J65" s="105"/>
+      <c r="K65" s="105"/>
+      <c r="L65" s="105"/>
+      <c r="M65" s="105" t="s">
         <v>401</v>
       </c>
-      <c r="N65" s="116"/>
-      <c r="O65" s="116" t="s">
+      <c r="N65" s="105"/>
+      <c r="O65" s="105" t="s">
         <v>402</v>
       </c>
-      <c r="Q65" s="117"/>
-      <c r="R65" s="127" t="s">
+      <c r="Q65" s="106"/>
+      <c r="R65" s="116" t="s">
         <v>403</v>
       </c>
-      <c r="S65" s="119"/>
-    </row>
-    <row r="66" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B66" s="115"/>
-      <c r="C66" s="115"/>
-      <c r="D66" s="135"/>
-      <c r="E66" s="115"/>
-      <c r="G66" s="116"/>
-      <c r="H66" s="116"/>
-      <c r="I66" s="116" t="s">
+      <c r="S65" s="108"/>
+    </row>
+    <row r="66" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B66" s="104"/>
+      <c r="C66" s="104"/>
+      <c r="D66" s="124"/>
+      <c r="E66" s="104"/>
+      <c r="G66" s="105"/>
+      <c r="H66" s="105"/>
+      <c r="I66" s="105" t="s">
         <v>404</v>
       </c>
-      <c r="J66" s="116"/>
-      <c r="K66" s="116"/>
-      <c r="L66" s="116"/>
-      <c r="M66" s="116"/>
-      <c r="N66" s="116"/>
-      <c r="O66" s="116"/>
-      <c r="Q66" s="117"/>
-      <c r="R66" s="118"/>
-      <c r="S66" s="119"/>
-    </row>
-    <row r="67" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B67" s="115"/>
-      <c r="C67" s="115"/>
-      <c r="D67" s="135"/>
-      <c r="E67" s="115"/>
-      <c r="G67" s="116"/>
-      <c r="H67" s="116"/>
-      <c r="I67" s="116" t="s">
+      <c r="J66" s="105"/>
+      <c r="K66" s="105"/>
+      <c r="L66" s="105"/>
+      <c r="M66" s="105"/>
+      <c r="N66" s="105"/>
+      <c r="O66" s="105"/>
+      <c r="Q66" s="106"/>
+      <c r="R66" s="107"/>
+      <c r="S66" s="108"/>
+    </row>
+    <row r="67" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B67" s="104"/>
+      <c r="C67" s="104"/>
+      <c r="D67" s="124"/>
+      <c r="E67" s="104"/>
+      <c r="G67" s="105"/>
+      <c r="H67" s="105"/>
+      <c r="I67" s="105" t="s">
         <v>293</v>
       </c>
-      <c r="J67" s="116"/>
-      <c r="K67" s="116"/>
-      <c r="L67" s="116"/>
-      <c r="M67" s="116"/>
-      <c r="N67" s="116"/>
-      <c r="O67" s="116"/>
-      <c r="Q67" s="117"/>
-      <c r="R67" s="118"/>
-      <c r="S67" s="119"/>
-    </row>
-    <row r="68" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="120"/>
-      <c r="C68" s="120"/>
-      <c r="D68" s="136"/>
-      <c r="E68" s="120"/>
+      <c r="J67" s="105"/>
+      <c r="K67" s="105"/>
+      <c r="L67" s="105"/>
+      <c r="M67" s="105"/>
+      <c r="N67" s="105"/>
+      <c r="O67" s="105"/>
+      <c r="Q67" s="106"/>
+      <c r="R67" s="107"/>
+      <c r="S67" s="108"/>
+    </row>
+    <row r="68" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B68" s="109"/>
+      <c r="C68" s="109"/>
+      <c r="D68" s="125"/>
+      <c r="E68" s="109"/>
       <c r="F68" s="8"/>
-      <c r="G68" s="121"/>
-      <c r="H68" s="121"/>
-      <c r="I68" s="121"/>
-      <c r="J68" s="121"/>
-      <c r="K68" s="121"/>
-      <c r="L68" s="121"/>
-      <c r="M68" s="121"/>
-      <c r="N68" s="121"/>
-      <c r="O68" s="121"/>
+      <c r="G68" s="110"/>
+      <c r="H68" s="110"/>
+      <c r="I68" s="110"/>
+      <c r="J68" s="110"/>
+      <c r="K68" s="110"/>
+      <c r="L68" s="110"/>
+      <c r="M68" s="110"/>
+      <c r="N68" s="110"/>
+      <c r="O68" s="110"/>
       <c r="P68" s="8"/>
-      <c r="Q68" s="122"/>
-      <c r="R68" s="123"/>
-      <c r="S68" s="124"/>
-    </row>
-    <row r="69" spans="2:19" s="2" customFormat="1" ht="39.6" x14ac:dyDescent="0.45">
-      <c r="B69" s="115">
+      <c r="Q68" s="111"/>
+      <c r="R68" s="112"/>
+      <c r="S68" s="113"/>
+    </row>
+    <row r="69" spans="2:19" s="2" customFormat="1" ht="42" x14ac:dyDescent="0.55000000000000004">
+      <c r="B69" s="104">
         <v>15</v>
       </c>
-      <c r="C69" s="115" t="s">
+      <c r="C69" s="104" t="s">
         <v>405</v>
       </c>
-      <c r="D69" s="135" t="s">
+      <c r="D69" s="124" t="s">
         <v>455</v>
       </c>
       <c r="E69" s="97" t="s">
@@ -11745,445 +12231,445 @@
       <c r="F69" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="G69" s="116"/>
-      <c r="H69" s="116" t="s">
+      <c r="G69" s="105"/>
+      <c r="H69" s="105" t="s">
         <v>408</v>
       </c>
-      <c r="I69" s="116" t="s">
+      <c r="I69" s="105" t="s">
         <v>297</v>
       </c>
-      <c r="J69" s="125" t="s">
+      <c r="J69" s="114" t="s">
         <v>409</v>
       </c>
-      <c r="K69" s="125" t="s">
+      <c r="K69" s="114" t="s">
         <v>410</v>
       </c>
-      <c r="L69" s="116" t="s">
+      <c r="L69" s="105" t="s">
         <v>180</v>
       </c>
-      <c r="M69" s="116" t="s">
+      <c r="M69" s="105" t="s">
         <v>371</v>
       </c>
-      <c r="N69" s="116"/>
-      <c r="O69" s="125" t="s">
+      <c r="N69" s="105"/>
+      <c r="O69" s="114" t="s">
         <v>411</v>
       </c>
-      <c r="Q69" s="126" t="s">
+      <c r="Q69" s="115" t="s">
         <v>412</v>
       </c>
-      <c r="R69" s="118"/>
-      <c r="S69" s="119"/>
-    </row>
-    <row r="70" spans="2:19" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.45">
-      <c r="B70" s="115"/>
-      <c r="C70" s="115"/>
-      <c r="D70" s="135"/>
-      <c r="E70" s="115" t="s">
+      <c r="R69" s="107"/>
+      <c r="S69" s="108"/>
+    </row>
+    <row r="70" spans="2:19" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.55000000000000004">
+      <c r="B70" s="104"/>
+      <c r="C70" s="104"/>
+      <c r="D70" s="124"/>
+      <c r="E70" s="104" t="s">
         <v>413</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="G70" s="116"/>
-      <c r="H70" s="116"/>
-      <c r="I70" s="116"/>
-      <c r="J70" s="125" t="s">
+      <c r="G70" s="105"/>
+      <c r="H70" s="105"/>
+      <c r="I70" s="105"/>
+      <c r="J70" s="114" t="s">
         <v>409</v>
       </c>
-      <c r="K70" s="116"/>
-      <c r="L70" s="116" t="s">
+      <c r="K70" s="105"/>
+      <c r="L70" s="105" t="s">
         <v>415</v>
       </c>
-      <c r="M70" s="125" t="s">
+      <c r="M70" s="114" t="s">
         <v>410</v>
       </c>
-      <c r="N70" s="116" t="s">
+      <c r="N70" s="105" t="s">
         <v>180</v>
       </c>
-      <c r="O70" s="116"/>
-      <c r="Q70" s="126" t="s">
+      <c r="O70" s="105"/>
+      <c r="Q70" s="115" t="s">
         <v>416</v>
       </c>
-      <c r="R70" s="118"/>
-      <c r="S70" s="119"/>
-    </row>
-    <row r="71" spans="2:19" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.45">
-      <c r="B71" s="115"/>
-      <c r="C71" s="115"/>
-      <c r="D71" s="135"/>
-      <c r="E71" s="115"/>
-      <c r="G71" s="116"/>
-      <c r="H71" s="116"/>
-      <c r="I71" s="116"/>
-      <c r="J71" s="116" t="s">
+      <c r="R70" s="107"/>
+      <c r="S70" s="108"/>
+    </row>
+    <row r="71" spans="2:19" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.55000000000000004">
+      <c r="B71" s="104"/>
+      <c r="C71" s="104"/>
+      <c r="D71" s="124"/>
+      <c r="E71" s="104"/>
+      <c r="G71" s="105"/>
+      <c r="H71" s="105"/>
+      <c r="I71" s="105"/>
+      <c r="J71" s="105" t="s">
         <v>417</v>
       </c>
-      <c r="K71" s="116"/>
-      <c r="L71" s="116"/>
-      <c r="M71" s="116"/>
-      <c r="N71" s="116" t="s">
+      <c r="K71" s="105"/>
+      <c r="L71" s="105"/>
+      <c r="M71" s="105"/>
+      <c r="N71" s="105" t="s">
         <v>415</v>
       </c>
-      <c r="O71" s="116"/>
-      <c r="Q71" s="126" t="s">
+      <c r="O71" s="105"/>
+      <c r="Q71" s="115" t="s">
         <v>418</v>
       </c>
-      <c r="R71" s="118"/>
-      <c r="S71" s="119"/>
-    </row>
-    <row r="72" spans="2:19" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.45">
-      <c r="B72" s="115"/>
-      <c r="C72" s="115"/>
-      <c r="D72" s="135"/>
-      <c r="E72" s="115"/>
-      <c r="G72" s="116"/>
-      <c r="H72" s="116"/>
-      <c r="I72" s="116"/>
-      <c r="J72" s="116" t="s">
+      <c r="R71" s="107"/>
+      <c r="S71" s="108"/>
+    </row>
+    <row r="72" spans="2:19" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.55000000000000004">
+      <c r="B72" s="104"/>
+      <c r="C72" s="104"/>
+      <c r="D72" s="124"/>
+      <c r="E72" s="104"/>
+      <c r="G72" s="105"/>
+      <c r="H72" s="105"/>
+      <c r="I72" s="105"/>
+      <c r="J72" s="105" t="s">
         <v>419</v>
       </c>
-      <c r="K72" s="116"/>
-      <c r="L72" s="116"/>
-      <c r="M72" s="116" t="s">
+      <c r="K72" s="105"/>
+      <c r="L72" s="105"/>
+      <c r="M72" s="105" t="s">
         <v>361</v>
       </c>
-      <c r="N72" s="116" t="s">
+      <c r="N72" s="105" t="s">
         <v>420</v>
       </c>
-      <c r="O72" s="116"/>
-      <c r="Q72" s="126" t="s">
+      <c r="O72" s="105"/>
+      <c r="Q72" s="115" t="s">
         <v>421</v>
       </c>
-      <c r="R72" s="118"/>
-      <c r="S72" s="119"/>
-    </row>
-    <row r="73" spans="2:19" s="2" customFormat="1" ht="52.8" x14ac:dyDescent="0.45">
-      <c r="B73" s="120"/>
-      <c r="C73" s="120"/>
-      <c r="D73" s="136"/>
-      <c r="E73" s="120"/>
+      <c r="R72" s="107"/>
+      <c r="S72" s="108"/>
+    </row>
+    <row r="73" spans="2:19" s="2" customFormat="1" ht="56" x14ac:dyDescent="0.55000000000000004">
+      <c r="B73" s="109"/>
+      <c r="C73" s="109"/>
+      <c r="D73" s="125"/>
+      <c r="E73" s="109"/>
       <c r="F73" s="8"/>
-      <c r="G73" s="121"/>
-      <c r="H73" s="121"/>
-      <c r="I73" s="121"/>
-      <c r="J73" s="121"/>
-      <c r="K73" s="121"/>
-      <c r="L73" s="121"/>
-      <c r="M73" s="121"/>
-      <c r="N73" s="121"/>
-      <c r="O73" s="121"/>
+      <c r="G73" s="110"/>
+      <c r="H73" s="110"/>
+      <c r="I73" s="110"/>
+      <c r="J73" s="110"/>
+      <c r="K73" s="110"/>
+      <c r="L73" s="110"/>
+      <c r="M73" s="110"/>
+      <c r="N73" s="110"/>
+      <c r="O73" s="110"/>
       <c r="P73" s="8"/>
-      <c r="Q73" s="128" t="s">
+      <c r="Q73" s="117" t="s">
         <v>422</v>
       </c>
-      <c r="R73" s="123"/>
-      <c r="S73" s="124"/>
-    </row>
-    <row r="74" spans="2:19" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.45">
-      <c r="B74" s="115">
+      <c r="R73" s="112"/>
+      <c r="S73" s="113"/>
+    </row>
+    <row r="74" spans="2:19" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.55000000000000004">
+      <c r="B74" s="104">
         <v>19</v>
       </c>
-      <c r="C74" s="115" t="s">
+      <c r="C74" s="104" t="s">
         <v>423</v>
       </c>
-      <c r="D74" s="135" t="s">
+      <c r="D74" s="124" t="s">
         <v>455</v>
       </c>
-      <c r="E74" s="115" t="s">
+      <c r="E74" s="104" t="s">
         <v>424</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="G74" s="116"/>
-      <c r="H74" s="116" t="s">
+      <c r="G74" s="105"/>
+      <c r="H74" s="105" t="s">
         <v>408</v>
       </c>
-      <c r="I74" s="116" t="s">
+      <c r="I74" s="105" t="s">
         <v>297</v>
       </c>
-      <c r="J74" s="125" t="s">
+      <c r="J74" s="114" t="s">
         <v>409</v>
       </c>
-      <c r="K74" s="125" t="s">
+      <c r="K74" s="114" t="s">
         <v>410</v>
       </c>
-      <c r="L74" s="116" t="s">
+      <c r="L74" s="105" t="s">
         <v>180</v>
       </c>
-      <c r="M74" s="125" t="s">
+      <c r="M74" s="114" t="s">
         <v>426</v>
       </c>
-      <c r="N74" s="125" t="s">
+      <c r="N74" s="114" t="s">
         <v>427</v>
       </c>
-      <c r="O74" s="125" t="s">
+      <c r="O74" s="114" t="s">
         <v>411</v>
       </c>
-      <c r="Q74" s="117"/>
-      <c r="R74" s="118"/>
-      <c r="S74" s="119"/>
-    </row>
-    <row r="75" spans="2:19" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.45">
-      <c r="B75" s="115"/>
-      <c r="C75" s="115"/>
-      <c r="D75" s="135"/>
-      <c r="E75" s="115" t="s">
+      <c r="Q74" s="106"/>
+      <c r="R74" s="107"/>
+      <c r="S74" s="108"/>
+    </row>
+    <row r="75" spans="2:19" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.55000000000000004">
+      <c r="B75" s="104"/>
+      <c r="C75" s="104"/>
+      <c r="D75" s="124"/>
+      <c r="E75" s="104" t="s">
         <v>428</v>
       </c>
-      <c r="G75" s="116"/>
-      <c r="H75" s="116"/>
-      <c r="I75" s="116" t="s">
+      <c r="G75" s="105"/>
+      <c r="H75" s="105"/>
+      <c r="I75" s="105" t="s">
         <v>429</v>
       </c>
-      <c r="J75" s="125" t="s">
+      <c r="J75" s="114" t="s">
         <v>430</v>
       </c>
-      <c r="K75" s="116"/>
-      <c r="L75" s="116"/>
-      <c r="M75" s="116" t="s">
+      <c r="K75" s="105"/>
+      <c r="L75" s="105"/>
+      <c r="M75" s="105" t="s">
         <v>361</v>
       </c>
-      <c r="N75" s="116" t="s">
+      <c r="N75" s="105" t="s">
         <v>431</v>
       </c>
-      <c r="O75" s="116"/>
-      <c r="Q75" s="117"/>
-      <c r="R75" s="118"/>
-      <c r="S75" s="119"/>
-    </row>
-    <row r="76" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B76" s="115"/>
-      <c r="C76" s="115"/>
-      <c r="D76" s="135"/>
-      <c r="E76" s="115" t="s">
+      <c r="O75" s="105"/>
+      <c r="Q75" s="106"/>
+      <c r="R75" s="107"/>
+      <c r="S75" s="108"/>
+    </row>
+    <row r="76" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B76" s="104"/>
+      <c r="C76" s="104"/>
+      <c r="D76" s="124"/>
+      <c r="E76" s="104" t="s">
         <v>355</v>
       </c>
-      <c r="G76" s="116"/>
-      <c r="H76" s="116"/>
-      <c r="I76" s="116"/>
-      <c r="J76" s="116"/>
-      <c r="K76" s="116"/>
-      <c r="L76" s="116"/>
-      <c r="M76" s="116"/>
-      <c r="N76" s="116"/>
-      <c r="O76" s="116"/>
-      <c r="Q76" s="117"/>
-      <c r="R76" s="118"/>
-      <c r="S76" s="119"/>
-    </row>
-    <row r="77" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B77" s="115"/>
-      <c r="C77" s="115"/>
-      <c r="D77" s="135"/>
-      <c r="E77" s="115" t="s">
+      <c r="G76" s="105"/>
+      <c r="H76" s="105"/>
+      <c r="I76" s="105"/>
+      <c r="J76" s="105"/>
+      <c r="K76" s="105"/>
+      <c r="L76" s="105"/>
+      <c r="M76" s="105"/>
+      <c r="N76" s="105"/>
+      <c r="O76" s="105"/>
+      <c r="Q76" s="106"/>
+      <c r="R76" s="107"/>
+      <c r="S76" s="108"/>
+    </row>
+    <row r="77" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B77" s="104"/>
+      <c r="C77" s="104"/>
+      <c r="D77" s="124"/>
+      <c r="E77" s="104" t="s">
         <v>432</v>
       </c>
-      <c r="G77" s="116"/>
-      <c r="H77" s="116"/>
-      <c r="I77" s="116"/>
-      <c r="J77" s="116"/>
-      <c r="K77" s="116"/>
-      <c r="L77" s="116"/>
-      <c r="M77" s="116"/>
-      <c r="N77" s="116"/>
-      <c r="O77" s="116"/>
-      <c r="Q77" s="117"/>
-      <c r="R77" s="118"/>
-      <c r="S77" s="119"/>
-    </row>
-    <row r="78" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B78" s="115"/>
-      <c r="C78" s="115"/>
-      <c r="D78" s="135"/>
-      <c r="E78" s="115" t="s">
+      <c r="G77" s="105"/>
+      <c r="H77" s="105"/>
+      <c r="I77" s="105"/>
+      <c r="J77" s="105"/>
+      <c r="K77" s="105"/>
+      <c r="L77" s="105"/>
+      <c r="M77" s="105"/>
+      <c r="N77" s="105"/>
+      <c r="O77" s="105"/>
+      <c r="Q77" s="106"/>
+      <c r="R77" s="107"/>
+      <c r="S77" s="108"/>
+    </row>
+    <row r="78" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B78" s="104"/>
+      <c r="C78" s="104"/>
+      <c r="D78" s="124"/>
+      <c r="E78" s="104" t="s">
         <v>433</v>
       </c>
-      <c r="G78" s="116"/>
-      <c r="H78" s="116"/>
-      <c r="I78" s="116"/>
-      <c r="J78" s="116"/>
-      <c r="K78" s="116"/>
-      <c r="L78" s="116"/>
-      <c r="M78" s="116"/>
-      <c r="N78" s="116"/>
-      <c r="O78" s="116"/>
-      <c r="Q78" s="117"/>
-      <c r="R78" s="118"/>
-      <c r="S78" s="119"/>
-    </row>
-    <row r="79" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B79" s="120"/>
-      <c r="C79" s="120"/>
-      <c r="D79" s="136"/>
-      <c r="E79" s="120" t="s">
+      <c r="G78" s="105"/>
+      <c r="H78" s="105"/>
+      <c r="I78" s="105"/>
+      <c r="J78" s="105"/>
+      <c r="K78" s="105"/>
+      <c r="L78" s="105"/>
+      <c r="M78" s="105"/>
+      <c r="N78" s="105"/>
+      <c r="O78" s="105"/>
+      <c r="Q78" s="106"/>
+      <c r="R78" s="107"/>
+      <c r="S78" s="108"/>
+    </row>
+    <row r="79" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B79" s="109"/>
+      <c r="C79" s="109"/>
+      <c r="D79" s="125"/>
+      <c r="E79" s="109" t="s">
         <v>434</v>
       </c>
       <c r="F79" s="8"/>
-      <c r="G79" s="121"/>
-      <c r="H79" s="121"/>
-      <c r="I79" s="121"/>
-      <c r="J79" s="121"/>
-      <c r="K79" s="121"/>
-      <c r="L79" s="121"/>
-      <c r="M79" s="121"/>
-      <c r="N79" s="121"/>
-      <c r="O79" s="121"/>
+      <c r="G79" s="110"/>
+      <c r="H79" s="110"/>
+      <c r="I79" s="110"/>
+      <c r="J79" s="110"/>
+      <c r="K79" s="110"/>
+      <c r="L79" s="110"/>
+      <c r="M79" s="110"/>
+      <c r="N79" s="110"/>
+      <c r="O79" s="110"/>
       <c r="P79" s="8"/>
-      <c r="Q79" s="122"/>
-      <c r="R79" s="123"/>
-      <c r="S79" s="124"/>
-    </row>
-    <row r="80" spans="2:19" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.45">
-      <c r="B80" s="115">
+      <c r="Q79" s="111"/>
+      <c r="R79" s="112"/>
+      <c r="S79" s="113"/>
+    </row>
+    <row r="80" spans="2:19" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.55000000000000004">
+      <c r="B80" s="104">
         <v>23</v>
       </c>
-      <c r="C80" s="115" t="s">
+      <c r="C80" s="104" t="s">
         <v>259</v>
       </c>
-      <c r="D80" s="135" t="s">
+      <c r="D80" s="124" t="s">
         <v>455</v>
       </c>
-      <c r="E80" s="115" t="s">
+      <c r="E80" s="104" t="s">
         <v>435</v>
       </c>
-      <c r="G80" s="116" t="s">
+      <c r="G80" s="105" t="s">
         <v>358</v>
       </c>
-      <c r="H80" s="116" t="s">
+      <c r="H80" s="105" t="s">
         <v>172</v>
       </c>
-      <c r="I80" s="116"/>
-      <c r="J80" s="116" t="s">
+      <c r="I80" s="105"/>
+      <c r="J80" s="105" t="s">
         <v>436</v>
       </c>
-      <c r="K80" s="116" t="s">
+      <c r="K80" s="105" t="s">
         <v>358</v>
       </c>
-      <c r="L80" s="116" t="s">
+      <c r="L80" s="105" t="s">
         <v>172</v>
       </c>
-      <c r="M80" s="116" t="s">
+      <c r="M80" s="105" t="s">
         <v>358</v>
       </c>
-      <c r="N80" s="116" t="s">
+      <c r="N80" s="105" t="s">
         <v>172</v>
       </c>
-      <c r="O80" s="116"/>
-      <c r="Q80" s="117"/>
-      <c r="R80" s="127" t="s">
+      <c r="O80" s="105"/>
+      <c r="Q80" s="106"/>
+      <c r="R80" s="116" t="s">
         <v>437</v>
       </c>
-      <c r="S80" s="119"/>
-    </row>
-    <row r="81" spans="2:20" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.45">
-      <c r="B81" s="115"/>
-      <c r="C81" s="115"/>
-      <c r="D81" s="135"/>
-      <c r="E81" s="115" t="s">
+      <c r="S80" s="108"/>
+    </row>
+    <row r="81" spans="2:20" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.55000000000000004">
+      <c r="B81" s="104"/>
+      <c r="C81" s="104"/>
+      <c r="D81" s="124"/>
+      <c r="E81" s="104" t="s">
         <v>438</v>
       </c>
-      <c r="G81" s="116"/>
-      <c r="H81" s="116"/>
-      <c r="I81" s="116"/>
-      <c r="J81" s="116" t="s">
+      <c r="G81" s="105"/>
+      <c r="H81" s="105"/>
+      <c r="I81" s="105"/>
+      <c r="J81" s="105" t="s">
         <v>314</v>
       </c>
-      <c r="K81" s="116"/>
-      <c r="L81" s="116"/>
-      <c r="M81" s="116" t="s">
+      <c r="K81" s="105"/>
+      <c r="L81" s="105"/>
+      <c r="M81" s="105" t="s">
         <v>361</v>
       </c>
-      <c r="N81" s="116" t="s">
+      <c r="N81" s="105" t="s">
         <v>439</v>
       </c>
-      <c r="O81" s="116"/>
-      <c r="Q81" s="117"/>
-      <c r="R81" s="127" t="s">
+      <c r="O81" s="105"/>
+      <c r="Q81" s="106"/>
+      <c r="R81" s="116" t="s">
         <v>440</v>
       </c>
-      <c r="S81" s="119"/>
-    </row>
-    <row r="82" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B82" s="115"/>
-      <c r="C82" s="115"/>
-      <c r="D82" s="135"/>
-      <c r="E82" s="115" t="s">
+      <c r="S81" s="108"/>
+    </row>
+    <row r="82" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B82" s="104"/>
+      <c r="C82" s="104"/>
+      <c r="D82" s="124"/>
+      <c r="E82" s="104" t="s">
         <v>441</v>
       </c>
-      <c r="G82" s="116"/>
-      <c r="H82" s="116"/>
-      <c r="I82" s="116" t="s">
+      <c r="G82" s="105"/>
+      <c r="H82" s="105"/>
+      <c r="I82" s="105" t="s">
         <v>293</v>
       </c>
-      <c r="J82" s="116" t="s">
+      <c r="J82" s="105" t="s">
         <v>173</v>
       </c>
-      <c r="K82" s="116"/>
-      <c r="L82" s="116"/>
-      <c r="M82" s="116"/>
-      <c r="N82" s="116"/>
-      <c r="O82" s="116"/>
-      <c r="Q82" s="117"/>
-      <c r="R82" s="127" t="s">
+      <c r="K82" s="105"/>
+      <c r="L82" s="105"/>
+      <c r="M82" s="105"/>
+      <c r="N82" s="105"/>
+      <c r="O82" s="105"/>
+      <c r="Q82" s="106"/>
+      <c r="R82" s="116" t="s">
         <v>442</v>
       </c>
-      <c r="S82" s="119"/>
-    </row>
-    <row r="83" spans="2:20" s="2" customFormat="1" ht="39.6" x14ac:dyDescent="0.45">
-      <c r="B83" s="115"/>
-      <c r="C83" s="115"/>
-      <c r="D83" s="135"/>
-      <c r="E83" s="115" t="s">
+      <c r="S82" s="108"/>
+    </row>
+    <row r="83" spans="2:20" s="2" customFormat="1" ht="42" x14ac:dyDescent="0.55000000000000004">
+      <c r="B83" s="104"/>
+      <c r="C83" s="104"/>
+      <c r="D83" s="124"/>
+      <c r="E83" s="104" t="s">
         <v>443</v>
       </c>
-      <c r="G83" s="116"/>
-      <c r="H83" s="116"/>
-      <c r="I83" s="116"/>
-      <c r="J83" s="116"/>
-      <c r="K83" s="116"/>
-      <c r="L83" s="116"/>
-      <c r="M83" s="116"/>
-      <c r="N83" s="116"/>
-      <c r="O83" s="116"/>
-      <c r="Q83" s="117"/>
-      <c r="R83" s="127" t="s">
+      <c r="G83" s="105"/>
+      <c r="H83" s="105"/>
+      <c r="I83" s="105"/>
+      <c r="J83" s="105"/>
+      <c r="K83" s="105"/>
+      <c r="L83" s="105"/>
+      <c r="M83" s="105"/>
+      <c r="N83" s="105"/>
+      <c r="O83" s="105"/>
+      <c r="Q83" s="106"/>
+      <c r="R83" s="116" t="s">
         <v>444</v>
       </c>
-      <c r="S83" s="119"/>
-    </row>
-    <row r="84" spans="2:20" s="2" customFormat="1" ht="39.6" x14ac:dyDescent="0.45">
-      <c r="B84" s="120"/>
-      <c r="C84" s="120"/>
-      <c r="D84" s="135"/>
-      <c r="E84" s="120" t="s">
+      <c r="S83" s="108"/>
+    </row>
+    <row r="84" spans="2:20" s="2" customFormat="1" ht="42" x14ac:dyDescent="0.55000000000000004">
+      <c r="B84" s="109"/>
+      <c r="C84" s="109"/>
+      <c r="D84" s="124"/>
+      <c r="E84" s="109" t="s">
         <v>445</v>
       </c>
       <c r="F84" s="8"/>
-      <c r="G84" s="121"/>
-      <c r="H84" s="121"/>
-      <c r="I84" s="121"/>
-      <c r="J84" s="121"/>
-      <c r="K84" s="121"/>
-      <c r="L84" s="121"/>
-      <c r="M84" s="121"/>
-      <c r="N84" s="121"/>
-      <c r="O84" s="121"/>
+      <c r="G84" s="110"/>
+      <c r="H84" s="110"/>
+      <c r="I84" s="110"/>
+      <c r="J84" s="110"/>
+      <c r="K84" s="110"/>
+      <c r="L84" s="110"/>
+      <c r="M84" s="110"/>
+      <c r="N84" s="110"/>
+      <c r="O84" s="110"/>
       <c r="P84" s="8"/>
-      <c r="Q84" s="122"/>
-      <c r="R84" s="129" t="s">
+      <c r="Q84" s="111"/>
+      <c r="R84" s="118" t="s">
         <v>446</v>
       </c>
-      <c r="S84" s="124"/>
-    </row>
-    <row r="85" spans="2:20" s="2" customFormat="1" ht="52.8" x14ac:dyDescent="0.45">
+      <c r="S84" s="113"/>
+    </row>
+    <row r="85" spans="2:20" s="2" customFormat="1" ht="56" x14ac:dyDescent="0.55000000000000004">
       <c r="B85" s="97">
         <v>3</v>
       </c>
       <c r="C85" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="D85" s="137" t="s">
+      <c r="D85" s="126" t="s">
         <v>573</v>
       </c>
       <c r="E85" s="97" t="s">
@@ -12192,48 +12678,48 @@
       <c r="F85" s="99" t="s">
         <v>458</v>
       </c>
-      <c r="G85" s="125" t="s">
+      <c r="G85" s="114" t="s">
         <v>459</v>
       </c>
-      <c r="H85" s="125" t="s">
+      <c r="H85" s="114" t="s">
         <v>460</v>
       </c>
-      <c r="I85" s="125" t="s">
+      <c r="I85" s="114" t="s">
         <v>461</v>
       </c>
-      <c r="J85" s="125" t="s">
+      <c r="J85" s="114" t="s">
         <v>460</v>
       </c>
-      <c r="K85" s="125" t="s">
+      <c r="K85" s="114" t="s">
         <v>462</v>
       </c>
-      <c r="L85" s="125" t="s">
+      <c r="L85" s="114" t="s">
         <v>463</v>
       </c>
-      <c r="M85" s="125" t="s">
+      <c r="M85" s="114" t="s">
         <v>34</v>
       </c>
-      <c r="N85" s="125" t="s">
+      <c r="N85" s="114" t="s">
         <v>464</v>
       </c>
-      <c r="O85" s="125" t="s">
+      <c r="O85" s="114" t="s">
         <v>465</v>
       </c>
       <c r="P85" s="99" t="s">
         <v>466</v>
       </c>
-      <c r="Q85" s="126" t="s">
+      <c r="Q85" s="115" t="s">
         <v>467</v>
       </c>
-      <c r="R85" s="127" t="s">
+      <c r="R85" s="116" t="s">
         <v>468</v>
       </c>
       <c r="S85" s="6"/>
-      <c r="T85" s="139" t="s">
+      <c r="T85" s="128" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="86" spans="2:20" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.45">
+    <row r="86" spans="2:20" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.55000000000000004">
       <c r="B86" s="97"/>
       <c r="C86" s="97"/>
       <c r="D86" s="11"/>
@@ -12243,36 +12729,36 @@
       <c r="F86" s="99" t="s">
         <v>471</v>
       </c>
-      <c r="G86" s="125" t="s">
+      <c r="G86" s="114" t="s">
         <v>472</v>
       </c>
-      <c r="H86" s="125"/>
-      <c r="I86" s="125"/>
-      <c r="J86" s="125"/>
-      <c r="K86" s="125" t="s">
+      <c r="H86" s="114"/>
+      <c r="I86" s="114"/>
+      <c r="J86" s="114"/>
+      <c r="K86" s="114" t="s">
         <v>472</v>
       </c>
-      <c r="L86" s="125"/>
-      <c r="M86" s="125" t="s">
+      <c r="L86" s="114"/>
+      <c r="M86" s="114" t="s">
         <v>473</v>
       </c>
-      <c r="N86" s="125" t="s">
+      <c r="N86" s="114" t="s">
         <v>474</v>
       </c>
-      <c r="O86" s="125"/>
+      <c r="O86" s="114"/>
       <c r="P86" s="99"/>
-      <c r="Q86" s="126" t="s">
+      <c r="Q86" s="115" t="s">
         <v>475</v>
       </c>
-      <c r="R86" s="125" t="s">
+      <c r="R86" s="114" t="s">
         <v>476</v>
       </c>
       <c r="S86" s="6"/>
-      <c r="T86" s="139" t="s">
+      <c r="T86" s="128" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="87" spans="2:20" s="2" customFormat="1" ht="52.8" x14ac:dyDescent="0.45">
+    <row r="87" spans="2:20" s="2" customFormat="1" ht="56" x14ac:dyDescent="0.55000000000000004">
       <c r="B87" s="97"/>
       <c r="C87" s="97"/>
       <c r="D87" s="11"/>
@@ -12282,79 +12768,79 @@
       <c r="F87" s="99" t="s">
         <v>479</v>
       </c>
-      <c r="G87" s="125"/>
-      <c r="H87" s="125"/>
-      <c r="I87" s="125"/>
-      <c r="J87" s="125"/>
-      <c r="K87" s="125"/>
-      <c r="L87" s="125"/>
-      <c r="M87" s="125" t="s">
+      <c r="G87" s="114"/>
+      <c r="H87" s="114"/>
+      <c r="I87" s="114"/>
+      <c r="J87" s="114"/>
+      <c r="K87" s="114"/>
+      <c r="L87" s="114"/>
+      <c r="M87" s="114" t="s">
         <v>480</v>
       </c>
-      <c r="N87" s="125" t="s">
+      <c r="N87" s="114" t="s">
         <v>474</v>
       </c>
-      <c r="O87" s="125"/>
+      <c r="O87" s="114"/>
       <c r="P87" s="99"/>
-      <c r="Q87" s="126" t="s">
+      <c r="Q87" s="115" t="s">
         <v>481</v>
       </c>
-      <c r="R87" s="127" t="s">
+      <c r="R87" s="116" t="s">
         <v>482</v>
       </c>
       <c r="S87" s="6"/>
-      <c r="T87" s="139" t="s">
+      <c r="T87" s="128" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="88" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B88" s="97"/>
       <c r="C88" s="97"/>
       <c r="D88" s="11"/>
       <c r="E88" s="97"/>
       <c r="F88" s="99"/>
-      <c r="G88" s="125"/>
-      <c r="H88" s="125"/>
-      <c r="I88" s="125"/>
-      <c r="J88" s="125"/>
-      <c r="K88" s="125"/>
-      <c r="L88" s="125"/>
-      <c r="M88" s="125"/>
-      <c r="N88" s="125"/>
-      <c r="O88" s="125"/>
+      <c r="G88" s="114"/>
+      <c r="H88" s="114"/>
+      <c r="I88" s="114"/>
+      <c r="J88" s="114"/>
+      <c r="K88" s="114"/>
+      <c r="L88" s="114"/>
+      <c r="M88" s="114"/>
+      <c r="N88" s="114"/>
+      <c r="O88" s="114"/>
       <c r="P88" s="99"/>
-      <c r="Q88" s="126"/>
-      <c r="R88" s="127"/>
+      <c r="Q88" s="115"/>
+      <c r="R88" s="116"/>
       <c r="S88" s="6"/>
     </row>
-    <row r="89" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B89" s="98"/>
       <c r="C89" s="98"/>
       <c r="D89" s="14"/>
       <c r="E89" s="98"/>
       <c r="F89" s="100"/>
-      <c r="G89" s="140"/>
-      <c r="H89" s="140"/>
-      <c r="I89" s="140"/>
-      <c r="J89" s="140"/>
-      <c r="K89" s="140"/>
-      <c r="L89" s="140"/>
-      <c r="M89" s="140"/>
-      <c r="N89" s="140"/>
-      <c r="O89" s="140"/>
+      <c r="G89" s="129"/>
+      <c r="H89" s="129"/>
+      <c r="I89" s="129"/>
+      <c r="J89" s="129"/>
+      <c r="K89" s="129"/>
+      <c r="L89" s="129"/>
+      <c r="M89" s="129"/>
+      <c r="N89" s="129"/>
+      <c r="O89" s="129"/>
       <c r="P89" s="100"/>
-      <c r="Q89" s="128"/>
-      <c r="R89" s="129"/>
+      <c r="Q89" s="117"/>
+      <c r="R89" s="118"/>
       <c r="S89" s="7"/>
     </row>
-    <row r="90" spans="2:20" s="2" customFormat="1" ht="52.8" x14ac:dyDescent="0.45">
+    <row r="90" spans="2:20" s="2" customFormat="1" ht="56" x14ac:dyDescent="0.55000000000000004">
       <c r="B90" s="97">
         <v>8</v>
       </c>
       <c r="C90" s="97" t="s">
         <v>86</v>
       </c>
-      <c r="D90" s="137" t="s">
+      <c r="D90" s="126" t="s">
         <v>573</v>
       </c>
       <c r="E90" s="97" t="s">
@@ -12363,50 +12849,50 @@
       <c r="F90" s="99" t="s">
         <v>425</v>
       </c>
-      <c r="G90" s="125" t="s">
+      <c r="G90" s="114" t="s">
         <v>358</v>
       </c>
-      <c r="H90" s="125" t="s">
+      <c r="H90" s="114" t="s">
         <v>470</v>
       </c>
-      <c r="I90" s="125" t="s">
+      <c r="I90" s="114" t="s">
         <v>297</v>
       </c>
-      <c r="J90" s="125" t="s">
+      <c r="J90" s="114" t="s">
         <v>357</v>
       </c>
-      <c r="K90" s="125" t="s">
+      <c r="K90" s="114" t="s">
         <v>358</v>
       </c>
-      <c r="L90" s="125" t="s">
+      <c r="L90" s="114" t="s">
         <v>66</v>
       </c>
-      <c r="M90" s="125" t="s">
+      <c r="M90" s="114" t="s">
         <v>34</v>
       </c>
-      <c r="N90" s="125" t="s">
+      <c r="N90" s="114" t="s">
         <v>485</v>
       </c>
-      <c r="O90" s="125" t="s">
+      <c r="O90" s="114" t="s">
         <v>486</v>
       </c>
       <c r="P90" s="99" t="s">
         <v>487</v>
       </c>
-      <c r="Q90" s="126" t="s">
+      <c r="Q90" s="115" t="s">
         <v>488</v>
       </c>
-      <c r="R90" s="127" t="s">
+      <c r="R90" s="116" t="s">
         <v>489</v>
       </c>
       <c r="S90" s="6" t="s">
         <v>490</v>
       </c>
-      <c r="T90" s="139" t="s">
+      <c r="T90" s="128" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="91" spans="2:20" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.45">
+    <row r="91" spans="2:20" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.55000000000000004">
       <c r="B91" s="97"/>
       <c r="C91" s="97"/>
       <c r="D91" s="11"/>
@@ -12416,44 +12902,44 @@
       <c r="F91" s="99" t="s">
         <v>466</v>
       </c>
-      <c r="G91" s="125" t="s">
+      <c r="G91" s="114" t="s">
         <v>493</v>
       </c>
-      <c r="H91" s="125" t="s">
+      <c r="H91" s="114" t="s">
         <v>494</v>
       </c>
-      <c r="I91" s="125" t="s">
+      <c r="I91" s="114" t="s">
         <v>461</v>
       </c>
-      <c r="J91" s="125" t="s">
+      <c r="J91" s="114" t="s">
         <v>495</v>
       </c>
-      <c r="K91" s="125" t="s">
+      <c r="K91" s="114" t="s">
         <v>355</v>
       </c>
-      <c r="L91" s="125" t="s">
+      <c r="L91" s="114" t="s">
         <v>496</v>
       </c>
-      <c r="M91" s="125" t="s">
+      <c r="M91" s="114" t="s">
         <v>486</v>
       </c>
-      <c r="N91" s="125" t="s">
+      <c r="N91" s="114" t="s">
         <v>497</v>
       </c>
-      <c r="O91" s="125"/>
+      <c r="O91" s="114"/>
       <c r="P91" s="99"/>
-      <c r="Q91" s="126" t="s">
+      <c r="Q91" s="115" t="s">
         <v>498</v>
       </c>
-      <c r="R91" s="127" t="s">
+      <c r="R91" s="116" t="s">
         <v>499</v>
       </c>
       <c r="S91" s="6"/>
-      <c r="T91" s="139" t="s">
+      <c r="T91" s="128" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="92" spans="2:20" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.45">
+    <row r="92" spans="2:20" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B92" s="97"/>
       <c r="C92" s="97"/>
       <c r="D92" s="11"/>
@@ -12463,78 +12949,78 @@
       <c r="F92" s="99" t="s">
         <v>502</v>
       </c>
-      <c r="G92" s="125"/>
-      <c r="H92" s="125"/>
-      <c r="I92" s="125"/>
+      <c r="G92" s="114"/>
+      <c r="H92" s="114"/>
+      <c r="I92" s="114"/>
       <c r="J92" s="99"/>
-      <c r="K92" s="125"/>
-      <c r="L92" s="125" t="s">
+      <c r="K92" s="114"/>
+      <c r="L92" s="114" t="s">
         <v>503</v>
       </c>
-      <c r="M92" s="125"/>
-      <c r="N92" s="125"/>
-      <c r="O92" s="125"/>
+      <c r="M92" s="114"/>
+      <c r="N92" s="114"/>
+      <c r="O92" s="114"/>
       <c r="P92" s="99"/>
-      <c r="Q92" s="126"/>
-      <c r="R92" s="127"/>
+      <c r="Q92" s="115"/>
+      <c r="R92" s="116"/>
       <c r="S92" s="6"/>
-      <c r="T92" s="139" t="s">
+      <c r="T92" s="128" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="93" spans="2:20" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.45">
+    <row r="93" spans="2:20" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B93" s="97"/>
       <c r="C93" s="97"/>
       <c r="D93" s="11"/>
       <c r="E93" s="97"/>
       <c r="F93" s="99"/>
-      <c r="G93" s="125"/>
-      <c r="H93" s="125"/>
-      <c r="I93" s="125"/>
-      <c r="J93" s="125"/>
-      <c r="K93" s="125"/>
-      <c r="L93" s="125" t="s">
+      <c r="G93" s="114"/>
+      <c r="H93" s="114"/>
+      <c r="I93" s="114"/>
+      <c r="J93" s="114"/>
+      <c r="K93" s="114"/>
+      <c r="L93" s="114" t="s">
         <v>505</v>
       </c>
-      <c r="M93" s="125"/>
-      <c r="N93" s="125"/>
-      <c r="O93" s="125"/>
+      <c r="M93" s="114"/>
+      <c r="N93" s="114"/>
+      <c r="O93" s="114"/>
       <c r="P93" s="99"/>
-      <c r="Q93" s="126"/>
-      <c r="R93" s="127"/>
+      <c r="Q93" s="115"/>
+      <c r="R93" s="116"/>
       <c r="S93" s="6"/>
-      <c r="T93" s="139" t="s">
+      <c r="T93" s="128" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="94" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B94" s="98"/>
       <c r="C94" s="98"/>
       <c r="D94" s="14"/>
       <c r="E94" s="98"/>
       <c r="F94" s="100"/>
-      <c r="G94" s="140"/>
-      <c r="H94" s="140"/>
-      <c r="I94" s="140"/>
-      <c r="J94" s="140"/>
-      <c r="K94" s="140"/>
-      <c r="L94" s="140"/>
-      <c r="M94" s="140"/>
-      <c r="N94" s="140"/>
-      <c r="O94" s="140"/>
+      <c r="G94" s="129"/>
+      <c r="H94" s="129"/>
+      <c r="I94" s="129"/>
+      <c r="J94" s="129"/>
+      <c r="K94" s="129"/>
+      <c r="L94" s="129"/>
+      <c r="M94" s="129"/>
+      <c r="N94" s="129"/>
+      <c r="O94" s="129"/>
       <c r="P94" s="100"/>
-      <c r="Q94" s="128"/>
-      <c r="R94" s="129"/>
+      <c r="Q94" s="117"/>
+      <c r="R94" s="118"/>
       <c r="S94" s="7"/>
     </row>
-    <row r="95" spans="2:20" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.45">
+    <row r="95" spans="2:20" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.55000000000000004">
       <c r="B95" s="97">
         <v>13</v>
       </c>
       <c r="C95" s="97" t="s">
         <v>507</v>
       </c>
-      <c r="D95" s="137" t="s">
+      <c r="D95" s="126" t="s">
         <v>573</v>
       </c>
       <c r="E95" s="97" t="s">
@@ -12543,48 +13029,48 @@
       <c r="F95" s="99" t="s">
         <v>509</v>
       </c>
-      <c r="G95" s="125" t="s">
+      <c r="G95" s="114" t="s">
         <v>510</v>
       </c>
-      <c r="H95" s="125" t="s">
+      <c r="H95" s="114" t="s">
         <v>511</v>
       </c>
-      <c r="I95" s="125" t="s">
+      <c r="I95" s="114" t="s">
         <v>461</v>
       </c>
-      <c r="J95" s="125" t="s">
+      <c r="J95" s="114" t="s">
         <v>512</v>
       </c>
-      <c r="K95" s="125" t="s">
+      <c r="K95" s="114" t="s">
         <v>358</v>
       </c>
-      <c r="L95" s="125" t="s">
+      <c r="L95" s="114" t="s">
         <v>511</v>
       </c>
-      <c r="M95" s="125" t="s">
+      <c r="M95" s="114" t="s">
         <v>34</v>
       </c>
-      <c r="N95" s="125" t="s">
+      <c r="N95" s="114" t="s">
         <v>485</v>
       </c>
-      <c r="O95" s="125" t="s">
+      <c r="O95" s="114" t="s">
         <v>486</v>
       </c>
       <c r="P95" s="99" t="s">
         <v>466</v>
       </c>
-      <c r="Q95" s="126" t="s">
+      <c r="Q95" s="115" t="s">
         <v>513</v>
       </c>
-      <c r="R95" s="127" t="s">
+      <c r="R95" s="116" t="s">
         <v>514</v>
       </c>
       <c r="S95" s="6"/>
-      <c r="T95" s="139" t="s">
+      <c r="T95" s="128" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="96" spans="2:20" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.45">
+    <row r="96" spans="2:20" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.55000000000000004">
       <c r="B96" s="97"/>
       <c r="C96" s="97"/>
       <c r="D96" s="11"/>
@@ -12594,135 +13080,135 @@
       <c r="F96" s="99" t="s">
         <v>517</v>
       </c>
-      <c r="G96" s="125" t="s">
+      <c r="G96" s="114" t="s">
         <v>358</v>
       </c>
-      <c r="H96" s="125" t="s">
+      <c r="H96" s="114" t="s">
         <v>518</v>
       </c>
-      <c r="I96" s="125" t="s">
+      <c r="I96" s="114" t="s">
         <v>297</v>
       </c>
-      <c r="J96" s="125" t="s">
+      <c r="J96" s="114" t="s">
         <v>519</v>
       </c>
-      <c r="K96" s="125" t="s">
+      <c r="K96" s="114" t="s">
         <v>358</v>
       </c>
-      <c r="L96" s="125" t="s">
+      <c r="L96" s="114" t="s">
         <v>518</v>
       </c>
-      <c r="M96" s="125" t="s">
+      <c r="M96" s="114" t="s">
         <v>520</v>
       </c>
-      <c r="N96" s="125" t="s">
+      <c r="N96" s="114" t="s">
         <v>521</v>
       </c>
-      <c r="O96" s="125"/>
+      <c r="O96" s="114"/>
       <c r="P96" s="99" t="s">
         <v>522</v>
       </c>
-      <c r="Q96" s="126" t="s">
+      <c r="Q96" s="115" t="s">
         <v>523</v>
       </c>
-      <c r="R96" s="127" t="s">
+      <c r="R96" s="116" t="s">
         <v>524</v>
       </c>
       <c r="S96" s="6"/>
-      <c r="T96" s="139" t="s">
+      <c r="T96" s="128" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="97" spans="2:20" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.45">
+    <row r="97" spans="2:20" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B97" s="97"/>
       <c r="C97" s="97"/>
       <c r="D97" s="11"/>
       <c r="E97" s="97"/>
       <c r="F97" s="99"/>
-      <c r="G97" s="125"/>
-      <c r="H97" s="125"/>
-      <c r="I97" s="125" t="s">
+      <c r="G97" s="114"/>
+      <c r="H97" s="114"/>
+      <c r="I97" s="114" t="s">
         <v>294</v>
       </c>
-      <c r="J97" s="125" t="s">
+      <c r="J97" s="114" t="s">
         <v>526</v>
       </c>
-      <c r="K97" s="125"/>
-      <c r="L97" s="125"/>
-      <c r="M97" s="125" t="s">
+      <c r="K97" s="114"/>
+      <c r="L97" s="114"/>
+      <c r="M97" s="114" t="s">
         <v>527</v>
       </c>
-      <c r="N97" s="125" t="s">
+      <c r="N97" s="114" t="s">
         <v>528</v>
       </c>
-      <c r="O97" s="125"/>
+      <c r="O97" s="114"/>
       <c r="P97" s="99"/>
-      <c r="Q97" s="126" t="s">
+      <c r="Q97" s="115" t="s">
         <v>529</v>
       </c>
-      <c r="R97" s="127" t="s">
+      <c r="R97" s="116" t="s">
         <v>530</v>
       </c>
       <c r="S97" s="6"/>
-      <c r="T97" s="139" t="s">
+      <c r="T97" s="128" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="98" spans="2:20" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.45">
+    <row r="98" spans="2:20" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.55000000000000004">
       <c r="B98" s="97"/>
       <c r="C98" s="97"/>
       <c r="D98" s="11"/>
       <c r="E98" s="97"/>
       <c r="F98" s="99"/>
-      <c r="G98" s="125"/>
-      <c r="H98" s="125"/>
+      <c r="G98" s="114"/>
+      <c r="H98" s="114"/>
       <c r="I98" s="99"/>
       <c r="J98" s="99"/>
-      <c r="K98" s="125"/>
-      <c r="L98" s="125"/>
-      <c r="M98" s="125" t="s">
+      <c r="K98" s="114"/>
+      <c r="L98" s="114"/>
+      <c r="M98" s="114" t="s">
         <v>532</v>
       </c>
-      <c r="N98" s="125" t="s">
+      <c r="N98" s="114" t="s">
         <v>533</v>
       </c>
-      <c r="O98" s="125"/>
+      <c r="O98" s="114"/>
       <c r="P98" s="99"/>
-      <c r="Q98" s="126"/>
-      <c r="R98" s="127"/>
+      <c r="Q98" s="115"/>
+      <c r="R98" s="116"/>
       <c r="S98" s="6"/>
-      <c r="T98" s="139" t="s">
+      <c r="T98" s="128" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="99" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B99" s="98"/>
       <c r="C99" s="98"/>
       <c r="D99" s="14"/>
       <c r="E99" s="98"/>
       <c r="F99" s="100"/>
-      <c r="G99" s="140"/>
-      <c r="H99" s="140"/>
-      <c r="I99" s="140"/>
-      <c r="J99" s="140"/>
-      <c r="K99" s="140"/>
-      <c r="L99" s="140"/>
-      <c r="M99" s="140"/>
-      <c r="N99" s="140"/>
-      <c r="O99" s="140"/>
+      <c r="G99" s="129"/>
+      <c r="H99" s="129"/>
+      <c r="I99" s="129"/>
+      <c r="J99" s="129"/>
+      <c r="K99" s="129"/>
+      <c r="L99" s="129"/>
+      <c r="M99" s="129"/>
+      <c r="N99" s="129"/>
+      <c r="O99" s="129"/>
       <c r="P99" s="100"/>
-      <c r="Q99" s="128"/>
-      <c r="R99" s="129"/>
+      <c r="Q99" s="117"/>
+      <c r="R99" s="118"/>
       <c r="S99" s="7"/>
     </row>
-    <row r="100" spans="2:20" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.45">
+    <row r="100" spans="2:20" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.55000000000000004">
       <c r="B100" s="97">
         <v>17</v>
       </c>
       <c r="C100" s="97" t="s">
         <v>185</v>
       </c>
-      <c r="D100" s="137" t="s">
+      <c r="D100" s="126" t="s">
         <v>573</v>
       </c>
       <c r="E100" s="97" t="s">
@@ -12731,169 +13217,169 @@
       <c r="F100" s="99" t="s">
         <v>536</v>
       </c>
-      <c r="G100" s="125" t="s">
+      <c r="G100" s="114" t="s">
         <v>537</v>
       </c>
-      <c r="H100" s="125" t="s">
+      <c r="H100" s="114" t="s">
         <v>538</v>
       </c>
-      <c r="I100" s="125" t="s">
+      <c r="I100" s="114" t="s">
         <v>461</v>
       </c>
-      <c r="J100" s="125" t="s">
+      <c r="J100" s="114" t="s">
         <v>270</v>
       </c>
-      <c r="K100" s="125" t="s">
+      <c r="K100" s="114" t="s">
         <v>539</v>
       </c>
-      <c r="L100" s="125" t="s">
+      <c r="L100" s="114" t="s">
         <v>270</v>
       </c>
-      <c r="M100" s="125" t="s">
+      <c r="M100" s="114" t="s">
         <v>34</v>
       </c>
-      <c r="N100" s="125" t="s">
+      <c r="N100" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="O100" s="125" t="s">
+      <c r="O100" s="114" t="s">
         <v>540</v>
       </c>
-      <c r="P100" s="125" t="s">
+      <c r="P100" s="114" t="s">
         <v>270</v>
       </c>
-      <c r="Q100" s="126" t="s">
+      <c r="Q100" s="115" t="s">
         <v>541</v>
       </c>
-      <c r="R100" s="127" t="s">
+      <c r="R100" s="116" t="s">
         <v>542</v>
       </c>
       <c r="S100" s="6"/>
-      <c r="T100" s="139" t="s">
+      <c r="T100" s="128" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="101" spans="2:20" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.45">
+    <row r="101" spans="2:20" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.55000000000000004">
       <c r="B101" s="97"/>
       <c r="C101" s="97"/>
       <c r="D101" s="11"/>
       <c r="E101" s="97"/>
       <c r="F101" s="99"/>
-      <c r="G101" s="125" t="s">
+      <c r="G101" s="114" t="s">
         <v>543</v>
       </c>
-      <c r="H101" s="125" t="s">
+      <c r="H101" s="114" t="s">
         <v>538</v>
       </c>
-      <c r="I101" s="125" t="s">
+      <c r="I101" s="114" t="s">
         <v>544</v>
       </c>
-      <c r="J101" s="125" t="s">
+      <c r="J101" s="114" t="s">
         <v>545</v>
       </c>
-      <c r="K101" s="125"/>
-      <c r="L101" s="125"/>
-      <c r="M101" s="125" t="s">
+      <c r="K101" s="114"/>
+      <c r="L101" s="114"/>
+      <c r="M101" s="114" t="s">
         <v>546</v>
       </c>
-      <c r="N101" s="125" t="s">
+      <c r="N101" s="114" t="s">
         <v>547</v>
       </c>
-      <c r="O101" s="125" t="s">
+      <c r="O101" s="114" t="s">
         <v>548</v>
       </c>
-      <c r="P101" s="141" t="s">
+      <c r="P101" s="130" t="s">
         <v>549</v>
       </c>
-      <c r="Q101" s="126" t="s">
+      <c r="Q101" s="115" t="s">
         <v>550</v>
       </c>
-      <c r="R101" s="127" t="s">
+      <c r="R101" s="116" t="s">
         <v>551</v>
       </c>
       <c r="S101" s="6"/>
-      <c r="T101" s="139" t="s">
+      <c r="T101" s="128" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="102" spans="2:20" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.45">
+    <row r="102" spans="2:20" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B102" s="97"/>
       <c r="C102" s="97"/>
       <c r="D102" s="11"/>
       <c r="E102" s="97"/>
       <c r="F102" s="99"/>
-      <c r="G102" s="125" t="s">
+      <c r="G102" s="114" t="s">
         <v>553</v>
       </c>
-      <c r="H102" s="125" t="s">
+      <c r="H102" s="114" t="s">
         <v>554</v>
       </c>
-      <c r="I102" s="125" t="s">
+      <c r="I102" s="114" t="s">
         <v>555</v>
       </c>
-      <c r="J102" s="125" t="s">
+      <c r="J102" s="114" t="s">
         <v>270</v>
       </c>
-      <c r="K102" s="125"/>
-      <c r="L102" s="125"/>
-      <c r="M102" s="125"/>
-      <c r="N102" s="125"/>
-      <c r="O102" s="125"/>
+      <c r="K102" s="114"/>
+      <c r="L102" s="114"/>
+      <c r="M102" s="114"/>
+      <c r="N102" s="114"/>
+      <c r="O102" s="114"/>
       <c r="P102" s="99"/>
-      <c r="Q102" s="126"/>
-      <c r="R102" s="127"/>
+      <c r="Q102" s="115"/>
+      <c r="R102" s="116"/>
       <c r="S102" s="6"/>
-      <c r="T102" s="139" t="s">
+      <c r="T102" s="128" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="103" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B103" s="97"/>
       <c r="C103" s="97"/>
       <c r="D103" s="11"/>
       <c r="E103" s="97"/>
       <c r="F103" s="99"/>
-      <c r="G103" s="125"/>
-      <c r="H103" s="125"/>
-      <c r="I103" s="125"/>
-      <c r="J103" s="125"/>
-      <c r="K103" s="125"/>
-      <c r="L103" s="125"/>
-      <c r="M103" s="125"/>
-      <c r="N103" s="125"/>
-      <c r="O103" s="125"/>
+      <c r="G103" s="114"/>
+      <c r="H103" s="114"/>
+      <c r="I103" s="114"/>
+      <c r="J103" s="114"/>
+      <c r="K103" s="114"/>
+      <c r="L103" s="114"/>
+      <c r="M103" s="114"/>
+      <c r="N103" s="114"/>
+      <c r="O103" s="114"/>
       <c r="P103" s="99"/>
-      <c r="Q103" s="126"/>
-      <c r="R103" s="127"/>
+      <c r="Q103" s="115"/>
+      <c r="R103" s="116"/>
       <c r="S103" s="6"/>
     </row>
-    <row r="104" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B104" s="98"/>
       <c r="C104" s="98"/>
       <c r="D104" s="14"/>
       <c r="E104" s="98"/>
       <c r="F104" s="100"/>
-      <c r="G104" s="140"/>
-      <c r="H104" s="140"/>
-      <c r="I104" s="140"/>
-      <c r="J104" s="140"/>
-      <c r="K104" s="140"/>
-      <c r="L104" s="140"/>
-      <c r="M104" s="140"/>
-      <c r="N104" s="140"/>
-      <c r="O104" s="140"/>
+      <c r="G104" s="129"/>
+      <c r="H104" s="129"/>
+      <c r="I104" s="129"/>
+      <c r="J104" s="129"/>
+      <c r="K104" s="129"/>
+      <c r="L104" s="129"/>
+      <c r="M104" s="129"/>
+      <c r="N104" s="129"/>
+      <c r="O104" s="129"/>
       <c r="P104" s="100"/>
-      <c r="Q104" s="128"/>
-      <c r="R104" s="129"/>
+      <c r="Q104" s="117"/>
+      <c r="R104" s="118"/>
       <c r="S104" s="7"/>
     </row>
-    <row r="105" spans="2:20" s="2" customFormat="1" ht="66" x14ac:dyDescent="0.45">
+    <row r="105" spans="2:20" s="2" customFormat="1" ht="70" x14ac:dyDescent="0.55000000000000004">
       <c r="B105" s="97">
         <v>21</v>
       </c>
       <c r="C105" s="97" t="s">
         <v>557</v>
       </c>
-      <c r="D105" s="137" t="s">
+      <c r="D105" s="126" t="s">
         <v>573</v>
       </c>
       <c r="E105" s="97" t="s">
@@ -12902,135 +13388,812 @@
       <c r="F105" s="99" t="s">
         <v>559</v>
       </c>
-      <c r="G105" s="125" t="s">
+      <c r="G105" s="114" t="s">
         <v>560</v>
       </c>
-      <c r="H105" s="125" t="s">
+      <c r="H105" s="114" t="s">
         <v>561</v>
       </c>
-      <c r="I105" s="125" t="s">
+      <c r="I105" s="114" t="s">
         <v>461</v>
       </c>
-      <c r="J105" s="125" t="s">
+      <c r="J105" s="114" t="s">
         <v>270</v>
       </c>
-      <c r="K105" s="125" t="s">
+      <c r="K105" s="114" t="s">
         <v>562</v>
       </c>
-      <c r="L105" s="125" t="s">
+      <c r="L105" s="114" t="s">
         <v>563</v>
       </c>
-      <c r="M105" s="125" t="s">
+      <c r="M105" s="114" t="s">
         <v>564</v>
       </c>
-      <c r="N105" s="125" t="s">
+      <c r="N105" s="114" t="s">
         <v>565</v>
       </c>
-      <c r="O105" s="125"/>
+      <c r="O105" s="114"/>
       <c r="P105" s="99"/>
-      <c r="Q105" s="126" t="s">
+      <c r="Q105" s="115" t="s">
         <v>566</v>
       </c>
-      <c r="R105" s="127" t="s">
+      <c r="R105" s="116" t="s">
         <v>567</v>
       </c>
       <c r="S105" s="6"/>
-      <c r="T105" s="139" t="s">
+      <c r="T105" s="128" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="106" spans="2:20" s="2" customFormat="1" ht="39.6" x14ac:dyDescent="0.45">
+    <row r="106" spans="2:20" s="2" customFormat="1" ht="42" x14ac:dyDescent="0.55000000000000004">
       <c r="B106" s="97"/>
       <c r="C106" s="97"/>
       <c r="D106" s="11"/>
       <c r="E106" s="97"/>
       <c r="F106" s="99"/>
-      <c r="G106" s="125"/>
-      <c r="H106" s="125"/>
-      <c r="I106" s="125"/>
-      <c r="J106" s="125" t="s">
+      <c r="G106" s="114"/>
+      <c r="H106" s="114"/>
+      <c r="I106" s="114"/>
+      <c r="J106" s="114" t="s">
         <v>569</v>
       </c>
-      <c r="K106" s="125"/>
-      <c r="L106" s="125"/>
-      <c r="M106" s="125" t="s">
+      <c r="K106" s="114"/>
+      <c r="L106" s="114"/>
+      <c r="M106" s="114" t="s">
         <v>34</v>
       </c>
-      <c r="N106" s="125" t="s">
+      <c r="N106" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="O106" s="125"/>
+      <c r="O106" s="114"/>
       <c r="P106" s="99"/>
-      <c r="Q106" s="126" t="s">
+      <c r="Q106" s="115" t="s">
         <v>570</v>
       </c>
-      <c r="R106" s="127"/>
+      <c r="R106" s="116"/>
       <c r="S106" s="6"/>
-      <c r="T106" s="139" t="s">
+      <c r="T106" s="128" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="107" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B107" s="97"/>
       <c r="C107" s="97"/>
       <c r="D107" s="11"/>
       <c r="E107" s="97"/>
       <c r="F107" s="99"/>
-      <c r="G107" s="125"/>
-      <c r="H107" s="125"/>
-      <c r="I107" s="125"/>
-      <c r="J107" s="125"/>
-      <c r="K107" s="125"/>
-      <c r="L107" s="125"/>
-      <c r="M107" s="125"/>
-      <c r="N107" s="125"/>
-      <c r="O107" s="125"/>
+      <c r="G107" s="114"/>
+      <c r="H107" s="114"/>
+      <c r="I107" s="114"/>
+      <c r="J107" s="114"/>
+      <c r="K107" s="114"/>
+      <c r="L107" s="114"/>
+      <c r="M107" s="114"/>
+      <c r="N107" s="114"/>
+      <c r="O107" s="114"/>
       <c r="P107" s="99"/>
-      <c r="Q107" s="126" t="s">
+      <c r="Q107" s="115" t="s">
         <v>572</v>
       </c>
-      <c r="R107" s="127"/>
+      <c r="R107" s="116"/>
       <c r="S107" s="6"/>
     </row>
-    <row r="108" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B108" s="97"/>
       <c r="C108" s="97"/>
       <c r="D108" s="11"/>
       <c r="E108" s="97"/>
       <c r="F108" s="99"/>
-      <c r="G108" s="125"/>
-      <c r="H108" s="125"/>
-      <c r="I108" s="125"/>
-      <c r="J108" s="125"/>
-      <c r="K108" s="125"/>
-      <c r="L108" s="125"/>
-      <c r="M108" s="125"/>
-      <c r="N108" s="125"/>
-      <c r="O108" s="125"/>
+      <c r="G108" s="114"/>
+      <c r="H108" s="114"/>
+      <c r="I108" s="114"/>
+      <c r="J108" s="114"/>
+      <c r="K108" s="114"/>
+      <c r="L108" s="114"/>
+      <c r="M108" s="114"/>
+      <c r="N108" s="114"/>
+      <c r="O108" s="114"/>
       <c r="P108" s="99"/>
-      <c r="Q108" s="126"/>
-      <c r="R108" s="127"/>
+      <c r="Q108" s="115"/>
+      <c r="R108" s="116"/>
       <c r="S108" s="6"/>
     </row>
-    <row r="109" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B109" s="98"/>
       <c r="C109" s="98"/>
       <c r="D109" s="14"/>
       <c r="E109" s="98"/>
       <c r="F109" s="100"/>
-      <c r="G109" s="140"/>
-      <c r="H109" s="140"/>
-      <c r="I109" s="140"/>
-      <c r="J109" s="140"/>
-      <c r="K109" s="140"/>
-      <c r="L109" s="140"/>
-      <c r="M109" s="140"/>
-      <c r="N109" s="140"/>
-      <c r="O109" s="140"/>
+      <c r="G109" s="129"/>
+      <c r="H109" s="129"/>
+      <c r="I109" s="129"/>
+      <c r="J109" s="129"/>
+      <c r="K109" s="129"/>
+      <c r="L109" s="129"/>
+      <c r="M109" s="129"/>
+      <c r="N109" s="129"/>
+      <c r="O109" s="129"/>
       <c r="P109" s="100"/>
-      <c r="Q109" s="128"/>
-      <c r="R109" s="129"/>
+      <c r="Q109" s="117"/>
+      <c r="R109" s="118"/>
       <c r="S109" s="7"/>
+    </row>
+    <row r="110" spans="2:20" ht="28" x14ac:dyDescent="0.55000000000000004">
+      <c r="B110" s="28">
+        <v>2</v>
+      </c>
+      <c r="C110" s="28" t="s">
+        <v>574</v>
+      </c>
+      <c r="D110" s="126" t="s">
+        <v>196</v>
+      </c>
+      <c r="E110" s="28"/>
+      <c r="F110" s="17" t="s">
+        <v>575</v>
+      </c>
+      <c r="G110" s="32"/>
+      <c r="H110" s="32"/>
+      <c r="I110" s="32"/>
+      <c r="J110" s="145" t="s">
+        <v>576</v>
+      </c>
+      <c r="K110" s="32" t="s">
+        <v>577</v>
+      </c>
+      <c r="L110" s="145" t="s">
+        <v>576</v>
+      </c>
+      <c r="M110" s="32"/>
+      <c r="N110" s="32"/>
+      <c r="O110" s="32"/>
+      <c r="Q110" s="89" t="s">
+        <v>578</v>
+      </c>
+      <c r="R110" s="95"/>
+      <c r="S110" s="29"/>
+    </row>
+    <row r="111" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="B111" s="28"/>
+      <c r="C111" s="28"/>
+      <c r="D111" s="11"/>
+      <c r="E111" s="28"/>
+      <c r="F111" s="17" t="s">
+        <v>579</v>
+      </c>
+      <c r="G111" s="32"/>
+      <c r="H111" s="32"/>
+      <c r="I111" s="32"/>
+      <c r="J111" s="32"/>
+      <c r="K111" s="32"/>
+      <c r="L111" s="32"/>
+      <c r="M111" s="32"/>
+      <c r="N111" s="32"/>
+      <c r="O111" s="32"/>
+      <c r="Q111" s="89"/>
+      <c r="R111" s="95"/>
+      <c r="S111" s="29"/>
+    </row>
+    <row r="112" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="B112" s="28"/>
+      <c r="C112" s="28"/>
+      <c r="D112" s="11"/>
+      <c r="E112" s="28"/>
+      <c r="F112" s="17" t="s">
+        <v>580</v>
+      </c>
+      <c r="G112" s="32"/>
+      <c r="H112" s="32"/>
+      <c r="I112" s="32"/>
+      <c r="J112" s="32"/>
+      <c r="K112" s="32"/>
+      <c r="L112" s="32"/>
+      <c r="M112" s="32"/>
+      <c r="N112" s="32"/>
+      <c r="O112" s="32"/>
+      <c r="Q112" s="89"/>
+      <c r="R112" s="95"/>
+      <c r="S112" s="29"/>
+    </row>
+    <row r="113" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B113" s="28"/>
+      <c r="C113" s="28"/>
+      <c r="D113" s="11"/>
+      <c r="E113" s="28"/>
+      <c r="F113" s="17" t="s">
+        <v>581</v>
+      </c>
+      <c r="G113" s="32"/>
+      <c r="H113" s="32"/>
+      <c r="I113" s="32"/>
+      <c r="J113" s="32"/>
+      <c r="K113" s="32"/>
+      <c r="L113" s="32"/>
+      <c r="M113" s="32"/>
+      <c r="N113" s="32"/>
+      <c r="O113" s="32"/>
+      <c r="Q113" s="89"/>
+      <c r="R113" s="95"/>
+      <c r="S113" s="29"/>
+    </row>
+    <row r="114" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B114" s="30"/>
+      <c r="C114" s="30"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="30"/>
+      <c r="F114" s="27"/>
+      <c r="G114" s="33"/>
+      <c r="H114" s="33"/>
+      <c r="I114" s="33"/>
+      <c r="J114" s="33"/>
+      <c r="K114" s="33"/>
+      <c r="L114" s="33"/>
+      <c r="M114" s="33"/>
+      <c r="N114" s="33"/>
+      <c r="O114" s="33"/>
+      <c r="P114" s="27"/>
+      <c r="Q114" s="90"/>
+      <c r="R114" s="96"/>
+      <c r="S114" s="31"/>
+    </row>
+    <row r="115" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B115" s="28">
+        <v>7</v>
+      </c>
+      <c r="C115" s="28" t="s">
+        <v>582</v>
+      </c>
+      <c r="D115" s="126" t="s">
+        <v>196</v>
+      </c>
+      <c r="E115" s="28" t="s">
+        <v>583</v>
+      </c>
+      <c r="F115" s="17" t="s">
+        <v>584</v>
+      </c>
+      <c r="G115" s="32" t="s">
+        <v>358</v>
+      </c>
+      <c r="H115" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="I115" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="J115" s="35" t="s">
+        <v>241</v>
+      </c>
+      <c r="K115" s="32"/>
+      <c r="L115" s="32" t="s">
+        <v>359</v>
+      </c>
+      <c r="M115" s="32" t="s">
+        <v>361</v>
+      </c>
+      <c r="N115" s="32" t="s">
+        <v>585</v>
+      </c>
+      <c r="O115" s="32"/>
+      <c r="Q115" s="89" t="s">
+        <v>586</v>
+      </c>
+      <c r="R115" s="95" t="s">
+        <v>587</v>
+      </c>
+      <c r="S115" s="29"/>
+    </row>
+    <row r="116" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B116" s="28"/>
+      <c r="C116" s="28"/>
+      <c r="D116" s="11"/>
+      <c r="E116" s="146"/>
+      <c r="G116" s="32"/>
+      <c r="H116" s="32" t="s">
+        <v>588</v>
+      </c>
+      <c r="I116" s="32"/>
+      <c r="J116" s="32" t="s">
+        <v>270</v>
+      </c>
+      <c r="K116" s="32"/>
+      <c r="L116" s="32" t="s">
+        <v>589</v>
+      </c>
+      <c r="M116" s="32"/>
+      <c r="N116" s="32"/>
+      <c r="O116" s="32"/>
+      <c r="Q116" s="89"/>
+      <c r="R116" s="95"/>
+      <c r="S116" s="29"/>
+    </row>
+    <row r="117" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B117" s="28"/>
+      <c r="C117" s="28"/>
+      <c r="D117" s="11"/>
+      <c r="E117" s="28"/>
+      <c r="G117" s="32"/>
+      <c r="H117" s="32"/>
+      <c r="I117" s="32"/>
+      <c r="J117" s="32"/>
+      <c r="K117" s="32"/>
+      <c r="L117" s="32"/>
+      <c r="M117" s="32"/>
+      <c r="N117" s="32"/>
+      <c r="O117" s="32"/>
+      <c r="Q117" s="89"/>
+      <c r="R117" s="95"/>
+      <c r="S117" s="29"/>
+    </row>
+    <row r="118" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B118" s="28"/>
+      <c r="C118" s="28"/>
+      <c r="D118" s="11"/>
+      <c r="E118" s="28"/>
+      <c r="G118" s="32"/>
+      <c r="H118" s="32"/>
+      <c r="I118" s="32"/>
+      <c r="J118" s="32"/>
+      <c r="K118" s="32"/>
+      <c r="L118" s="32"/>
+      <c r="M118" s="32"/>
+      <c r="N118" s="32"/>
+      <c r="O118" s="32"/>
+      <c r="Q118" s="89"/>
+      <c r="R118" s="95"/>
+      <c r="S118" s="29"/>
+    </row>
+    <row r="119" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B119" s="30"/>
+      <c r="C119" s="30"/>
+      <c r="D119" s="14"/>
+      <c r="E119" s="30"/>
+      <c r="F119" s="27"/>
+      <c r="G119" s="33"/>
+      <c r="H119" s="33"/>
+      <c r="I119" s="33"/>
+      <c r="J119" s="33"/>
+      <c r="K119" s="33"/>
+      <c r="L119" s="33"/>
+      <c r="M119" s="33"/>
+      <c r="N119" s="33"/>
+      <c r="O119" s="33"/>
+      <c r="P119" s="27"/>
+      <c r="Q119" s="90"/>
+      <c r="R119" s="96"/>
+      <c r="S119" s="31"/>
+    </row>
+    <row r="120" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B120" s="28">
+        <v>12</v>
+      </c>
+      <c r="C120" s="28" t="s">
+        <v>590</v>
+      </c>
+      <c r="D120" s="126" t="s">
+        <v>214</v>
+      </c>
+      <c r="E120" s="28" t="s">
+        <v>591</v>
+      </c>
+      <c r="F120" s="17" t="s">
+        <v>592</v>
+      </c>
+      <c r="G120" s="32"/>
+      <c r="H120" s="32"/>
+      <c r="I120" s="32" t="s">
+        <v>593</v>
+      </c>
+      <c r="J120" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="K120" s="32"/>
+      <c r="L120" s="32" t="s">
+        <v>594</v>
+      </c>
+      <c r="M120" s="32"/>
+      <c r="N120" s="32" t="s">
+        <v>595</v>
+      </c>
+      <c r="O120" s="32"/>
+      <c r="Q120" s="89"/>
+      <c r="R120" s="95" t="s">
+        <v>596</v>
+      </c>
+      <c r="S120" s="29"/>
+    </row>
+    <row r="121" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B121" s="28"/>
+      <c r="C121" s="28"/>
+      <c r="D121" s="11"/>
+      <c r="E121" s="28"/>
+      <c r="F121" s="17" t="s">
+        <v>532</v>
+      </c>
+      <c r="G121" s="32"/>
+      <c r="H121" s="32"/>
+      <c r="I121" s="32" t="s">
+        <v>597</v>
+      </c>
+      <c r="J121" s="32" t="s">
+        <v>598</v>
+      </c>
+      <c r="K121" s="32"/>
+      <c r="L121" s="32"/>
+      <c r="M121" s="32"/>
+      <c r="N121" s="32" t="s">
+        <v>599</v>
+      </c>
+      <c r="O121" s="32"/>
+      <c r="Q121" s="89"/>
+      <c r="R121" s="95" t="s">
+        <v>600</v>
+      </c>
+      <c r="S121" s="29"/>
+    </row>
+    <row r="122" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B122" s="28"/>
+      <c r="C122" s="28"/>
+      <c r="D122" s="11"/>
+      <c r="E122" s="28"/>
+      <c r="F122" s="17" t="s">
+        <v>601</v>
+      </c>
+      <c r="G122" s="32"/>
+      <c r="H122" s="32"/>
+      <c r="I122" s="32" t="s">
+        <v>602</v>
+      </c>
+      <c r="J122" s="32" t="s">
+        <v>270</v>
+      </c>
+      <c r="K122" s="32"/>
+      <c r="L122" s="32"/>
+      <c r="M122" s="32"/>
+      <c r="N122" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="O122" s="32"/>
+      <c r="Q122" s="89"/>
+      <c r="R122" s="95"/>
+      <c r="S122" s="29"/>
+    </row>
+    <row r="123" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B123" s="28"/>
+      <c r="C123" s="28"/>
+      <c r="D123" s="11"/>
+      <c r="E123" s="28" t="s">
+        <v>603</v>
+      </c>
+      <c r="F123" s="17" t="s">
+        <v>604</v>
+      </c>
+      <c r="G123" s="32"/>
+      <c r="H123" s="32"/>
+      <c r="I123" s="32" t="s">
+        <v>605</v>
+      </c>
+      <c r="J123" s="32" t="s">
+        <v>606</v>
+      </c>
+      <c r="K123" s="32"/>
+      <c r="L123" s="32"/>
+      <c r="M123" s="32"/>
+      <c r="N123" s="32" t="s">
+        <v>585</v>
+      </c>
+      <c r="O123" s="32"/>
+      <c r="Q123" s="89"/>
+      <c r="R123" s="95"/>
+      <c r="S123" s="29"/>
+    </row>
+    <row r="124" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B124" s="28"/>
+      <c r="C124" s="28"/>
+      <c r="D124" s="11"/>
+      <c r="E124" s="28"/>
+      <c r="F124" s="17" t="s">
+        <v>607</v>
+      </c>
+      <c r="G124" s="32"/>
+      <c r="H124" s="32"/>
+      <c r="I124" s="32"/>
+      <c r="J124" s="32"/>
+      <c r="K124" s="32"/>
+      <c r="L124" s="32"/>
+      <c r="M124" s="32"/>
+      <c r="N124" s="32"/>
+      <c r="O124" s="32"/>
+      <c r="Q124" s="89"/>
+      <c r="R124" s="95"/>
+      <c r="S124" s="29"/>
+    </row>
+    <row r="125" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B125" s="28"/>
+      <c r="C125" s="28"/>
+      <c r="D125" s="11"/>
+      <c r="E125" s="28"/>
+      <c r="F125" s="17" t="s">
+        <v>608</v>
+      </c>
+      <c r="G125" s="32"/>
+      <c r="H125" s="32"/>
+      <c r="I125" s="32"/>
+      <c r="J125" s="32"/>
+      <c r="K125" s="32"/>
+      <c r="L125" s="32"/>
+      <c r="M125" s="32"/>
+      <c r="N125" s="32"/>
+      <c r="O125" s="32"/>
+      <c r="Q125" s="89"/>
+      <c r="R125" s="95"/>
+      <c r="S125" s="29"/>
+    </row>
+    <row r="126" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B126" s="28"/>
+      <c r="C126" s="28"/>
+      <c r="D126" s="11"/>
+      <c r="E126" s="28" t="s">
+        <v>609</v>
+      </c>
+      <c r="F126" s="17" t="s">
+        <v>610</v>
+      </c>
+      <c r="G126" s="32"/>
+      <c r="H126" s="32"/>
+      <c r="I126" s="32"/>
+      <c r="J126" s="32"/>
+      <c r="K126" s="32"/>
+      <c r="L126" s="32"/>
+      <c r="M126" s="32"/>
+      <c r="N126" s="32"/>
+      <c r="O126" s="32"/>
+      <c r="Q126" s="89"/>
+      <c r="R126" s="95"/>
+      <c r="S126" s="29"/>
+    </row>
+    <row r="127" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B127" s="30"/>
+      <c r="C127" s="30"/>
+      <c r="D127" s="11"/>
+      <c r="E127" s="30"/>
+      <c r="F127" s="27"/>
+      <c r="G127" s="33"/>
+      <c r="H127" s="33"/>
+      <c r="I127" s="33"/>
+      <c r="J127" s="33"/>
+      <c r="K127" s="33"/>
+      <c r="L127" s="33"/>
+      <c r="M127" s="33"/>
+      <c r="N127" s="33"/>
+      <c r="O127" s="33"/>
+      <c r="P127" s="27"/>
+      <c r="Q127" s="90"/>
+      <c r="R127" s="96"/>
+      <c r="S127" s="31"/>
+    </row>
+    <row r="128" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B128" s="28">
+        <v>16</v>
+      </c>
+      <c r="C128" s="28" t="s">
+        <v>611</v>
+      </c>
+      <c r="D128" s="126" t="s">
+        <v>196</v>
+      </c>
+      <c r="E128" s="28" t="s">
+        <v>612</v>
+      </c>
+      <c r="G128" s="32"/>
+      <c r="H128" s="32" t="s">
+        <v>613</v>
+      </c>
+      <c r="I128" s="32" t="s">
+        <v>614</v>
+      </c>
+      <c r="J128" s="32" t="s">
+        <v>615</v>
+      </c>
+      <c r="K128" s="32"/>
+      <c r="L128" s="32"/>
+      <c r="M128" s="32"/>
+      <c r="N128" s="32" t="s">
+        <v>616</v>
+      </c>
+      <c r="O128" s="32"/>
+      <c r="Q128" s="89"/>
+      <c r="R128" s="95"/>
+      <c r="S128" s="29"/>
+    </row>
+    <row r="129" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B129" s="28"/>
+      <c r="C129" s="28"/>
+      <c r="D129" s="11"/>
+      <c r="E129" s="28" t="s">
+        <v>617</v>
+      </c>
+      <c r="G129" s="32"/>
+      <c r="H129" s="32"/>
+      <c r="I129" s="32"/>
+      <c r="J129" s="32"/>
+      <c r="K129" s="32"/>
+      <c r="L129" s="32"/>
+      <c r="M129" s="32"/>
+      <c r="N129" s="32" t="s">
+        <v>618</v>
+      </c>
+      <c r="O129" s="32"/>
+      <c r="Q129" s="89"/>
+      <c r="R129" s="95"/>
+      <c r="S129" s="29"/>
+    </row>
+    <row r="130" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B130" s="28"/>
+      <c r="C130" s="28"/>
+      <c r="D130" s="11"/>
+      <c r="E130" s="28" t="s">
+        <v>619</v>
+      </c>
+      <c r="G130" s="32"/>
+      <c r="H130" s="32"/>
+      <c r="I130" s="32"/>
+      <c r="J130" s="32"/>
+      <c r="K130" s="32"/>
+      <c r="L130" s="32"/>
+      <c r="M130" s="32"/>
+      <c r="N130" s="32"/>
+      <c r="O130" s="32"/>
+      <c r="Q130" s="89"/>
+      <c r="R130" s="95"/>
+      <c r="S130" s="29"/>
+    </row>
+    <row r="131" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B131" s="28"/>
+      <c r="C131" s="28"/>
+      <c r="D131" s="11"/>
+      <c r="E131" s="28"/>
+      <c r="G131" s="32"/>
+      <c r="H131" s="32"/>
+      <c r="I131" s="32"/>
+      <c r="J131" s="32"/>
+      <c r="K131" s="32"/>
+      <c r="L131" s="32"/>
+      <c r="M131" s="32"/>
+      <c r="N131" s="32"/>
+      <c r="O131" s="32"/>
+      <c r="Q131" s="89"/>
+      <c r="R131" s="95"/>
+      <c r="S131" s="29"/>
+    </row>
+    <row r="132" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B132" s="30"/>
+      <c r="C132" s="30"/>
+      <c r="D132" s="14"/>
+      <c r="E132" s="30"/>
+      <c r="F132" s="27"/>
+      <c r="G132" s="33"/>
+      <c r="H132" s="33"/>
+      <c r="I132" s="33"/>
+      <c r="J132" s="33"/>
+      <c r="K132" s="33"/>
+      <c r="L132" s="33"/>
+      <c r="M132" s="33"/>
+      <c r="N132" s="33"/>
+      <c r="O132" s="33"/>
+      <c r="P132" s="27"/>
+      <c r="Q132" s="90"/>
+      <c r="R132" s="96"/>
+      <c r="S132" s="31"/>
+    </row>
+    <row r="133" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B133" s="28">
+        <v>20</v>
+      </c>
+      <c r="C133" s="28" t="s">
+        <v>620</v>
+      </c>
+      <c r="D133" s="126" t="s">
+        <v>196</v>
+      </c>
+      <c r="E133" s="28" t="s">
+        <v>621</v>
+      </c>
+      <c r="F133" s="17" t="s">
+        <v>622</v>
+      </c>
+      <c r="G133" s="32"/>
+      <c r="H133" s="32"/>
+      <c r="I133" s="32"/>
+      <c r="J133" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="K133" s="32"/>
+      <c r="L133" s="32"/>
+      <c r="M133" s="32"/>
+      <c r="N133" s="32"/>
+      <c r="O133" s="32"/>
+      <c r="Q133" s="89"/>
+      <c r="R133" s="95"/>
+      <c r="S133" s="29"/>
+    </row>
+    <row r="134" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B134" s="28"/>
+      <c r="C134" s="28"/>
+      <c r="D134" s="11"/>
+      <c r="E134" s="28" t="s">
+        <v>623</v>
+      </c>
+      <c r="G134" s="32"/>
+      <c r="H134" s="32"/>
+      <c r="I134" s="32"/>
+      <c r="J134" s="32" t="s">
+        <v>503</v>
+      </c>
+      <c r="K134" s="32"/>
+      <c r="L134" s="32"/>
+      <c r="M134" s="32"/>
+      <c r="N134" s="32"/>
+      <c r="O134" s="32"/>
+      <c r="Q134" s="89"/>
+      <c r="R134" s="95"/>
+      <c r="S134" s="29"/>
+    </row>
+    <row r="135" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B135" s="28"/>
+      <c r="C135" s="28"/>
+      <c r="D135" s="11"/>
+      <c r="E135" s="28"/>
+      <c r="G135" s="32"/>
+      <c r="H135" s="32"/>
+      <c r="I135" s="32"/>
+      <c r="J135" s="32"/>
+      <c r="K135" s="32"/>
+      <c r="L135" s="32"/>
+      <c r="M135" s="32"/>
+      <c r="N135" s="32"/>
+      <c r="O135" s="32"/>
+      <c r="Q135" s="89"/>
+      <c r="R135" s="95"/>
+      <c r="S135" s="29"/>
+    </row>
+    <row r="136" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B136" s="28"/>
+      <c r="C136" s="28"/>
+      <c r="D136" s="11"/>
+      <c r="E136" s="28"/>
+      <c r="G136" s="32"/>
+      <c r="H136" s="32"/>
+      <c r="I136" s="32"/>
+      <c r="J136" s="32"/>
+      <c r="K136" s="32"/>
+      <c r="L136" s="32"/>
+      <c r="M136" s="32"/>
+      <c r="N136" s="32"/>
+      <c r="O136" s="32"/>
+      <c r="Q136" s="89"/>
+      <c r="R136" s="95"/>
+      <c r="S136" s="29"/>
+    </row>
+    <row r="137" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B137" s="30"/>
+      <c r="C137" s="30"/>
+      <c r="D137" s="14"/>
+      <c r="E137" s="30"/>
+      <c r="F137" s="27"/>
+      <c r="G137" s="33"/>
+      <c r="H137" s="33"/>
+      <c r="I137" s="33"/>
+      <c r="J137" s="33"/>
+      <c r="K137" s="33"/>
+      <c r="L137" s="33"/>
+      <c r="M137" s="33"/>
+      <c r="N137" s="33"/>
+      <c r="O137" s="33"/>
+      <c r="P137" s="27"/>
+      <c r="Q137" s="90"/>
+      <c r="R137" s="96"/>
+      <c r="S137" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -13056,4 +14219,346 @@
   <pageSetup paperSize="9" scale="54" fitToHeight="0" orientation="landscape" r:id="rId17"/>
   <drawing r:id="rId18"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C084369-C70A-49E5-91DA-85BF888925C7}">
+  <dimension ref="A1:D31"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="33.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="20.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="149" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="150" t="s">
+        <v>223</v>
+      </c>
+      <c r="C1" s="39"/>
+      <c r="D1" s="147"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="119"/>
+      <c r="B2" s="151" t="s">
+        <v>244</v>
+      </c>
+      <c r="C2" s="157" t="s">
+        <v>628</v>
+      </c>
+      <c r="D2" s="148" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="152"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="107"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="152"/>
+      <c r="C4" s="127"/>
+      <c r="D4" s="107"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="28" t="s">
+        <v>283</v>
+      </c>
+      <c r="B5" s="152" t="s">
+        <v>631</v>
+      </c>
+      <c r="C5" s="127"/>
+      <c r="D5" s="107" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="28" t="s">
+        <v>283</v>
+      </c>
+      <c r="B6" s="152" t="s">
+        <v>317</v>
+      </c>
+      <c r="C6" s="127"/>
+      <c r="D6" s="107" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="153"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="107"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="153"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="107" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="B9" s="152" t="s">
+        <v>358</v>
+      </c>
+      <c r="C9" s="127"/>
+      <c r="D9" s="107" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="28" t="s">
+        <v>449</v>
+      </c>
+      <c r="B10" s="153"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="95"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="B11" s="153"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="95"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="28" t="s">
+        <v>454</v>
+      </c>
+      <c r="B12" s="152" t="s">
+        <v>358</v>
+      </c>
+      <c r="C12" s="127"/>
+      <c r="D12" s="95"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="152" t="s">
+        <v>358</v>
+      </c>
+      <c r="C13" s="127"/>
+      <c r="D13" s="95"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="28" t="s">
+        <v>624</v>
+      </c>
+      <c r="B14" s="153"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="95" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="28" t="s">
+        <v>423</v>
+      </c>
+      <c r="B15" s="153"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="95" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="102" t="s">
+        <v>630</v>
+      </c>
+      <c r="B16" s="154" t="s">
+        <v>459</v>
+      </c>
+      <c r="C16" s="156"/>
+      <c r="D16" s="116" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="102" t="s">
+        <v>630</v>
+      </c>
+      <c r="B17" s="154" t="s">
+        <v>629</v>
+      </c>
+      <c r="C17" s="156"/>
+      <c r="D17" s="116"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="102" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" s="154" t="s">
+        <v>358</v>
+      </c>
+      <c r="C18" s="156"/>
+      <c r="D18" s="116" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="102" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="154" t="s">
+        <v>493</v>
+      </c>
+      <c r="C19" s="156"/>
+      <c r="D19" s="116" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="102" t="s">
+        <v>507</v>
+      </c>
+      <c r="B20" s="154" t="s">
+        <v>510</v>
+      </c>
+      <c r="C20" s="156"/>
+      <c r="D20" s="116" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="102" t="s">
+        <v>507</v>
+      </c>
+      <c r="B21" s="154" t="s">
+        <v>358</v>
+      </c>
+      <c r="C21" s="156"/>
+      <c r="D21" s="116" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="102" t="s">
+        <v>185</v>
+      </c>
+      <c r="B22" s="154" t="s">
+        <v>537</v>
+      </c>
+      <c r="C22" s="156"/>
+      <c r="D22" s="116" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="102" t="s">
+        <v>185</v>
+      </c>
+      <c r="B23" s="154" t="s">
+        <v>543</v>
+      </c>
+      <c r="C23" s="156"/>
+      <c r="D23" s="116" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="102" t="s">
+        <v>185</v>
+      </c>
+      <c r="B24" s="154" t="s">
+        <v>553</v>
+      </c>
+      <c r="C24" s="156"/>
+      <c r="D24" s="116" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="102" t="s">
+        <v>185</v>
+      </c>
+      <c r="B25" s="154" t="s">
+        <v>560</v>
+      </c>
+      <c r="C25" s="156"/>
+      <c r="D25" s="116" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="102" t="s">
+        <v>557</v>
+      </c>
+      <c r="B26" s="154"/>
+      <c r="C26" s="156"/>
+      <c r="D26" s="116"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="102" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27" s="153" t="s">
+        <v>358</v>
+      </c>
+      <c r="C27" s="26"/>
+      <c r="D27" s="95" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="102" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" s="153"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="95" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="102" t="s">
+        <v>135</v>
+      </c>
+      <c r="B29" s="154"/>
+      <c r="C29" s="156"/>
+      <c r="D29" s="116"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="102" t="s">
+        <v>626</v>
+      </c>
+      <c r="B30" s="154"/>
+      <c r="C30" s="156"/>
+      <c r="D30" s="116" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="103" t="s">
+        <v>197</v>
+      </c>
+      <c r="B31" s="155"/>
+      <c r="C31" s="101"/>
+      <c r="D31" s="118"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>